--- a/Original/CN/Game/Backer.xlsx
+++ b/Original/CN/Game/Backer.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">1962</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.120</t>
+    <t xml:space="preserve">EA 23.129</t>
   </si>
   <si>
     <t xml:space="preserve">4982</t>

--- a/Original/CN/Game/Backer.xlsx
+++ b/Original/CN/Game/Backer.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3569" uniqueCount="2117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3569" uniqueCount="2116">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -44,7 +44,7 @@
     <t xml:space="preserve">1962</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.129</t>
+    <t xml:space="preserve">EA 23.152</t>
   </si>
   <si>
     <t xml:space="preserve">4982</t>
@@ -4421,7 +4421,7 @@
     <t xml:space="preserve">Beta 22.79</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.117</t>
+    <t xml:space="preserve">EA 23.150 Patch 1</t>
   </si>
   <si>
     <t xml:space="preserve">Alpha 20.64</t>
@@ -4431,9 +4431,6 @@
   </si>
   <si>
     <t xml:space="preserve">Alpha 20.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EA 23.108</t>
   </si>
   <si>
     <t xml:space="preserve">Alpha 20.27</t>
@@ -6533,7 +6530,7 @@
         <v>1468</v>
       </c>
       <c r="C7" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="D7" t="s">
         <v>15</v>
@@ -6591,7 +6588,7 @@
         <v>1468</v>
       </c>
       <c r="C11" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
@@ -6649,7 +6646,7 @@
         <v>1468</v>
       </c>
       <c r="C15" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
       <c r="D15" t="s">
         <v>27</v>
@@ -6690,14 +6687,14 @@
         <v>1468</v>
       </c>
       <c r="C18" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="D18" t="s">
         <v>31</v>
       </c>
       <c r="E18"/>
       <c r="F18" t="s">
-        <v>1914</v>
+        <v>1913</v>
       </c>
       <c r="G18" t="s">
         <v>32</v>
@@ -6712,7 +6709,7 @@
         <v>1468</v>
       </c>
       <c r="C19" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="D19" t="s">
         <v>34</v>
@@ -6729,7 +6726,7 @@
         <v>1468</v>
       </c>
       <c r="C20" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="D20" t="s">
         <v>36</v>
@@ -6746,7 +6743,7 @@
         <v>1468</v>
       </c>
       <c r="C21" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="D21" t="s">
         <v>38</v>
@@ -6785,7 +6782,7 @@
         <v>1468</v>
       </c>
       <c r="C23" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="D23" t="s">
         <v>43</v>
@@ -6809,7 +6806,7 @@
       </c>
       <c r="E24"/>
       <c r="F24" t="s">
-        <v>1915</v>
+        <v>1914</v>
       </c>
       <c r="G24" t="s">
         <v>46</v>
@@ -6836,7 +6833,7 @@
         <v>1468</v>
       </c>
       <c r="C26" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
       <c r="D26" t="s">
         <v>49</v>
@@ -6853,7 +6850,7 @@
         <v>1468</v>
       </c>
       <c r="C27" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
       <c r="D27" t="s">
         <v>51</v>
@@ -6870,14 +6867,14 @@
         <v>1468</v>
       </c>
       <c r="C28" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="D28" t="s">
         <v>53</v>
       </c>
       <c r="E28"/>
       <c r="F28" t="s">
-        <v>1916</v>
+        <v>1915</v>
       </c>
       <c r="G28" t="s">
         <v>54</v>
@@ -6892,14 +6889,14 @@
         <v>1468</v>
       </c>
       <c r="C29" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
       <c r="D29" t="s">
         <v>56</v>
       </c>
       <c r="E29"/>
       <c r="F29" t="s">
-        <v>1917</v>
+        <v>1916</v>
       </c>
       <c r="G29" t="s">
         <v>57</v>
@@ -6926,7 +6923,7 @@
         <v>1468</v>
       </c>
       <c r="C31" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="D31" t="s">
         <v>60</v>
@@ -6943,7 +6940,7 @@
         <v>1468</v>
       </c>
       <c r="C32" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="D32" t="s">
         <v>62</v>
@@ -6960,14 +6957,14 @@
         <v>1468</v>
       </c>
       <c r="C33" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="D33" t="s">
         <v>64</v>
       </c>
       <c r="E33"/>
       <c r="F33" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="G33" t="s">
         <v>65</v>
@@ -6982,7 +6979,7 @@
         <v>1468</v>
       </c>
       <c r="C34" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="D34" t="s">
         <v>67</v>
@@ -6999,7 +6996,7 @@
         <v>1468</v>
       </c>
       <c r="C35" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="D35" t="s">
         <v>69</v>
@@ -7016,7 +7013,7 @@
         <v>1468</v>
       </c>
       <c r="C36" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="D36" t="s">
         <v>71</v>
@@ -7067,7 +7064,7 @@
         <v>1468</v>
       </c>
       <c r="C39" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="D39" t="s">
         <v>77</v>
@@ -7084,14 +7081,14 @@
         <v>1468</v>
       </c>
       <c r="C40" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="D40" t="s">
         <v>79</v>
       </c>
       <c r="E40"/>
       <c r="F40" t="s">
-        <v>1919</v>
+        <v>1918</v>
       </c>
       <c r="G40" t="s">
         <v>80</v>
@@ -7128,7 +7125,7 @@
         <v>1468</v>
       </c>
       <c r="C42" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="D42" t="s">
         <v>85</v>
@@ -7145,7 +7142,7 @@
         <v>1468</v>
       </c>
       <c r="C43" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="D43" t="s">
         <v>87</v>
@@ -7162,14 +7159,14 @@
         <v>1468</v>
       </c>
       <c r="C44" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="D44" t="s">
         <v>89</v>
       </c>
       <c r="E44"/>
       <c r="F44" t="s">
-        <v>1920</v>
+        <v>1919</v>
       </c>
       <c r="G44" t="s">
         <v>90</v>
@@ -7196,14 +7193,14 @@
         <v>1468</v>
       </c>
       <c r="C46" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
       <c r="D46" t="s">
         <v>93</v>
       </c>
       <c r="E46"/>
       <c r="F46" t="s">
-        <v>1921</v>
+        <v>1920</v>
       </c>
       <c r="G46" t="s">
         <v>94</v>
@@ -7218,7 +7215,7 @@
         <v>1468</v>
       </c>
       <c r="C47" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="D47" t="s">
         <v>96</v>
@@ -7235,7 +7232,7 @@
         <v>1468</v>
       </c>
       <c r="C48" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="D48" t="s">
         <v>98</v>
@@ -7252,7 +7249,7 @@
         <v>1468</v>
       </c>
       <c r="C49" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
       <c r="D49" t="s">
         <v>100</v>
@@ -7291,7 +7288,7 @@
         <v>1468</v>
       </c>
       <c r="C51" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="D51" t="s">
         <v>105</v>
@@ -7308,7 +7305,7 @@
         <v>1468</v>
       </c>
       <c r="C52" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="D52" t="s">
         <v>107</v>
@@ -7325,14 +7322,14 @@
         <v>1468</v>
       </c>
       <c r="C53" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="D53" t="s">
         <v>109</v>
       </c>
       <c r="E53"/>
       <c r="F53" t="s">
-        <v>1922</v>
+        <v>1921</v>
       </c>
       <c r="G53" t="s">
         <v>110</v>
@@ -7347,14 +7344,14 @@
         <v>1468</v>
       </c>
       <c r="C54" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="D54" t="s">
         <v>112</v>
       </c>
       <c r="E54"/>
       <c r="F54" t="s">
-        <v>1923</v>
+        <v>1922</v>
       </c>
       <c r="G54" t="s">
         <v>113</v>
@@ -7386,14 +7383,14 @@
         <v>1468</v>
       </c>
       <c r="C56" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="D56" t="s">
         <v>117</v>
       </c>
       <c r="E56"/>
       <c r="F56" t="s">
-        <v>1924</v>
+        <v>1923</v>
       </c>
       <c r="G56" t="s">
         <v>118</v>
@@ -7425,7 +7422,7 @@
         <v>1468</v>
       </c>
       <c r="C58" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="D58" t="s">
         <v>122</v>
@@ -7442,7 +7439,7 @@
         <v>1468</v>
       </c>
       <c r="C59" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
       <c r="D59" t="s">
         <v>124</v>
@@ -7459,14 +7456,14 @@
         <v>1468</v>
       </c>
       <c r="C60" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="D60" t="s">
         <v>126</v>
       </c>
       <c r="E60"/>
       <c r="F60" t="s">
-        <v>1925</v>
+        <v>1924</v>
       </c>
       <c r="G60" t="s">
         <v>127</v>
@@ -7481,7 +7478,7 @@
         <v>1468</v>
       </c>
       <c r="C61" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="D61" t="s">
         <v>129</v>
@@ -7498,14 +7495,14 @@
         <v>1468</v>
       </c>
       <c r="C62" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="D62" t="s">
         <v>131</v>
       </c>
       <c r="E62"/>
       <c r="F62" t="s">
-        <v>1926</v>
+        <v>1925</v>
       </c>
       <c r="G62" t="s">
         <v>132</v>
@@ -7520,14 +7517,14 @@
         <v>1468</v>
       </c>
       <c r="C63" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="D63" t="s">
         <v>134</v>
       </c>
       <c r="E63"/>
       <c r="F63" t="s">
-        <v>1927</v>
+        <v>1926</v>
       </c>
       <c r="G63" t="s">
         <v>135</v>
@@ -7559,14 +7556,14 @@
         <v>1468</v>
       </c>
       <c r="C65" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="D65" t="s">
         <v>139</v>
       </c>
       <c r="E65"/>
       <c r="F65" t="s">
-        <v>1928</v>
+        <v>1927</v>
       </c>
       <c r="G65" t="s">
         <v>140</v>
@@ -7581,14 +7578,14 @@
         <v>1468</v>
       </c>
       <c r="C66" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="D66" t="s">
         <v>142</v>
       </c>
       <c r="E66"/>
       <c r="F66" t="s">
-        <v>1929</v>
+        <v>1928</v>
       </c>
       <c r="G66" t="s">
         <v>143</v>
@@ -7603,14 +7600,14 @@
         <v>1468</v>
       </c>
       <c r="C67" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="D67" t="s">
         <v>145</v>
       </c>
       <c r="E67"/>
       <c r="F67" t="s">
-        <v>1930</v>
+        <v>1929</v>
       </c>
       <c r="G67" t="s">
         <v>146</v>
@@ -7625,7 +7622,7 @@
         <v>1468</v>
       </c>
       <c r="C68" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="D68" t="s">
         <v>148</v>
@@ -7642,14 +7639,14 @@
         <v>1468</v>
       </c>
       <c r="C69" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
       <c r="D69" t="s">
         <v>150</v>
       </c>
       <c r="E69"/>
       <c r="F69" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
       <c r="G69" t="s">
         <v>151</v>
@@ -7664,7 +7661,7 @@
         <v>1468</v>
       </c>
       <c r="C70" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
       <c r="D70" t="s">
         <v>153</v>
@@ -7710,14 +7707,14 @@
         <v>1468</v>
       </c>
       <c r="C73" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
       <c r="D73" t="s">
         <v>158</v>
       </c>
       <c r="E73"/>
       <c r="F73" t="s">
-        <v>1932</v>
+        <v>1931</v>
       </c>
       <c r="G73" t="s">
         <v>159</v>
@@ -7732,14 +7729,14 @@
         <v>1468</v>
       </c>
       <c r="C74" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
       <c r="D74" t="s">
         <v>161</v>
       </c>
       <c r="E74"/>
       <c r="F74" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
       <c r="G74" t="s">
         <v>162</v>
@@ -7754,7 +7751,7 @@
         <v>1468</v>
       </c>
       <c r="C75" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
       <c r="D75" t="s">
         <v>164</v>
@@ -7771,14 +7768,14 @@
         <v>1468</v>
       </c>
       <c r="C76" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
       <c r="D76" t="s">
         <v>166</v>
       </c>
       <c r="E76"/>
       <c r="F76" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
       <c r="G76" t="s">
         <v>167</v>
@@ -7793,7 +7790,7 @@
         <v>1468</v>
       </c>
       <c r="C77" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
       <c r="D77" t="s">
         <v>169</v>
@@ -7849,7 +7846,7 @@
         <v>1468</v>
       </c>
       <c r="C80" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
       <c r="D80" t="s">
         <v>176</v>
@@ -7866,14 +7863,14 @@
         <v>1468</v>
       </c>
       <c r="C81" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="D81" t="s">
         <v>178</v>
       </c>
       <c r="E81"/>
       <c r="F81" t="s">
-        <v>1935</v>
+        <v>1934</v>
       </c>
       <c r="G81" t="s">
         <v>179</v>
@@ -7888,14 +7885,14 @@
         <v>1468</v>
       </c>
       <c r="C82" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
       <c r="D82" t="s">
         <v>181</v>
       </c>
       <c r="E82"/>
       <c r="F82" t="s">
-        <v>1936</v>
+        <v>1935</v>
       </c>
       <c r="G82" t="s">
         <v>182</v>
@@ -7949,14 +7946,14 @@
         <v>1468</v>
       </c>
       <c r="C85" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="D85" t="s">
         <v>189</v>
       </c>
       <c r="E85"/>
       <c r="F85" t="s">
-        <v>1937</v>
+        <v>1936</v>
       </c>
       <c r="G85" t="s">
         <v>190</v>
@@ -7971,14 +7968,14 @@
         <v>1468</v>
       </c>
       <c r="C86" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="D86" t="s">
         <v>192</v>
       </c>
       <c r="E86"/>
       <c r="F86" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
       <c r="G86" t="s">
         <v>193</v>
@@ -7993,7 +7990,7 @@
         <v>1468</v>
       </c>
       <c r="C87" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="D87" t="s">
         <v>195</v>
@@ -8010,7 +8007,7 @@
         <v>1468</v>
       </c>
       <c r="C88" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="D88" t="s">
         <v>197</v>
@@ -8027,14 +8024,14 @@
         <v>1468</v>
       </c>
       <c r="C89" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
       <c r="D89" t="s">
         <v>199</v>
       </c>
       <c r="E89"/>
       <c r="F89" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
       <c r="G89" t="s">
         <v>200</v>
@@ -8049,14 +8046,14 @@
         <v>1468</v>
       </c>
       <c r="C90" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="D90" t="s">
         <v>202</v>
       </c>
       <c r="E90"/>
       <c r="F90" t="s">
-        <v>1940</v>
+        <v>1939</v>
       </c>
       <c r="G90" t="s">
         <v>203</v>
@@ -8071,14 +8068,14 @@
         <v>1468</v>
       </c>
       <c r="C91" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
       <c r="D91" t="s">
         <v>205</v>
       </c>
       <c r="E91"/>
       <c r="F91" t="s">
-        <v>1941</v>
+        <v>1940</v>
       </c>
       <c r="G91" t="s">
         <v>206</v>
@@ -8105,14 +8102,14 @@
         <v>1468</v>
       </c>
       <c r="C93" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="D93" t="s">
         <v>209</v>
       </c>
       <c r="E93"/>
       <c r="F93" t="s">
-        <v>1942</v>
+        <v>1941</v>
       </c>
       <c r="G93" t="s">
         <v>210</v>
@@ -8127,7 +8124,7 @@
         <v>1468</v>
       </c>
       <c r="C94" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="D94" t="s">
         <v>212</v>
@@ -8166,7 +8163,7 @@
         <v>1468</v>
       </c>
       <c r="C96" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
       <c r="D96" t="s">
         <v>217</v>
@@ -8183,7 +8180,7 @@
         <v>1468</v>
       </c>
       <c r="C97" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
       <c r="D97" t="s">
         <v>219</v>
@@ -8200,14 +8197,14 @@
         <v>1468</v>
       </c>
       <c r="C98" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="D98" t="s">
         <v>221</v>
       </c>
       <c r="E98"/>
       <c r="F98" t="s">
-        <v>1943</v>
+        <v>1942</v>
       </c>
       <c r="G98" t="s">
         <v>222</v>
@@ -8222,14 +8219,14 @@
         <v>1468</v>
       </c>
       <c r="C99" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
       <c r="D99" t="s">
         <v>224</v>
       </c>
       <c r="E99"/>
       <c r="F99" t="s">
-        <v>1944</v>
+        <v>1943</v>
       </c>
       <c r="G99" t="s">
         <v>225</v>
@@ -8261,7 +8258,7 @@
         <v>1468</v>
       </c>
       <c r="C101" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="D101" t="s">
         <v>229</v>
@@ -8278,7 +8275,7 @@
         <v>1468</v>
       </c>
       <c r="C102" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
       <c r="D102" t="s">
         <v>231</v>
@@ -8295,7 +8292,7 @@
         <v>1468</v>
       </c>
       <c r="C103" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="D103" t="s">
         <v>233</v>
@@ -8312,14 +8309,14 @@
         <v>1468</v>
       </c>
       <c r="C104" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
       <c r="D104" t="s">
         <v>235</v>
       </c>
       <c r="E104"/>
       <c r="F104" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="G104" t="s">
         <v>236</v>
@@ -8351,14 +8348,14 @@
         <v>1468</v>
       </c>
       <c r="C106" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
       <c r="D106" t="s">
         <v>240</v>
       </c>
       <c r="E106"/>
       <c r="F106" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
       <c r="G106" t="s">
         <v>241</v>
@@ -8373,7 +8370,7 @@
         <v>1468</v>
       </c>
       <c r="C107" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="D107" t="s">
         <v>243</v>
@@ -8390,7 +8387,7 @@
         <v>1468</v>
       </c>
       <c r="C108" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D108" t="s">
         <v>245</v>
@@ -8424,7 +8421,7 @@
         <v>1468</v>
       </c>
       <c r="C110" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="D110" t="s">
         <v>249</v>
@@ -8441,7 +8438,7 @@
         <v>1468</v>
       </c>
       <c r="C111" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="D111" t="s">
         <v>251</v>
@@ -8458,7 +8455,7 @@
         <v>1468</v>
       </c>
       <c r="C112" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="D112" t="s">
         <v>253</v>
@@ -8475,14 +8472,14 @@
         <v>1468</v>
       </c>
       <c r="C113" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="D113" t="s">
         <v>255</v>
       </c>
       <c r="E113"/>
       <c r="F113" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
       <c r="G113" t="s">
         <v>256</v>
@@ -8509,14 +8506,14 @@
         <v>1468</v>
       </c>
       <c r="C115" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="D115" t="s">
         <v>259</v>
       </c>
       <c r="E115"/>
       <c r="F115" t="s">
-        <v>1948</v>
+        <v>1947</v>
       </c>
       <c r="G115" t="s">
         <v>260</v>
@@ -8531,14 +8528,14 @@
         <v>1468</v>
       </c>
       <c r="C116" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="D116" t="s">
         <v>262</v>
       </c>
       <c r="E116"/>
       <c r="F116" t="s">
-        <v>1949</v>
+        <v>1948</v>
       </c>
       <c r="G116" t="s">
         <v>263</v>
@@ -8553,7 +8550,7 @@
         <v>1468</v>
       </c>
       <c r="C117" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="D117" t="s">
         <v>265</v>
@@ -8570,14 +8567,14 @@
         <v>1468</v>
       </c>
       <c r="C118" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="D118" t="s">
         <v>267</v>
       </c>
       <c r="E118"/>
       <c r="F118" t="s">
-        <v>1950</v>
+        <v>1949</v>
       </c>
       <c r="G118" t="s">
         <v>268</v>
@@ -8592,7 +8589,7 @@
         <v>1468</v>
       </c>
       <c r="C119" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="D119" t="s">
         <v>270</v>
@@ -8648,7 +8645,7 @@
         <v>1468</v>
       </c>
       <c r="C122" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="D122" t="s">
         <v>277</v>
@@ -8665,7 +8662,7 @@
         <v>1468</v>
       </c>
       <c r="C123" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="D123" t="s">
         <v>279</v>
@@ -8682,7 +8679,7 @@
         <v>1468</v>
       </c>
       <c r="C124" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="D124" t="s">
         <v>281</v>
@@ -8699,14 +8696,14 @@
         <v>1468</v>
       </c>
       <c r="C125" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="D125" t="s">
         <v>283</v>
       </c>
       <c r="E125"/>
       <c r="F125" t="s">
-        <v>1951</v>
+        <v>1950</v>
       </c>
       <c r="G125" t="s">
         <v>284</v>
@@ -8721,7 +8718,7 @@
         <v>1468</v>
       </c>
       <c r="C126" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="D126" t="s">
         <v>286</v>
@@ -8738,14 +8735,14 @@
         <v>1468</v>
       </c>
       <c r="C127" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="D127" t="s">
         <v>288</v>
       </c>
       <c r="E127"/>
       <c r="F127" t="s">
-        <v>1952</v>
+        <v>1951</v>
       </c>
       <c r="G127" t="s">
         <v>289</v>
@@ -8760,14 +8757,14 @@
         <v>1468</v>
       </c>
       <c r="C128" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="D128" t="s">
         <v>291</v>
       </c>
       <c r="E128"/>
       <c r="F128" t="s">
-        <v>1953</v>
+        <v>1952</v>
       </c>
       <c r="G128" t="s">
         <v>292</v>
@@ -8823,7 +8820,7 @@
       </c>
       <c r="E131"/>
       <c r="F131" t="s">
-        <v>1954</v>
+        <v>1953</v>
       </c>
       <c r="G131" t="s">
         <v>299</v>
@@ -8838,14 +8835,14 @@
         <v>1468</v>
       </c>
       <c r="C132" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="D132" t="s">
         <v>301</v>
       </c>
       <c r="E132"/>
       <c r="F132" t="s">
-        <v>1955</v>
+        <v>1954</v>
       </c>
       <c r="G132" t="s">
         <v>302</v>
@@ -8860,7 +8857,7 @@
         <v>1468</v>
       </c>
       <c r="C133" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
       <c r="D133" t="s">
         <v>304</v>
@@ -8877,14 +8874,14 @@
         <v>1468</v>
       </c>
       <c r="C134" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="D134" t="s">
         <v>306</v>
       </c>
       <c r="E134"/>
       <c r="F134" t="s">
-        <v>1956</v>
+        <v>1955</v>
       </c>
       <c r="G134" t="s">
         <v>307</v>
@@ -8916,7 +8913,7 @@
         <v>1468</v>
       </c>
       <c r="C136" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="D136" t="s">
         <v>311</v>
@@ -8933,7 +8930,7 @@
         <v>1468</v>
       </c>
       <c r="C137" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
       <c r="D137" t="s">
         <v>313</v>
@@ -8950,14 +8947,14 @@
         <v>1468</v>
       </c>
       <c r="C138" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
       <c r="D138" t="s">
         <v>315</v>
       </c>
       <c r="E138"/>
       <c r="F138" t="s">
-        <v>1957</v>
+        <v>1956</v>
       </c>
       <c r="G138" t="s">
         <v>316</v>
@@ -9001,7 +8998,7 @@
         <v>1468</v>
       </c>
       <c r="C141" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
       <c r="D141" t="s">
         <v>321</v>
@@ -9040,7 +9037,7 @@
         <v>1468</v>
       </c>
       <c r="C143" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="D143" t="s">
         <v>326</v>
@@ -9064,7 +9061,7 @@
       </c>
       <c r="E144"/>
       <c r="F144" t="s">
-        <v>1958</v>
+        <v>1957</v>
       </c>
       <c r="G144" t="s">
         <v>329</v>
@@ -9079,14 +9076,14 @@
         <v>1468</v>
       </c>
       <c r="C145" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
       <c r="D145" t="s">
         <v>331</v>
       </c>
       <c r="E145"/>
       <c r="F145" t="s">
-        <v>1959</v>
+        <v>1958</v>
       </c>
       <c r="G145" t="s">
         <v>332</v>
@@ -9113,14 +9110,14 @@
         <v>1468</v>
       </c>
       <c r="C147" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
       <c r="D147" t="s">
         <v>335</v>
       </c>
       <c r="E147"/>
       <c r="F147" t="s">
-        <v>1960</v>
+        <v>1959</v>
       </c>
       <c r="G147" t="s">
         <v>336</v>
@@ -9135,7 +9132,7 @@
         <v>1468</v>
       </c>
       <c r="C148" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
       <c r="D148" t="s">
         <v>338</v>
@@ -9152,7 +9149,7 @@
         <v>1468</v>
       </c>
       <c r="C149" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="D149" t="s">
         <v>340</v>
@@ -9186,14 +9183,14 @@
         <v>1468</v>
       </c>
       <c r="C151" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="D151" t="s">
         <v>344</v>
       </c>
       <c r="E151"/>
       <c r="F151" t="s">
-        <v>1961</v>
+        <v>1960</v>
       </c>
       <c r="G151" t="s">
         <v>345</v>
@@ -9208,7 +9205,7 @@
         <v>1468</v>
       </c>
       <c r="C152" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
       <c r="D152" t="s">
         <v>347</v>
@@ -9225,7 +9222,7 @@
         <v>1468</v>
       </c>
       <c r="C153" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
       <c r="D153" t="s">
         <v>349</v>
@@ -9242,14 +9239,14 @@
         <v>1468</v>
       </c>
       <c r="C154" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
       <c r="D154" t="s">
         <v>351</v>
       </c>
       <c r="E154"/>
       <c r="F154" t="s">
-        <v>1962</v>
+        <v>1961</v>
       </c>
       <c r="G154" t="s">
         <v>352</v>
@@ -9286,14 +9283,14 @@
         <v>1468</v>
       </c>
       <c r="C156" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
       <c r="D156" t="s">
         <v>357</v>
       </c>
       <c r="E156"/>
       <c r="F156" t="s">
-        <v>1963</v>
+        <v>1962</v>
       </c>
       <c r="G156" t="s">
         <v>358</v>
@@ -9308,14 +9305,14 @@
         <v>1468</v>
       </c>
       <c r="C157" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
       <c r="D157" t="s">
         <v>360</v>
       </c>
       <c r="E157"/>
       <c r="F157" t="s">
-        <v>1964</v>
+        <v>1963</v>
       </c>
       <c r="G157" t="s">
         <v>361</v>
@@ -9330,7 +9327,7 @@
         <v>1468</v>
       </c>
       <c r="C158" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
       <c r="D158" t="s">
         <v>363</v>
@@ -9347,14 +9344,14 @@
         <v>1468</v>
       </c>
       <c r="C159" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
       <c r="D159" t="s">
         <v>365</v>
       </c>
       <c r="E159"/>
       <c r="F159" t="s">
-        <v>1965</v>
+        <v>1964</v>
       </c>
       <c r="G159" t="s">
         <v>366</v>
@@ -9369,14 +9366,14 @@
         <v>1468</v>
       </c>
       <c r="C160" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
       <c r="D160" t="s">
         <v>368</v>
       </c>
       <c r="E160"/>
       <c r="F160" t="s">
-        <v>1966</v>
+        <v>1965</v>
       </c>
       <c r="G160" t="s">
         <v>369</v>
@@ -9391,14 +9388,14 @@
         <v>1468</v>
       </c>
       <c r="C161" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
       <c r="D161" t="s">
         <v>371</v>
       </c>
       <c r="E161"/>
       <c r="F161" t="s">
-        <v>1967</v>
+        <v>1966</v>
       </c>
       <c r="G161" t="s">
         <v>372</v>
@@ -9425,7 +9422,7 @@
         <v>1468</v>
       </c>
       <c r="C163" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
       <c r="D163" t="s">
         <v>375</v>
@@ -9459,14 +9456,14 @@
         <v>1468</v>
       </c>
       <c r="C165" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
       <c r="D165" t="s">
         <v>379</v>
       </c>
       <c r="E165"/>
       <c r="F165" t="s">
-        <v>1968</v>
+        <v>1967</v>
       </c>
       <c r="G165" t="s">
         <v>380</v>
@@ -9481,14 +9478,14 @@
         <v>1468</v>
       </c>
       <c r="C166" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
       <c r="D166" t="s">
         <v>382</v>
       </c>
       <c r="E166"/>
       <c r="F166" t="s">
-        <v>1969</v>
+        <v>1968</v>
       </c>
       <c r="G166" t="s">
         <v>383</v>
@@ -9503,7 +9500,7 @@
         <v>1468</v>
       </c>
       <c r="C167" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
       <c r="D167" t="s">
         <v>385</v>
@@ -9520,14 +9517,14 @@
         <v>1468</v>
       </c>
       <c r="C168" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="D168" t="s">
         <v>387</v>
       </c>
       <c r="E168"/>
       <c r="F168" t="s">
-        <v>1970</v>
+        <v>1969</v>
       </c>
       <c r="G168" t="s">
         <v>388</v>
@@ -9542,7 +9539,7 @@
         <v>1468</v>
       </c>
       <c r="C169" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
       <c r="D169" t="s">
         <v>390</v>
@@ -9559,14 +9556,14 @@
         <v>1468</v>
       </c>
       <c r="C170" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
       <c r="D170" t="s">
         <v>392</v>
       </c>
       <c r="E170"/>
       <c r="F170" t="s">
-        <v>1971</v>
+        <v>1970</v>
       </c>
       <c r="G170" t="s">
         <v>393</v>
@@ -9581,7 +9578,7 @@
         <v>1468</v>
       </c>
       <c r="C171" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
       <c r="D171" t="s">
         <v>395</v>
@@ -9620,7 +9617,7 @@
         <v>1468</v>
       </c>
       <c r="C173" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="D173" t="s">
         <v>400</v>
@@ -9637,7 +9634,7 @@
         <v>1468</v>
       </c>
       <c r="C174" t="s">
-        <v>1593</v>
+        <v>1592</v>
       </c>
       <c r="D174" t="s">
         <v>402</v>
@@ -9654,7 +9651,7 @@
         <v>1468</v>
       </c>
       <c r="C175" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
       <c r="D175" t="s">
         <v>404</v>
@@ -9671,14 +9668,14 @@
         <v>1468</v>
       </c>
       <c r="C176" t="s">
-        <v>1595</v>
+        <v>1594</v>
       </c>
       <c r="D176" t="s">
         <v>406</v>
       </c>
       <c r="E176"/>
       <c r="F176" t="s">
-        <v>1972</v>
+        <v>1971</v>
       </c>
       <c r="G176" t="s">
         <v>407</v>
@@ -9693,14 +9690,14 @@
         <v>1468</v>
       </c>
       <c r="C177" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
       <c r="D177" t="s">
         <v>409</v>
       </c>
       <c r="E177"/>
       <c r="F177" t="s">
-        <v>1973</v>
+        <v>1972</v>
       </c>
       <c r="G177" t="s">
         <v>410</v>
@@ -9715,7 +9712,7 @@
         <v>1468</v>
       </c>
       <c r="C178" t="s">
-        <v>1597</v>
+        <v>1596</v>
       </c>
       <c r="D178" t="s">
         <v>412</v>
@@ -9732,14 +9729,14 @@
         <v>1468</v>
       </c>
       <c r="C179" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
       <c r="D179" t="s">
         <v>414</v>
       </c>
       <c r="E179"/>
       <c r="F179" t="s">
-        <v>1974</v>
+        <v>1973</v>
       </c>
       <c r="G179" t="s">
         <v>415</v>
@@ -9754,14 +9751,14 @@
         <v>1468</v>
       </c>
       <c r="C180" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="D180" t="s">
         <v>417</v>
       </c>
       <c r="E180"/>
       <c r="F180" t="s">
-        <v>1975</v>
+        <v>1974</v>
       </c>
       <c r="G180" t="s">
         <v>418</v>
@@ -9776,7 +9773,7 @@
         <v>1468</v>
       </c>
       <c r="C181" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="D181" t="s">
         <v>420</v>
@@ -9793,7 +9790,7 @@
         <v>1468</v>
       </c>
       <c r="C182" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
       <c r="D182" t="s">
         <v>422</v>
@@ -9810,14 +9807,14 @@
         <v>1468</v>
       </c>
       <c r="C183" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="D183" t="s">
         <v>424</v>
       </c>
       <c r="E183"/>
       <c r="F183" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
       <c r="G183" t="s">
         <v>425</v>
@@ -9832,7 +9829,7 @@
         <v>1468</v>
       </c>
       <c r="C184" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
       <c r="D184" t="s">
         <v>427</v>
@@ -9849,7 +9846,7 @@
         <v>1468</v>
       </c>
       <c r="C185" t="s">
-        <v>1604</v>
+        <v>1603</v>
       </c>
       <c r="D185" t="s">
         <v>429</v>
@@ -9866,7 +9863,7 @@
         <v>1468</v>
       </c>
       <c r="C186" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="D186" t="s">
         <v>431</v>
@@ -9900,14 +9897,14 @@
         <v>1468</v>
       </c>
       <c r="C188" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="D188" t="s">
         <v>435</v>
       </c>
       <c r="E188"/>
       <c r="F188" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
       <c r="G188" t="s">
         <v>436</v>
@@ -9922,7 +9919,7 @@
         <v>1468</v>
       </c>
       <c r="C189" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
       <c r="D189" t="s">
         <v>438</v>
@@ -9939,7 +9936,7 @@
         <v>1468</v>
       </c>
       <c r="C190" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
       <c r="D190" t="s">
         <v>440</v>
@@ -9956,14 +9953,14 @@
         <v>1468</v>
       </c>
       <c r="C191" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
       <c r="D191" t="s">
         <v>442</v>
       </c>
       <c r="E191"/>
       <c r="F191" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
       <c r="G191" t="s">
         <v>443</v>
@@ -9990,7 +9987,7 @@
         <v>1468</v>
       </c>
       <c r="C193" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
       <c r="D193" t="s">
         <v>446</v>
@@ -10007,7 +10004,7 @@
         <v>1468</v>
       </c>
       <c r="C194" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
       <c r="D194" t="s">
         <v>448</v>
@@ -10053,14 +10050,14 @@
         <v>1468</v>
       </c>
       <c r="C197" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="D197" t="s">
         <v>453</v>
       </c>
       <c r="E197"/>
       <c r="F197" t="s">
-        <v>1979</v>
+        <v>1978</v>
       </c>
       <c r="G197" t="s">
         <v>454</v>
@@ -10092,7 +10089,7 @@
         <v>1468</v>
       </c>
       <c r="C199" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="D199" t="s">
         <v>458</v>
@@ -10109,7 +10106,7 @@
         <v>1468</v>
       </c>
       <c r="C200" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
       <c r="D200" t="s">
         <v>460</v>
@@ -10126,14 +10123,14 @@
         <v>1468</v>
       </c>
       <c r="C201" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
       <c r="D201" t="s">
         <v>462</v>
       </c>
       <c r="E201"/>
       <c r="F201" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="G201" t="s">
         <v>463</v>
@@ -10148,14 +10145,14 @@
         <v>1468</v>
       </c>
       <c r="C202" t="s">
-        <v>1616</v>
+        <v>1615</v>
       </c>
       <c r="D202" t="s">
         <v>465</v>
       </c>
       <c r="E202"/>
       <c r="F202" t="s">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="G202" t="s">
         <v>466</v>
@@ -10187,7 +10184,7 @@
         <v>1468</v>
       </c>
       <c r="C204" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
       <c r="D204" t="s">
         <v>470</v>
@@ -10204,7 +10201,7 @@
         <v>1468</v>
       </c>
       <c r="C205" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
       <c r="D205" t="s">
         <v>472</v>
@@ -10233,14 +10230,14 @@
         <v>1468</v>
       </c>
       <c r="C207" t="s">
-        <v>1619</v>
+        <v>1618</v>
       </c>
       <c r="D207" t="s">
         <v>475</v>
       </c>
       <c r="E207"/>
       <c r="F207" t="s">
-        <v>1982</v>
+        <v>1981</v>
       </c>
       <c r="G207" t="s">
         <v>476</v>
@@ -10255,14 +10252,14 @@
         <v>1468</v>
       </c>
       <c r="C208" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="D208" t="s">
         <v>478</v>
       </c>
       <c r="E208"/>
       <c r="F208" t="s">
-        <v>1983</v>
+        <v>1982</v>
       </c>
       <c r="G208" t="s">
         <v>479</v>
@@ -10277,7 +10274,7 @@
         <v>1468</v>
       </c>
       <c r="C209" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="D209" t="s">
         <v>481</v>
@@ -10306,14 +10303,14 @@
         <v>1468</v>
       </c>
       <c r="C211" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="D211" t="s">
         <v>484</v>
       </c>
       <c r="E211"/>
       <c r="F211" t="s">
-        <v>1984</v>
+        <v>1983</v>
       </c>
       <c r="G211" t="s">
         <v>485</v>
@@ -10328,7 +10325,7 @@
         <v>1468</v>
       </c>
       <c r="C212" t="s">
-        <v>1623</v>
+        <v>1622</v>
       </c>
       <c r="D212" t="s">
         <v>487</v>
@@ -10345,14 +10342,14 @@
         <v>1468</v>
       </c>
       <c r="C213" t="s">
-        <v>1624</v>
+        <v>1623</v>
       </c>
       <c r="D213" t="s">
         <v>489</v>
       </c>
       <c r="E213"/>
       <c r="F213" t="s">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="G213" t="s">
         <v>490</v>
@@ -10367,7 +10364,7 @@
         <v>1468</v>
       </c>
       <c r="C214" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
       <c r="D214" t="s">
         <v>492</v>
@@ -10401,7 +10398,7 @@
         <v>1468</v>
       </c>
       <c r="C216" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
       <c r="D216" t="s">
         <v>496</v>
@@ -10418,7 +10415,7 @@
         <v>1468</v>
       </c>
       <c r="C217" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
       <c r="D217" t="s">
         <v>498</v>
@@ -10435,7 +10432,7 @@
         <v>1468</v>
       </c>
       <c r="C218" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
       <c r="D218" t="s">
         <v>500</v>
@@ -10452,14 +10449,14 @@
         <v>1468</v>
       </c>
       <c r="C219" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
       <c r="D219" t="s">
         <v>502</v>
       </c>
       <c r="E219"/>
       <c r="F219" t="s">
-        <v>1986</v>
+        <v>1985</v>
       </c>
       <c r="G219" t="s">
         <v>503</v>
@@ -10474,14 +10471,14 @@
         <v>1468</v>
       </c>
       <c r="C220" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="D220" t="s">
         <v>505</v>
       </c>
       <c r="E220"/>
       <c r="F220" t="s">
-        <v>1987</v>
+        <v>1986</v>
       </c>
       <c r="G220" t="s">
         <v>506</v>
@@ -10508,7 +10505,7 @@
         <v>1468</v>
       </c>
       <c r="C222" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
       <c r="D222" t="s">
         <v>509</v>
@@ -10559,14 +10556,14 @@
         <v>1468</v>
       </c>
       <c r="C225" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
       <c r="D225" t="s">
         <v>515</v>
       </c>
       <c r="E225"/>
       <c r="F225" t="s">
-        <v>1988</v>
+        <v>1987</v>
       </c>
       <c r="G225" t="s">
         <v>516</v>
@@ -10581,7 +10578,7 @@
         <v>1468</v>
       </c>
       <c r="C226" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
       <c r="D226" t="s">
         <v>518</v>
@@ -10598,14 +10595,14 @@
         <v>1468</v>
       </c>
       <c r="C227" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="D227" t="s">
         <v>520</v>
       </c>
       <c r="E227"/>
       <c r="F227" t="s">
-        <v>1989</v>
+        <v>1988</v>
       </c>
       <c r="G227" t="s">
         <v>521</v>
@@ -10620,7 +10617,7 @@
         <v>1468</v>
       </c>
       <c r="C228" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
       <c r="D228" t="s">
         <v>523</v>
@@ -10637,14 +10634,14 @@
         <v>1468</v>
       </c>
       <c r="C229" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
       <c r="D229" t="s">
         <v>525</v>
       </c>
       <c r="E229"/>
       <c r="F229" t="s">
-        <v>1990</v>
+        <v>1989</v>
       </c>
       <c r="G229" t="s">
         <v>526</v>
@@ -10659,7 +10656,7 @@
         <v>1468</v>
       </c>
       <c r="C230" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="D230" t="s">
         <v>528</v>
@@ -10676,7 +10673,7 @@
         <v>1468</v>
       </c>
       <c r="C231" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
       <c r="D231" t="s">
         <v>530</v>
@@ -10693,7 +10690,7 @@
         <v>1468</v>
       </c>
       <c r="C232" t="s">
-        <v>1639</v>
+        <v>1638</v>
       </c>
       <c r="D232" t="s">
         <v>532</v>
@@ -10710,14 +10707,14 @@
         <v>1468</v>
       </c>
       <c r="C233" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
       <c r="D233" t="s">
         <v>534</v>
       </c>
       <c r="E233"/>
       <c r="F233" t="s">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="G233" t="s">
         <v>535</v>
@@ -10744,7 +10741,7 @@
         <v>1468</v>
       </c>
       <c r="C235" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
       <c r="D235" t="s">
         <v>538</v>
@@ -10761,7 +10758,7 @@
         <v>1468</v>
       </c>
       <c r="C236" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
       <c r="D236" t="s">
         <v>540</v>
@@ -10778,14 +10775,14 @@
         <v>1468</v>
       </c>
       <c r="C237" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
       <c r="D237" t="s">
         <v>542</v>
       </c>
       <c r="E237"/>
       <c r="F237" t="s">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="G237" t="s">
         <v>543</v>
@@ -10839,7 +10836,7 @@
         <v>1468</v>
       </c>
       <c r="C240" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="D240" t="s">
         <v>550</v>
@@ -10856,14 +10853,14 @@
         <v>1468</v>
       </c>
       <c r="C241" t="s">
-        <v>1645</v>
+        <v>1644</v>
       </c>
       <c r="D241" t="s">
         <v>552</v>
       </c>
       <c r="E241"/>
       <c r="F241" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="G241" t="s">
         <v>553</v>
@@ -10878,7 +10875,7 @@
         <v>1468</v>
       </c>
       <c r="C242" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
       <c r="D242" t="s">
         <v>555</v>
@@ -10895,14 +10892,14 @@
         <v>1468</v>
       </c>
       <c r="C243" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
       <c r="D243" t="s">
         <v>557</v>
       </c>
       <c r="E243"/>
       <c r="F243" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="G243" t="s">
         <v>558</v>
@@ -10917,14 +10914,14 @@
         <v>1468</v>
       </c>
       <c r="C244" t="s">
-        <v>1648</v>
+        <v>1647</v>
       </c>
       <c r="D244" t="s">
         <v>560</v>
       </c>
       <c r="E244"/>
       <c r="F244" t="s">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="G244" t="s">
         <v>561</v>
@@ -10939,7 +10936,7 @@
         <v>1468</v>
       </c>
       <c r="C245" t="s">
-        <v>1649</v>
+        <v>1648</v>
       </c>
       <c r="D245" t="s">
         <v>563</v>
@@ -10956,7 +10953,7 @@
         <v>1468</v>
       </c>
       <c r="C246" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
       <c r="D246" t="s">
         <v>565</v>
@@ -10973,14 +10970,14 @@
         <v>1468</v>
       </c>
       <c r="C247" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
       <c r="D247" t="s">
         <v>567</v>
       </c>
       <c r="E247"/>
       <c r="F247" t="s">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="G247" t="s">
         <v>568</v>
@@ -10995,14 +10992,14 @@
         <v>1468</v>
       </c>
       <c r="C248" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="D248" t="s">
         <v>570</v>
       </c>
       <c r="E248"/>
       <c r="F248" t="s">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="G248" t="s">
         <v>571</v>
@@ -11017,7 +11014,7 @@
         <v>1468</v>
       </c>
       <c r="C249" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
       <c r="D249" t="s">
         <v>573</v>
@@ -11034,7 +11031,7 @@
         <v>1468</v>
       </c>
       <c r="C250" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="D250" t="s">
         <v>575</v>
@@ -11051,7 +11048,7 @@
         <v>1468</v>
       </c>
       <c r="C251" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
       <c r="D251" t="s">
         <v>577</v>
@@ -11080,14 +11077,14 @@
         <v>1468</v>
       </c>
       <c r="C253" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="D253" t="s">
         <v>580</v>
       </c>
       <c r="E253"/>
       <c r="F253" t="s">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="G253" t="s">
         <v>581</v>
@@ -11109,7 +11106,7 @@
       </c>
       <c r="E254"/>
       <c r="F254" t="s">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="G254" t="s">
         <v>584</v>
@@ -11124,7 +11121,7 @@
         <v>1468</v>
       </c>
       <c r="C255" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="D255" t="s">
         <v>586</v>
@@ -11141,14 +11138,14 @@
         <v>1468</v>
       </c>
       <c r="C256" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="D256" t="s">
         <v>588</v>
       </c>
       <c r="E256"/>
       <c r="F256" t="s">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="G256" t="s">
         <v>589</v>
@@ -11163,7 +11160,7 @@
         <v>1468</v>
       </c>
       <c r="C257" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
       <c r="D257" t="s">
         <v>591</v>
@@ -11180,14 +11177,14 @@
         <v>1468</v>
       </c>
       <c r="C258" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="D258" t="s">
         <v>593</v>
       </c>
       <c r="E258"/>
       <c r="F258" t="s">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="G258" t="s">
         <v>594</v>
@@ -11202,14 +11199,14 @@
         <v>1468</v>
       </c>
       <c r="C259" t="s">
-        <v>1661</v>
+        <v>1660</v>
       </c>
       <c r="D259" t="s">
         <v>596</v>
       </c>
       <c r="E259"/>
       <c r="F259" t="s">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="G259" t="s">
         <v>597</v>
@@ -11224,14 +11221,14 @@
         <v>1468</v>
       </c>
       <c r="C260" t="s">
-        <v>1662</v>
+        <v>1661</v>
       </c>
       <c r="D260" t="s">
         <v>599</v>
       </c>
       <c r="E260"/>
       <c r="F260" t="s">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="G260" t="s">
         <v>600</v>
@@ -11246,7 +11243,7 @@
         <v>1468</v>
       </c>
       <c r="C261" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="D261" t="s">
         <v>602</v>
@@ -11263,14 +11260,14 @@
         <v>1468</v>
       </c>
       <c r="C262" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
       <c r="D262" t="s">
         <v>604</v>
       </c>
       <c r="E262"/>
       <c r="F262" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="G262" t="s">
         <v>605</v>
@@ -11285,7 +11282,7 @@
         <v>1468</v>
       </c>
       <c r="C263" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="D263" t="s">
         <v>607</v>
@@ -11319,7 +11316,7 @@
         <v>1468</v>
       </c>
       <c r="C265" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="D265" t="s">
         <v>611</v>
@@ -11336,7 +11333,7 @@
         <v>1468</v>
       </c>
       <c r="C266" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
       <c r="D266" t="s">
         <v>613</v>
@@ -11353,14 +11350,14 @@
         <v>1468</v>
       </c>
       <c r="C267" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="D267" t="s">
         <v>615</v>
       </c>
       <c r="E267"/>
       <c r="F267" t="s">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="G267" t="s">
         <v>616</v>
@@ -11375,14 +11372,14 @@
         <v>1468</v>
       </c>
       <c r="C268" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="D268" t="s">
         <v>618</v>
       </c>
       <c r="E268"/>
       <c r="F268" t="s">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="G268" t="s">
         <v>619</v>
@@ -11397,7 +11394,7 @@
         <v>1468</v>
       </c>
       <c r="C269" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="D269" t="s">
         <v>621</v>
@@ -11431,14 +11428,14 @@
         <v>1468</v>
       </c>
       <c r="C271" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
       <c r="D271" t="s">
         <v>625</v>
       </c>
       <c r="E271"/>
       <c r="F271" t="s">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="G271" t="s">
         <v>626</v>
@@ -11453,7 +11450,7 @@
         <v>1468</v>
       </c>
       <c r="C272" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="D272" t="s">
         <v>628</v>
@@ -11470,14 +11467,14 @@
         <v>1468</v>
       </c>
       <c r="C273" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
       <c r="D273" t="s">
         <v>630</v>
       </c>
       <c r="E273"/>
       <c r="F273" t="s">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="G273" t="s">
         <v>631</v>
@@ -11492,14 +11489,14 @@
         <v>1468</v>
       </c>
       <c r="C274" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="D274" t="s">
         <v>633</v>
       </c>
       <c r="E274"/>
       <c r="F274" t="s">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="G274" t="s">
         <v>634</v>
@@ -11514,7 +11511,7 @@
         <v>1468</v>
       </c>
       <c r="C275" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="D275" t="s">
         <v>636</v>
@@ -11531,7 +11528,7 @@
         <v>1468</v>
       </c>
       <c r="C276" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="D276" t="s">
         <v>638</v>
@@ -11565,7 +11562,7 @@
         <v>1468</v>
       </c>
       <c r="C278" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
       <c r="D278" t="s">
         <v>642</v>
@@ -11594,14 +11591,14 @@
         <v>1468</v>
       </c>
       <c r="C280" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="D280" t="s">
         <v>645</v>
       </c>
       <c r="E280"/>
       <c r="F280" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="G280" t="s">
         <v>646</v>
@@ -11616,14 +11613,14 @@
         <v>1468</v>
       </c>
       <c r="C281" t="s">
-        <v>1679</v>
+        <v>1678</v>
       </c>
       <c r="D281" t="s">
         <v>648</v>
       </c>
       <c r="E281"/>
       <c r="F281" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="G281" t="s">
         <v>649</v>
@@ -11638,14 +11635,14 @@
         <v>1468</v>
       </c>
       <c r="C282" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
       <c r="D282" t="s">
         <v>651</v>
       </c>
       <c r="E282"/>
       <c r="F282" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="G282" t="s">
         <v>652</v>
@@ -11677,14 +11674,14 @@
         <v>1468</v>
       </c>
       <c r="C284" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
       <c r="D284" t="s">
         <v>656</v>
       </c>
       <c r="E284"/>
       <c r="F284" t="s">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="G284" t="s">
         <v>657</v>
@@ -11699,14 +11696,14 @@
         <v>1468</v>
       </c>
       <c r="C285" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="D285" t="s">
         <v>659</v>
       </c>
       <c r="E285"/>
       <c r="F285" t="s">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="G285" t="s">
         <v>660</v>
@@ -11721,7 +11718,7 @@
         <v>1468</v>
       </c>
       <c r="C286" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="D286" t="s">
         <v>662</v>
@@ -11755,7 +11752,7 @@
         <v>1468</v>
       </c>
       <c r="C288" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="D288" t="s">
         <v>666</v>
@@ -11794,7 +11791,7 @@
         <v>1468</v>
       </c>
       <c r="C290" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
       <c r="D290" t="s">
         <v>671</v>
@@ -11823,7 +11820,7 @@
         <v>1468</v>
       </c>
       <c r="C292" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="D292" t="s">
         <v>674</v>
@@ -11847,7 +11844,7 @@
       </c>
       <c r="E293"/>
       <c r="F293" t="s">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="G293" t="s">
         <v>677</v>
@@ -11891,7 +11888,7 @@
         <v>1468</v>
       </c>
       <c r="C296" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
       <c r="D296" t="s">
         <v>682</v>
@@ -11908,7 +11905,7 @@
         <v>1468</v>
       </c>
       <c r="C297" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="D297" t="s">
         <v>684</v>
@@ -11942,14 +11939,14 @@
         <v>1468</v>
       </c>
       <c r="C299" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
       <c r="D299" t="s">
         <v>688</v>
       </c>
       <c r="E299"/>
       <c r="F299" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="G299" t="s">
         <v>689</v>
@@ -11981,14 +11978,14 @@
         <v>1468</v>
       </c>
       <c r="C301" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
       <c r="D301" t="s">
         <v>693</v>
       </c>
       <c r="E301"/>
       <c r="F301" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="G301" t="s">
         <v>694</v>
@@ -12003,7 +12000,7 @@
         <v>1468</v>
       </c>
       <c r="C302" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
       <c r="D302" t="s">
         <v>696</v>
@@ -12020,7 +12017,7 @@
         <v>1468</v>
       </c>
       <c r="C303" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="D303" t="s">
         <v>698</v>
@@ -12037,7 +12034,7 @@
         <v>1468</v>
       </c>
       <c r="C304" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
       <c r="D304" t="s">
         <v>700</v>
@@ -12054,14 +12051,14 @@
         <v>1468</v>
       </c>
       <c r="C305" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="D305" t="s">
         <v>702</v>
       </c>
       <c r="E305"/>
       <c r="F305" t="s">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="G305" t="s">
         <v>703</v>
@@ -12093,14 +12090,14 @@
         <v>1468</v>
       </c>
       <c r="C307" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="D307" t="s">
         <v>707</v>
       </c>
       <c r="E307"/>
       <c r="F307" t="s">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="G307" t="s">
         <v>708</v>
@@ -12154,7 +12151,7 @@
         <v>1468</v>
       </c>
       <c r="C310" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="D310" t="s">
         <v>715</v>
@@ -12183,14 +12180,14 @@
         <v>1468</v>
       </c>
       <c r="C312" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
       <c r="D312" t="s">
         <v>718</v>
       </c>
       <c r="E312"/>
       <c r="F312" t="s">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="G312" t="s">
         <v>719</v>
@@ -12217,7 +12214,7 @@
         <v>1468</v>
       </c>
       <c r="C314" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
       <c r="D314" t="s">
         <v>722</v>
@@ -12234,7 +12231,7 @@
         <v>1468</v>
       </c>
       <c r="C315" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
       <c r="D315" t="s">
         <v>724</v>
@@ -12251,7 +12248,7 @@
         <v>1468</v>
       </c>
       <c r="C316" t="s">
-        <v>1700</v>
+        <v>1699</v>
       </c>
       <c r="D316" t="s">
         <v>726</v>
@@ -12268,14 +12265,14 @@
         <v>1468</v>
       </c>
       <c r="C317" t="s">
-        <v>1701</v>
+        <v>1700</v>
       </c>
       <c r="D317" t="s">
         <v>728</v>
       </c>
       <c r="E317"/>
       <c r="F317" t="s">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="G317" t="s">
         <v>729</v>
@@ -12348,14 +12345,14 @@
         <v>1468</v>
       </c>
       <c r="C322" t="s">
-        <v>1702</v>
+        <v>1701</v>
       </c>
       <c r="D322" t="s">
         <v>737</v>
       </c>
       <c r="E322"/>
       <c r="F322" t="s">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="G322" t="s">
         <v>738</v>
@@ -12387,14 +12384,14 @@
         <v>1468</v>
       </c>
       <c r="C324" t="s">
-        <v>1703</v>
+        <v>1702</v>
       </c>
       <c r="D324" t="s">
         <v>742</v>
       </c>
       <c r="E324"/>
       <c r="F324" t="s">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="G324" t="s">
         <v>743</v>
@@ -12409,14 +12406,14 @@
         <v>1468</v>
       </c>
       <c r="C325" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
       <c r="D325" t="s">
         <v>745</v>
       </c>
       <c r="E325"/>
       <c r="F325" t="s">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="G325" t="s">
         <v>746</v>
@@ -12431,14 +12428,14 @@
         <v>1468</v>
       </c>
       <c r="C326" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
       <c r="D326" t="s">
         <v>748</v>
       </c>
       <c r="E326"/>
       <c r="F326" t="s">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="G326" t="s">
         <v>749</v>
@@ -12453,7 +12450,7 @@
         <v>1468</v>
       </c>
       <c r="C327" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
       <c r="D327" t="s">
         <v>751</v>
@@ -12470,7 +12467,7 @@
         <v>1468</v>
       </c>
       <c r="C328" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
       <c r="D328" t="s">
         <v>753</v>
@@ -12487,14 +12484,14 @@
         <v>1468</v>
       </c>
       <c r="C329" t="s">
-        <v>1708</v>
+        <v>1707</v>
       </c>
       <c r="D329" t="s">
         <v>755</v>
       </c>
       <c r="E329"/>
       <c r="F329" t="s">
-        <v>2026</v>
+        <v>2025</v>
       </c>
       <c r="G329" t="s">
         <v>756</v>
@@ -12509,7 +12506,7 @@
         <v>1468</v>
       </c>
       <c r="C330" t="s">
-        <v>1709</v>
+        <v>1708</v>
       </c>
       <c r="D330" t="s">
         <v>758</v>
@@ -12548,7 +12545,7 @@
         <v>1468</v>
       </c>
       <c r="C332" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="D332" t="s">
         <v>763</v>
@@ -12587,7 +12584,7 @@
         <v>1468</v>
       </c>
       <c r="C334" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
       <c r="D334" t="s">
         <v>768</v>
@@ -12655,7 +12652,7 @@
         <v>1468</v>
       </c>
       <c r="C338" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="D338" t="s">
         <v>776</v>
@@ -12689,14 +12686,14 @@
         <v>1468</v>
       </c>
       <c r="C340" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
       <c r="D340" t="s">
         <v>780</v>
       </c>
       <c r="E340"/>
       <c r="F340" t="s">
-        <v>2027</v>
+        <v>2026</v>
       </c>
       <c r="G340" t="s">
         <v>781</v>
@@ -12735,14 +12732,14 @@
         <v>1468</v>
       </c>
       <c r="C343" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
       <c r="D343" t="s">
         <v>785</v>
       </c>
       <c r="E343"/>
       <c r="F343" t="s">
-        <v>2028</v>
+        <v>2027</v>
       </c>
       <c r="G343" t="s">
         <v>786</v>
@@ -12769,14 +12766,14 @@
         <v>1468</v>
       </c>
       <c r="C345" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
       <c r="D345" t="s">
         <v>789</v>
       </c>
       <c r="E345"/>
       <c r="F345" t="s">
-        <v>2029</v>
+        <v>2028</v>
       </c>
       <c r="G345" t="s">
         <v>790</v>
@@ -12803,14 +12800,14 @@
         <v>1468</v>
       </c>
       <c r="C347" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="D347" t="s">
         <v>793</v>
       </c>
       <c r="E347"/>
       <c r="F347" t="s">
-        <v>2030</v>
+        <v>2029</v>
       </c>
       <c r="G347" t="s">
         <v>794</v>
@@ -12832,7 +12829,7 @@
       </c>
       <c r="E348"/>
       <c r="F348" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="G348" t="s">
         <v>797</v>
@@ -12847,7 +12844,7 @@
         <v>1468</v>
       </c>
       <c r="C349" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
       <c r="D349" t="s">
         <v>799</v>
@@ -12915,14 +12912,14 @@
         <v>1468</v>
       </c>
       <c r="C353" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
       <c r="D353" t="s">
         <v>807</v>
       </c>
       <c r="E353"/>
       <c r="F353" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="G353" t="s">
         <v>808</v>
@@ -12937,14 +12934,14 @@
         <v>1468</v>
       </c>
       <c r="C354" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="D354" t="s">
         <v>810</v>
       </c>
       <c r="E354"/>
       <c r="F354" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="G354" t="s">
         <v>811</v>
@@ -12959,7 +12956,7 @@
         <v>1468</v>
       </c>
       <c r="C355" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="D355" t="s">
         <v>813</v>
@@ -12976,14 +12973,14 @@
         <v>1468</v>
       </c>
       <c r="C356" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
       <c r="D356" t="s">
         <v>815</v>
       </c>
       <c r="E356"/>
       <c r="F356" t="s">
-        <v>2034</v>
+        <v>2033</v>
       </c>
       <c r="G356" t="s">
         <v>816</v>
@@ -12998,7 +12995,7 @@
         <v>1468</v>
       </c>
       <c r="C357" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="D357" t="s">
         <v>818</v>
@@ -13090,7 +13087,7 @@
         <v>1468</v>
       </c>
       <c r="C363" t="s">
-        <v>1723</v>
+        <v>1722</v>
       </c>
       <c r="D363" t="s">
         <v>828</v>
@@ -13107,14 +13104,14 @@
         <v>1468</v>
       </c>
       <c r="C364" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
       <c r="D364" t="s">
         <v>830</v>
       </c>
       <c r="E364"/>
       <c r="F364" t="s">
-        <v>2035</v>
+        <v>2034</v>
       </c>
       <c r="G364" t="s">
         <v>831</v>
@@ -13141,7 +13138,7 @@
         <v>1468</v>
       </c>
       <c r="C366" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
       <c r="D366" t="s">
         <v>834</v>
@@ -13158,14 +13155,14 @@
         <v>1468</v>
       </c>
       <c r="C367" t="s">
-        <v>1726</v>
+        <v>1725</v>
       </c>
       <c r="D367" t="s">
         <v>836</v>
       </c>
       <c r="E367"/>
       <c r="F367" t="s">
-        <v>2036</v>
+        <v>2035</v>
       </c>
       <c r="G367" t="s">
         <v>837</v>
@@ -13180,14 +13177,14 @@
         <v>1468</v>
       </c>
       <c r="C368" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="D368" t="s">
         <v>839</v>
       </c>
       <c r="E368"/>
       <c r="F368" t="s">
-        <v>2037</v>
+        <v>2036</v>
       </c>
       <c r="G368" t="s">
         <v>840</v>
@@ -13202,7 +13199,7 @@
         <v>1468</v>
       </c>
       <c r="C369" t="s">
-        <v>1728</v>
+        <v>1727</v>
       </c>
       <c r="D369" t="s">
         <v>842</v>
@@ -13219,14 +13216,14 @@
         <v>1468</v>
       </c>
       <c r="C370" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
       <c r="D370" t="s">
         <v>844</v>
       </c>
       <c r="E370"/>
       <c r="F370" t="s">
-        <v>2038</v>
+        <v>2037</v>
       </c>
       <c r="G370" t="s">
         <v>845</v>
@@ -13241,7 +13238,7 @@
         <v>1468</v>
       </c>
       <c r="C371" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
       <c r="D371" t="s">
         <v>847</v>
@@ -13292,7 +13289,7 @@
         <v>1468</v>
       </c>
       <c r="C374" t="s">
-        <v>1731</v>
+        <v>1730</v>
       </c>
       <c r="D374" t="s">
         <v>853</v>
@@ -13309,14 +13306,14 @@
         <v>1468</v>
       </c>
       <c r="C375" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
       <c r="D375" t="s">
         <v>855</v>
       </c>
       <c r="E375"/>
       <c r="F375" t="s">
-        <v>2039</v>
+        <v>2038</v>
       </c>
       <c r="G375" t="s">
         <v>856</v>
@@ -13360,7 +13357,7 @@
         <v>1468</v>
       </c>
       <c r="C378" t="s">
-        <v>1733</v>
+        <v>1732</v>
       </c>
       <c r="D378" t="s">
         <v>861</v>
@@ -13377,14 +13374,14 @@
         <v>1468</v>
       </c>
       <c r="C379" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
       <c r="D379" t="s">
         <v>863</v>
       </c>
       <c r="E379"/>
       <c r="F379" t="s">
-        <v>2040</v>
+        <v>2039</v>
       </c>
       <c r="G379" t="s">
         <v>864</v>
@@ -13399,7 +13396,7 @@
         <v>1468</v>
       </c>
       <c r="C380" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
       <c r="D380" t="s">
         <v>866</v>
@@ -13416,14 +13413,14 @@
         <v>1468</v>
       </c>
       <c r="C381" t="s">
-        <v>1736</v>
+        <v>1735</v>
       </c>
       <c r="D381" t="s">
         <v>868</v>
       </c>
       <c r="E381"/>
       <c r="F381" t="s">
-        <v>2041</v>
+        <v>2040</v>
       </c>
       <c r="G381" t="s">
         <v>869</v>
@@ -13438,14 +13435,14 @@
         <v>1468</v>
       </c>
       <c r="C382" t="s">
-        <v>1737</v>
+        <v>1736</v>
       </c>
       <c r="D382" t="s">
         <v>871</v>
       </c>
       <c r="E382"/>
       <c r="F382" t="s">
-        <v>2042</v>
+        <v>2041</v>
       </c>
       <c r="G382" t="s">
         <v>872</v>
@@ -13460,14 +13457,14 @@
         <v>1468</v>
       </c>
       <c r="C383" t="s">
-        <v>1738</v>
+        <v>1737</v>
       </c>
       <c r="D383" t="s">
         <v>874</v>
       </c>
       <c r="E383"/>
       <c r="F383" t="s">
-        <v>2043</v>
+        <v>2042</v>
       </c>
       <c r="G383" t="s">
         <v>875</v>
@@ -13494,7 +13491,7 @@
         <v>1468</v>
       </c>
       <c r="C385" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="D385" t="s">
         <v>878</v>
@@ -13511,7 +13508,7 @@
         <v>1468</v>
       </c>
       <c r="C386" t="s">
-        <v>1740</v>
+        <v>1739</v>
       </c>
       <c r="D386" t="s">
         <v>880</v>
@@ -13528,14 +13525,14 @@
         <v>1468</v>
       </c>
       <c r="C387" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
       <c r="D387" t="s">
         <v>882</v>
       </c>
       <c r="E387"/>
       <c r="F387" t="s">
-        <v>2044</v>
+        <v>2043</v>
       </c>
       <c r="G387" t="s">
         <v>883</v>
@@ -13567,7 +13564,7 @@
         <v>1468</v>
       </c>
       <c r="C389" t="s">
-        <v>1742</v>
+        <v>1741</v>
       </c>
       <c r="D389" t="s">
         <v>887</v>
@@ -13584,7 +13581,7 @@
         <v>1468</v>
       </c>
       <c r="C390" t="s">
-        <v>1743</v>
+        <v>1742</v>
       </c>
       <c r="D390" t="s">
         <v>889</v>
@@ -13601,14 +13598,14 @@
         <v>1468</v>
       </c>
       <c r="C391" t="s">
-        <v>1744</v>
+        <v>1743</v>
       </c>
       <c r="D391" t="s">
         <v>891</v>
       </c>
       <c r="E391"/>
       <c r="F391" t="s">
-        <v>2045</v>
+        <v>2044</v>
       </c>
       <c r="G391" t="s">
         <v>892</v>
@@ -13623,14 +13620,14 @@
         <v>1468</v>
       </c>
       <c r="C392" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
       <c r="D392" t="s">
         <v>894</v>
       </c>
       <c r="E392"/>
       <c r="F392" t="s">
-        <v>2046</v>
+        <v>2045</v>
       </c>
       <c r="G392" t="s">
         <v>895</v>
@@ -13645,7 +13642,7 @@
         <v>1468</v>
       </c>
       <c r="C393" t="s">
-        <v>1746</v>
+        <v>1745</v>
       </c>
       <c r="D393" t="s">
         <v>897</v>
@@ -13662,7 +13659,7 @@
         <v>1468</v>
       </c>
       <c r="C394" t="s">
-        <v>1747</v>
+        <v>1746</v>
       </c>
       <c r="D394" t="s">
         <v>899</v>
@@ -13679,14 +13676,14 @@
         <v>1468</v>
       </c>
       <c r="C395" t="s">
-        <v>1748</v>
+        <v>1747</v>
       </c>
       <c r="D395" t="s">
         <v>901</v>
       </c>
       <c r="E395"/>
       <c r="F395" t="s">
-        <v>2047</v>
+        <v>2046</v>
       </c>
       <c r="G395" t="s">
         <v>902</v>
@@ -13701,14 +13698,14 @@
         <v>1468</v>
       </c>
       <c r="C396" t="s">
-        <v>1749</v>
+        <v>1748</v>
       </c>
       <c r="D396" t="s">
         <v>904</v>
       </c>
       <c r="E396"/>
       <c r="F396" t="s">
-        <v>2048</v>
+        <v>2047</v>
       </c>
       <c r="G396" t="s">
         <v>905</v>
@@ -13723,7 +13720,7 @@
         <v>1468</v>
       </c>
       <c r="C397" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="D397" t="s">
         <v>907</v>
@@ -13740,14 +13737,14 @@
         <v>1468</v>
       </c>
       <c r="C398" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
       <c r="D398" t="s">
         <v>909</v>
       </c>
       <c r="E398"/>
       <c r="F398" t="s">
-        <v>2049</v>
+        <v>2048</v>
       </c>
       <c r="G398" t="s">
         <v>910</v>
@@ -13774,14 +13771,14 @@
         <v>1468</v>
       </c>
       <c r="C400" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="D400" t="s">
         <v>913</v>
       </c>
       <c r="E400"/>
       <c r="F400" t="s">
-        <v>2050</v>
+        <v>2049</v>
       </c>
       <c r="G400" t="s">
         <v>914</v>
@@ -13796,7 +13793,7 @@
         <v>1468</v>
       </c>
       <c r="C401" t="s">
-        <v>1753</v>
+        <v>1752</v>
       </c>
       <c r="D401" t="s">
         <v>916</v>
@@ -13813,14 +13810,14 @@
         <v>1468</v>
       </c>
       <c r="C402" t="s">
-        <v>1754</v>
+        <v>1753</v>
       </c>
       <c r="D402" t="s">
         <v>918</v>
       </c>
       <c r="E402"/>
       <c r="F402" t="s">
-        <v>2051</v>
+        <v>2050</v>
       </c>
       <c r="G402" t="s">
         <v>919</v>
@@ -13847,7 +13844,7 @@
         <v>1468</v>
       </c>
       <c r="C404" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
       <c r="D404" t="s">
         <v>922</v>
@@ -13864,7 +13861,7 @@
         <v>1468</v>
       </c>
       <c r="C405" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
       <c r="D405" t="s">
         <v>924</v>
@@ -13886,14 +13883,14 @@
         <v>1468</v>
       </c>
       <c r="C406" t="s">
-        <v>1757</v>
+        <v>1756</v>
       </c>
       <c r="D406" t="s">
         <v>927</v>
       </c>
       <c r="E406"/>
       <c r="F406" t="s">
-        <v>2052</v>
+        <v>2051</v>
       </c>
       <c r="G406" t="s">
         <v>928</v>
@@ -13908,7 +13905,7 @@
         <v>1468</v>
       </c>
       <c r="C407" t="s">
-        <v>1758</v>
+        <v>1757</v>
       </c>
       <c r="D407" t="s">
         <v>930</v>
@@ -13925,14 +13922,14 @@
         <v>1468</v>
       </c>
       <c r="C408" t="s">
-        <v>1759</v>
+        <v>1758</v>
       </c>
       <c r="D408" t="s">
         <v>932</v>
       </c>
       <c r="E408"/>
       <c r="F408" t="s">
-        <v>2053</v>
+        <v>2052</v>
       </c>
       <c r="G408" t="s">
         <v>933</v>
@@ -13976,14 +13973,14 @@
         <v>1468</v>
       </c>
       <c r="C411" t="s">
-        <v>1760</v>
+        <v>1759</v>
       </c>
       <c r="D411" t="s">
         <v>938</v>
       </c>
       <c r="E411"/>
       <c r="F411" t="s">
-        <v>2054</v>
+        <v>2053</v>
       </c>
       <c r="G411" t="s">
         <v>939</v>
@@ -14022,14 +14019,14 @@
         <v>1468</v>
       </c>
       <c r="C414" t="s">
-        <v>1761</v>
+        <v>1760</v>
       </c>
       <c r="D414" t="s">
         <v>943</v>
       </c>
       <c r="E414"/>
       <c r="F414" t="s">
-        <v>2055</v>
+        <v>2054</v>
       </c>
       <c r="G414" t="s">
         <v>944</v>
@@ -14044,7 +14041,7 @@
         <v>1468</v>
       </c>
       <c r="C415" t="s">
-        <v>1762</v>
+        <v>1761</v>
       </c>
       <c r="D415" t="s">
         <v>946</v>
@@ -14078,7 +14075,7 @@
         <v>1468</v>
       </c>
       <c r="C417" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="D417" t="s">
         <v>950</v>
@@ -14095,14 +14092,14 @@
         <v>1468</v>
       </c>
       <c r="C418" t="s">
-        <v>1764</v>
+        <v>1763</v>
       </c>
       <c r="D418" t="s">
         <v>952</v>
       </c>
       <c r="E418"/>
       <c r="F418" t="s">
-        <v>2056</v>
+        <v>2055</v>
       </c>
       <c r="G418" t="s">
         <v>953</v>
@@ -14129,7 +14126,7 @@
         <v>1468</v>
       </c>
       <c r="C420" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="D420" t="s">
         <v>956</v>
@@ -14146,14 +14143,14 @@
         <v>1468</v>
       </c>
       <c r="C421" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
       <c r="D421" t="s">
         <v>958</v>
       </c>
       <c r="E421"/>
       <c r="F421" t="s">
-        <v>2057</v>
+        <v>2056</v>
       </c>
       <c r="G421" t="s">
         <v>959</v>
@@ -14168,14 +14165,14 @@
         <v>1468</v>
       </c>
       <c r="C422" t="s">
-        <v>1767</v>
+        <v>1766</v>
       </c>
       <c r="D422" t="s">
         <v>961</v>
       </c>
       <c r="E422"/>
       <c r="F422" t="s">
-        <v>2058</v>
+        <v>2057</v>
       </c>
       <c r="G422" t="s">
         <v>962</v>
@@ -14219,7 +14216,7 @@
         <v>1468</v>
       </c>
       <c r="C425" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="D425" t="s">
         <v>967</v>
@@ -14236,7 +14233,7 @@
         <v>1468</v>
       </c>
       <c r="C426" t="s">
-        <v>1769</v>
+        <v>1768</v>
       </c>
       <c r="D426" t="s">
         <v>969</v>
@@ -14253,7 +14250,7 @@
         <v>1468</v>
       </c>
       <c r="C427" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D427" t="s">
         <v>971</v>
@@ -14270,7 +14267,7 @@
         <v>1468</v>
       </c>
       <c r="C428" t="s">
-        <v>1771</v>
+        <v>1770</v>
       </c>
       <c r="D428" t="s">
         <v>973</v>
@@ -14287,14 +14284,14 @@
         <v>1468</v>
       </c>
       <c r="C429" t="s">
-        <v>1772</v>
+        <v>1771</v>
       </c>
       <c r="D429" t="s">
         <v>975</v>
       </c>
       <c r="E429"/>
       <c r="F429" t="s">
-        <v>2059</v>
+        <v>2058</v>
       </c>
       <c r="G429" t="s">
         <v>976</v>
@@ -14326,14 +14323,14 @@
         <v>1468</v>
       </c>
       <c r="C431" t="s">
-        <v>1773</v>
+        <v>1772</v>
       </c>
       <c r="D431" t="s">
         <v>980</v>
       </c>
       <c r="E431"/>
       <c r="F431" t="s">
-        <v>2060</v>
+        <v>2059</v>
       </c>
       <c r="G431" t="s">
         <v>981</v>
@@ -14348,7 +14345,7 @@
         <v>1468</v>
       </c>
       <c r="C432" t="s">
-        <v>1774</v>
+        <v>1773</v>
       </c>
       <c r="D432" t="s">
         <v>983</v>
@@ -14365,14 +14362,14 @@
         <v>1468</v>
       </c>
       <c r="C433" t="s">
-        <v>1775</v>
+        <v>1774</v>
       </c>
       <c r="D433" t="s">
         <v>985</v>
       </c>
       <c r="E433"/>
       <c r="F433" t="s">
-        <v>2061</v>
+        <v>2060</v>
       </c>
       <c r="G433" t="s">
         <v>986</v>
@@ -14387,14 +14384,14 @@
         <v>1468</v>
       </c>
       <c r="C434" t="s">
-        <v>1776</v>
+        <v>1775</v>
       </c>
       <c r="D434" t="s">
         <v>988</v>
       </c>
       <c r="E434"/>
       <c r="F434" t="s">
-        <v>2062</v>
+        <v>2061</v>
       </c>
       <c r="G434" t="s">
         <v>989</v>
@@ -14426,14 +14423,14 @@
         <v>1468</v>
       </c>
       <c r="C436" t="s">
-        <v>1777</v>
+        <v>1776</v>
       </c>
       <c r="D436" t="s">
         <v>993</v>
       </c>
       <c r="E436"/>
       <c r="F436" t="s">
-        <v>2063</v>
+        <v>2062</v>
       </c>
       <c r="G436" t="s">
         <v>994</v>
@@ -14448,7 +14445,7 @@
         <v>1468</v>
       </c>
       <c r="C437" t="s">
-        <v>1778</v>
+        <v>1777</v>
       </c>
       <c r="D437" t="s">
         <v>996</v>
@@ -14465,14 +14462,14 @@
         <v>1468</v>
       </c>
       <c r="C438" t="s">
-        <v>1779</v>
+        <v>1778</v>
       </c>
       <c r="D438" t="s">
         <v>998</v>
       </c>
       <c r="E438"/>
       <c r="F438" t="s">
-        <v>2064</v>
+        <v>2063</v>
       </c>
       <c r="G438" t="s">
         <v>999</v>
@@ -14487,7 +14484,7 @@
         <v>1468</v>
       </c>
       <c r="C439" t="s">
-        <v>1780</v>
+        <v>1779</v>
       </c>
       <c r="D439" t="s">
         <v>1001</v>
@@ -14504,14 +14501,14 @@
         <v>1468</v>
       </c>
       <c r="C440" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
       <c r="D440" t="s">
         <v>1003</v>
       </c>
       <c r="E440"/>
       <c r="F440" t="s">
-        <v>2065</v>
+        <v>2064</v>
       </c>
       <c r="G440" t="s">
         <v>1004</v>
@@ -14526,7 +14523,7 @@
         <v>1468</v>
       </c>
       <c r="C441" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
       <c r="D441" t="s">
         <v>1006</v>
@@ -14543,14 +14540,14 @@
         <v>1468</v>
       </c>
       <c r="C442" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
       <c r="D442" t="s">
         <v>1008</v>
       </c>
       <c r="E442"/>
       <c r="F442" t="s">
-        <v>2066</v>
+        <v>2065</v>
       </c>
       <c r="G442" t="s">
         <v>1009</v>
@@ -14565,14 +14562,14 @@
         <v>1468</v>
       </c>
       <c r="C443" t="s">
-        <v>1784</v>
+        <v>1783</v>
       </c>
       <c r="D443" t="s">
         <v>1011</v>
       </c>
       <c r="E443"/>
       <c r="F443" t="s">
-        <v>2067</v>
+        <v>2066</v>
       </c>
       <c r="G443" t="s">
         <v>1012</v>
@@ -14633,7 +14630,7 @@
         <v>1468</v>
       </c>
       <c r="C447" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="D447" t="s">
         <v>1019</v>
@@ -14667,14 +14664,14 @@
         <v>1468</v>
       </c>
       <c r="C449" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
       <c r="D449" t="s">
         <v>1023</v>
       </c>
       <c r="E449"/>
       <c r="F449" t="s">
-        <v>2068</v>
+        <v>2067</v>
       </c>
       <c r="G449" t="s">
         <v>1024</v>
@@ -14740,14 +14737,14 @@
         <v>1468</v>
       </c>
       <c r="C453" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
       <c r="D453" t="s">
         <v>1032</v>
       </c>
       <c r="E453"/>
       <c r="F453" t="s">
-        <v>2069</v>
+        <v>2068</v>
       </c>
       <c r="G453" t="s">
         <v>1033</v>
@@ -14762,14 +14759,14 @@
         <v>1468</v>
       </c>
       <c r="C454" t="s">
-        <v>1788</v>
+        <v>1787</v>
       </c>
       <c r="D454" t="s">
         <v>1035</v>
       </c>
       <c r="E454"/>
       <c r="F454" t="s">
-        <v>2070</v>
+        <v>2069</v>
       </c>
       <c r="G454" t="s">
         <v>1036</v>
@@ -14828,7 +14825,7 @@
         <v>1468</v>
       </c>
       <c r="C457" t="s">
-        <v>1789</v>
+        <v>1788</v>
       </c>
       <c r="D457" t="s">
         <v>1044</v>
@@ -14886,14 +14883,14 @@
         <v>1468</v>
       </c>
       <c r="C461" t="s">
-        <v>1790</v>
+        <v>1789</v>
       </c>
       <c r="D461" t="s">
         <v>1050</v>
       </c>
       <c r="E461"/>
       <c r="F461" t="s">
-        <v>2071</v>
+        <v>2070</v>
       </c>
       <c r="G461" t="s">
         <v>1051</v>
@@ -14908,7 +14905,7 @@
         <v>1468</v>
       </c>
       <c r="C462" t="s">
-        <v>1791</v>
+        <v>1790</v>
       </c>
       <c r="D462" t="s">
         <v>1053</v>
@@ -14925,14 +14922,14 @@
         <v>1468</v>
       </c>
       <c r="C463" t="s">
-        <v>1792</v>
+        <v>1791</v>
       </c>
       <c r="D463" t="s">
         <v>1055</v>
       </c>
       <c r="E463"/>
       <c r="F463" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
       <c r="G463" t="s">
         <v>1056</v>
@@ -14959,14 +14956,14 @@
         <v>1468</v>
       </c>
       <c r="C465" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
       <c r="D465" t="s">
         <v>1059</v>
       </c>
       <c r="E465"/>
       <c r="F465" t="s">
-        <v>2073</v>
+        <v>2072</v>
       </c>
       <c r="G465" t="s">
         <v>1060</v>
@@ -14998,7 +14995,7 @@
         <v>1468</v>
       </c>
       <c r="C467" t="s">
-        <v>1794</v>
+        <v>1793</v>
       </c>
       <c r="D467" t="s">
         <v>1064</v>
@@ -15032,7 +15029,7 @@
         <v>1468</v>
       </c>
       <c r="C469" t="s">
-        <v>1795</v>
+        <v>1794</v>
       </c>
       <c r="D469" t="s">
         <v>1068</v>
@@ -15049,7 +15046,7 @@
         <v>1468</v>
       </c>
       <c r="C470" t="s">
-        <v>1796</v>
+        <v>1795</v>
       </c>
       <c r="D470" t="s">
         <v>1070</v>
@@ -15066,7 +15063,7 @@
         <v>1468</v>
       </c>
       <c r="C471" t="s">
-        <v>1797</v>
+        <v>1796</v>
       </c>
       <c r="D471" t="s">
         <v>1072</v>
@@ -15134,14 +15131,14 @@
         <v>1468</v>
       </c>
       <c r="C475" t="s">
-        <v>1798</v>
+        <v>1797</v>
       </c>
       <c r="D475" t="s">
         <v>1080</v>
       </c>
       <c r="E475"/>
       <c r="F475" t="s">
-        <v>2074</v>
+        <v>2073</v>
       </c>
       <c r="G475" t="s">
         <v>1081</v>
@@ -15173,14 +15170,14 @@
         <v>1468</v>
       </c>
       <c r="C477" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
       <c r="D477" t="s">
         <v>1085</v>
       </c>
       <c r="E477"/>
       <c r="F477" t="s">
-        <v>2075</v>
+        <v>2074</v>
       </c>
       <c r="G477" t="s">
         <v>1086</v>
@@ -15195,7 +15192,7 @@
         <v>1468</v>
       </c>
       <c r="C478" t="s">
-        <v>1800</v>
+        <v>1799</v>
       </c>
       <c r="D478" t="s">
         <v>1088</v>
@@ -15224,7 +15221,7 @@
         <v>1468</v>
       </c>
       <c r="C480" t="s">
-        <v>1801</v>
+        <v>1800</v>
       </c>
       <c r="D480" t="s">
         <v>1091</v>
@@ -15292,14 +15289,14 @@
         <v>1468</v>
       </c>
       <c r="C484" t="s">
-        <v>1802</v>
+        <v>1801</v>
       </c>
       <c r="D484" t="s">
         <v>1099</v>
       </c>
       <c r="E484"/>
       <c r="F484" t="s">
-        <v>2076</v>
+        <v>2075</v>
       </c>
       <c r="G484" t="s">
         <v>1100</v>
@@ -15314,7 +15311,7 @@
         <v>1468</v>
       </c>
       <c r="C485" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
       <c r="D485" t="s">
         <v>1102</v>
@@ -15331,7 +15328,7 @@
         <v>1468</v>
       </c>
       <c r="C486" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
       <c r="D486" t="s">
         <v>1104</v>
@@ -15348,7 +15345,7 @@
         <v>1468</v>
       </c>
       <c r="C487" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
       <c r="D487" t="s">
         <v>1106</v>
@@ -15365,7 +15362,7 @@
         <v>1468</v>
       </c>
       <c r="C488" t="s">
-        <v>1806</v>
+        <v>1805</v>
       </c>
       <c r="D488" t="s">
         <v>1108</v>
@@ -15382,14 +15379,14 @@
         <v>1468</v>
       </c>
       <c r="C489" t="s">
-        <v>1807</v>
+        <v>1806</v>
       </c>
       <c r="D489" t="s">
         <v>1110</v>
       </c>
       <c r="E489"/>
       <c r="F489" t="s">
-        <v>2077</v>
+        <v>2076</v>
       </c>
       <c r="G489" t="s">
         <v>1111</v>
@@ -15404,7 +15401,7 @@
         <v>1468</v>
       </c>
       <c r="C490" t="s">
-        <v>1808</v>
+        <v>1807</v>
       </c>
       <c r="D490" t="s">
         <v>1113</v>
@@ -15421,7 +15418,7 @@
         <v>1468</v>
       </c>
       <c r="C491" t="s">
-        <v>1809</v>
+        <v>1808</v>
       </c>
       <c r="D491" t="s">
         <v>1115</v>
@@ -15438,7 +15435,7 @@
         <v>1468</v>
       </c>
       <c r="C492" t="s">
-        <v>1810</v>
+        <v>1809</v>
       </c>
       <c r="D492" t="s">
         <v>1117</v>
@@ -15455,7 +15452,7 @@
         <v>1468</v>
       </c>
       <c r="C493" t="s">
-        <v>1811</v>
+        <v>1810</v>
       </c>
       <c r="D493" t="s">
         <v>1119</v>
@@ -15472,14 +15469,14 @@
         <v>1468</v>
       </c>
       <c r="C494" t="s">
-        <v>1812</v>
+        <v>1811</v>
       </c>
       <c r="D494" t="s">
         <v>1121</v>
       </c>
       <c r="E494"/>
       <c r="F494" t="s">
-        <v>2078</v>
+        <v>2077</v>
       </c>
       <c r="G494" t="s">
         <v>1122</v>
@@ -15494,14 +15491,14 @@
         <v>1468</v>
       </c>
       <c r="C495" t="s">
-        <v>1813</v>
+        <v>1812</v>
       </c>
       <c r="D495" t="s">
         <v>1124</v>
       </c>
       <c r="E495"/>
       <c r="F495" t="s">
-        <v>2079</v>
+        <v>2078</v>
       </c>
       <c r="G495" t="s">
         <v>1125</v>
@@ -15516,7 +15513,7 @@
         <v>1468</v>
       </c>
       <c r="C496" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
       <c r="D496" t="s">
         <v>1127</v>
@@ -15533,7 +15530,7 @@
         <v>1468</v>
       </c>
       <c r="C497" t="s">
-        <v>1815</v>
+        <v>1814</v>
       </c>
       <c r="D497" t="s">
         <v>1129</v>
@@ -15572,7 +15569,7 @@
         <v>1468</v>
       </c>
       <c r="C499" t="s">
-        <v>1816</v>
+        <v>1815</v>
       </c>
       <c r="D499" t="s">
         <v>1134</v>
@@ -15589,7 +15586,7 @@
         <v>1468</v>
       </c>
       <c r="C500" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
       <c r="D500" t="s">
         <v>1136</v>
@@ -15613,7 +15610,7 @@
       </c>
       <c r="E501"/>
       <c r="F501" t="s">
-        <v>2080</v>
+        <v>2079</v>
       </c>
       <c r="G501" t="s">
         <v>1139</v>
@@ -15628,14 +15625,14 @@
         <v>1468</v>
       </c>
       <c r="C502" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
       <c r="D502" t="s">
         <v>1141</v>
       </c>
       <c r="E502"/>
       <c r="F502" t="s">
-        <v>2081</v>
+        <v>2080</v>
       </c>
       <c r="G502" t="s">
         <v>1142</v>
@@ -15667,7 +15664,7 @@
         <v>1468</v>
       </c>
       <c r="C504" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
       <c r="D504" t="s">
         <v>1145</v>
@@ -15764,14 +15761,14 @@
         <v>1468</v>
       </c>
       <c r="C510" t="s">
-        <v>1820</v>
+        <v>1819</v>
       </c>
       <c r="D510" t="s">
         <v>1156</v>
       </c>
       <c r="E510"/>
       <c r="F510" t="s">
-        <v>2082</v>
+        <v>2081</v>
       </c>
       <c r="G510" t="s">
         <v>1157</v>
@@ -15786,7 +15783,7 @@
         <v>1468</v>
       </c>
       <c r="C511" t="s">
-        <v>1821</v>
+        <v>1820</v>
       </c>
       <c r="D511" t="s">
         <v>1159</v>
@@ -15803,14 +15800,14 @@
         <v>1468</v>
       </c>
       <c r="C512" t="s">
-        <v>1822</v>
+        <v>1821</v>
       </c>
       <c r="D512" t="s">
         <v>1161</v>
       </c>
       <c r="E512"/>
       <c r="F512" t="s">
-        <v>2083</v>
+        <v>2082</v>
       </c>
       <c r="G512" t="s">
         <v>1162</v>
@@ -15842,14 +15839,14 @@
         <v>1468</v>
       </c>
       <c r="C514" t="s">
-        <v>1823</v>
+        <v>1822</v>
       </c>
       <c r="D514" t="s">
         <v>1166</v>
       </c>
       <c r="E514"/>
       <c r="F514" t="s">
-        <v>2084</v>
+        <v>2083</v>
       </c>
       <c r="G514" t="s">
         <v>1167</v>
@@ -15864,7 +15861,7 @@
         <v>1468</v>
       </c>
       <c r="C515" t="s">
-        <v>1824</v>
+        <v>1823</v>
       </c>
       <c r="D515" t="s">
         <v>1169</v>
@@ -15881,7 +15878,7 @@
         <v>1468</v>
       </c>
       <c r="C516" t="s">
-        <v>1825</v>
+        <v>1824</v>
       </c>
       <c r="D516" t="s">
         <v>1171</v>
@@ -15920,14 +15917,14 @@
         <v>1468</v>
       </c>
       <c r="C518" t="s">
-        <v>1826</v>
+        <v>1825</v>
       </c>
       <c r="D518" t="s">
         <v>1176</v>
       </c>
       <c r="E518"/>
       <c r="F518" t="s">
-        <v>2085</v>
+        <v>2084</v>
       </c>
       <c r="G518" t="s">
         <v>1177</v>
@@ -15942,7 +15939,7 @@
         <v>1468</v>
       </c>
       <c r="C519" t="s">
-        <v>1827</v>
+        <v>1826</v>
       </c>
       <c r="D519" t="s">
         <v>1179</v>
@@ -15959,14 +15956,14 @@
         <v>1468</v>
       </c>
       <c r="C520" t="s">
-        <v>1828</v>
+        <v>1827</v>
       </c>
       <c r="D520" t="s">
         <v>1181</v>
       </c>
       <c r="E520"/>
       <c r="F520" t="s">
-        <v>2086</v>
+        <v>2085</v>
       </c>
       <c r="G520" t="s">
         <v>1182</v>
@@ -15998,14 +15995,14 @@
         <v>1468</v>
       </c>
       <c r="C522" t="s">
-        <v>1829</v>
+        <v>1828</v>
       </c>
       <c r="D522" t="s">
         <v>1186</v>
       </c>
       <c r="E522"/>
       <c r="F522" t="s">
-        <v>2087</v>
+        <v>2086</v>
       </c>
       <c r="G522" t="s">
         <v>1187</v>
@@ -16093,7 +16090,7 @@
         <v>1468</v>
       </c>
       <c r="C527" t="s">
-        <v>1830</v>
+        <v>1829</v>
       </c>
       <c r="D527" t="s">
         <v>1198</v>
@@ -16110,14 +16107,14 @@
         <v>1468</v>
       </c>
       <c r="C528" t="s">
-        <v>1831</v>
+        <v>1830</v>
       </c>
       <c r="D528" t="s">
         <v>1200</v>
       </c>
       <c r="E528"/>
       <c r="F528" t="s">
-        <v>2088</v>
+        <v>2087</v>
       </c>
       <c r="G528" t="s">
         <v>1201</v>
@@ -16132,7 +16129,7 @@
         <v>1468</v>
       </c>
       <c r="C529" t="s">
-        <v>1832</v>
+        <v>1831</v>
       </c>
       <c r="D529" t="s">
         <v>1203</v>
@@ -16244,7 +16241,7 @@
         <v>1468</v>
       </c>
       <c r="C535" t="s">
-        <v>1833</v>
+        <v>1832</v>
       </c>
       <c r="D535" t="s">
         <v>1217</v>
@@ -16261,14 +16258,14 @@
         <v>1468</v>
       </c>
       <c r="C536" t="s">
-        <v>1834</v>
+        <v>1833</v>
       </c>
       <c r="D536" t="s">
         <v>1219</v>
       </c>
       <c r="E536"/>
       <c r="F536" t="s">
-        <v>2089</v>
+        <v>2088</v>
       </c>
       <c r="G536" t="s">
         <v>1220</v>
@@ -16283,7 +16280,7 @@
         <v>1468</v>
       </c>
       <c r="C537" t="s">
-        <v>1835</v>
+        <v>1834</v>
       </c>
       <c r="D537" t="s">
         <v>1222</v>
@@ -16300,14 +16297,14 @@
         <v>1468</v>
       </c>
       <c r="C538" t="s">
-        <v>1836</v>
+        <v>1835</v>
       </c>
       <c r="D538" t="s">
         <v>1224</v>
       </c>
       <c r="E538"/>
       <c r="F538" t="s">
-        <v>2090</v>
+        <v>2089</v>
       </c>
       <c r="G538" t="s">
         <v>1225</v>
@@ -16336,14 +16333,14 @@
         <v>1468</v>
       </c>
       <c r="C540" t="s">
-        <v>1837</v>
+        <v>1836</v>
       </c>
       <c r="D540" t="s">
         <v>1228</v>
       </c>
       <c r="E540"/>
       <c r="F540" t="s">
-        <v>2091</v>
+        <v>2090</v>
       </c>
       <c r="G540" t="s">
         <v>1229</v>
@@ -16358,7 +16355,7 @@
         <v>1468</v>
       </c>
       <c r="C541" t="s">
-        <v>1838</v>
+        <v>1837</v>
       </c>
       <c r="D541" t="s">
         <v>1231</v>
@@ -16380,7 +16377,7 @@
         <v>1468</v>
       </c>
       <c r="C542" t="s">
-        <v>1839</v>
+        <v>1838</v>
       </c>
       <c r="D542" t="s">
         <v>1234</v>
@@ -16414,14 +16411,14 @@
         <v>1468</v>
       </c>
       <c r="C544" t="s">
-        <v>1840</v>
+        <v>1839</v>
       </c>
       <c r="D544" t="s">
         <v>1238</v>
       </c>
       <c r="E544"/>
       <c r="F544" t="s">
-        <v>2092</v>
+        <v>2091</v>
       </c>
       <c r="G544" t="s">
         <v>1239</v>
@@ -16436,7 +16433,7 @@
         <v>1468</v>
       </c>
       <c r="C545" t="s">
-        <v>1841</v>
+        <v>1840</v>
       </c>
       <c r="D545" t="s">
         <v>1241</v>
@@ -16453,7 +16450,7 @@
         <v>1468</v>
       </c>
       <c r="C546" t="s">
-        <v>1842</v>
+        <v>1841</v>
       </c>
       <c r="D546" t="s">
         <v>1243</v>
@@ -16470,7 +16467,7 @@
         <v>1468</v>
       </c>
       <c r="C547" t="s">
-        <v>1843</v>
+        <v>1842</v>
       </c>
       <c r="D547" t="s">
         <v>1245</v>
@@ -16499,7 +16496,7 @@
         <v>1468</v>
       </c>
       <c r="C549" t="s">
-        <v>1844</v>
+        <v>1843</v>
       </c>
       <c r="D549" t="s">
         <v>1248</v>
@@ -16550,14 +16547,14 @@
         <v>1468</v>
       </c>
       <c r="C552" t="s">
-        <v>1845</v>
+        <v>1844</v>
       </c>
       <c r="D552" t="s">
         <v>1254</v>
       </c>
       <c r="E552"/>
       <c r="F552" t="s">
-        <v>2093</v>
+        <v>2092</v>
       </c>
       <c r="G552" t="s">
         <v>1255</v>
@@ -16589,7 +16586,7 @@
         <v>1468</v>
       </c>
       <c r="C554" t="s">
-        <v>1846</v>
+        <v>1845</v>
       </c>
       <c r="D554" t="s">
         <v>1259</v>
@@ -16628,7 +16625,7 @@
         <v>1468</v>
       </c>
       <c r="C556" t="s">
-        <v>1847</v>
+        <v>1846</v>
       </c>
       <c r="D556" t="s">
         <v>1264</v>
@@ -16657,7 +16654,7 @@
         <v>1468</v>
       </c>
       <c r="C558" t="s">
-        <v>1848</v>
+        <v>1847</v>
       </c>
       <c r="D558" t="s">
         <v>1267</v>
@@ -16674,7 +16671,7 @@
         <v>1468</v>
       </c>
       <c r="C559" t="s">
-        <v>1849</v>
+        <v>1848</v>
       </c>
       <c r="D559" t="s">
         <v>1269</v>
@@ -16691,7 +16688,7 @@
         <v>1468</v>
       </c>
       <c r="C560" t="s">
-        <v>1850</v>
+        <v>1849</v>
       </c>
       <c r="D560" t="s">
         <v>1271</v>
@@ -16708,7 +16705,7 @@
         <v>1468</v>
       </c>
       <c r="C561" t="s">
-        <v>1851</v>
+        <v>1850</v>
       </c>
       <c r="D561" t="s">
         <v>1273</v>
@@ -16725,7 +16722,7 @@
         <v>1468</v>
       </c>
       <c r="C562" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="D562" t="s">
         <v>1275</v>
@@ -16747,14 +16744,14 @@
         <v>1468</v>
       </c>
       <c r="C563" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="D563" t="s">
         <v>1278</v>
       </c>
       <c r="E563"/>
       <c r="F563" t="s">
-        <v>2094</v>
+        <v>2093</v>
       </c>
       <c r="G563" t="s">
         <v>1279</v>
@@ -16769,7 +16766,7 @@
         <v>1468</v>
       </c>
       <c r="C564" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
       <c r="D564" t="s">
         <v>1281</v>
@@ -16786,7 +16783,7 @@
         <v>1468</v>
       </c>
       <c r="C565" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
       <c r="D565" t="s">
         <v>1283</v>
@@ -16803,7 +16800,7 @@
         <v>1468</v>
       </c>
       <c r="C566" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="D566" t="s">
         <v>1285</v>
@@ -16820,14 +16817,14 @@
         <v>1468</v>
       </c>
       <c r="C567" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="D567" t="s">
         <v>1287</v>
       </c>
       <c r="E567"/>
       <c r="F567" t="s">
-        <v>2095</v>
+        <v>2094</v>
       </c>
       <c r="G567" t="s">
         <v>1288</v>
@@ -16842,7 +16839,7 @@
         <v>1468</v>
       </c>
       <c r="C568" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
       <c r="D568" t="s">
         <v>1290</v>
@@ -16859,14 +16856,14 @@
         <v>1468</v>
       </c>
       <c r="C569" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
       <c r="D569" t="s">
         <v>1292</v>
       </c>
       <c r="E569"/>
       <c r="F569" t="s">
-        <v>2096</v>
+        <v>2095</v>
       </c>
       <c r="G569" t="s">
         <v>1293</v>
@@ -16881,14 +16878,14 @@
         <v>1468</v>
       </c>
       <c r="C570" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
       <c r="D570" t="s">
         <v>1295</v>
       </c>
       <c r="E570"/>
       <c r="F570" t="s">
-        <v>2097</v>
+        <v>2096</v>
       </c>
       <c r="G570" t="s">
         <v>1296</v>
@@ -16915,14 +16912,14 @@
         <v>1468</v>
       </c>
       <c r="C572" t="s">
-        <v>1861</v>
+        <v>1860</v>
       </c>
       <c r="D572" t="s">
         <v>1299</v>
       </c>
       <c r="E572"/>
       <c r="F572" t="s">
-        <v>2098</v>
+        <v>2097</v>
       </c>
       <c r="G572" t="s">
         <v>1300</v>
@@ -16971,7 +16968,7 @@
         <v>1468</v>
       </c>
       <c r="C575" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
       <c r="D575" t="s">
         <v>1306</v>
@@ -17005,7 +17002,7 @@
         <v>1468</v>
       </c>
       <c r="C577" t="s">
-        <v>1863</v>
+        <v>1862</v>
       </c>
       <c r="D577" t="s">
         <v>1310</v>
@@ -17046,7 +17043,7 @@
         <v>1468</v>
       </c>
       <c r="C580" t="s">
-        <v>1864</v>
+        <v>1863</v>
       </c>
       <c r="D580" t="s">
         <v>1314</v>
@@ -17068,7 +17065,7 @@
         <v>1468</v>
       </c>
       <c r="C581" t="s">
-        <v>1865</v>
+        <v>1864</v>
       </c>
       <c r="D581" t="s">
         <v>1317</v>
@@ -17114,14 +17111,14 @@
         <v>1468</v>
       </c>
       <c r="C584" t="s">
-        <v>1866</v>
+        <v>1865</v>
       </c>
       <c r="D584" t="s">
         <v>1322</v>
       </c>
       <c r="E584"/>
       <c r="F584" t="s">
-        <v>2099</v>
+        <v>2098</v>
       </c>
       <c r="G584" t="s">
         <v>1323</v>
@@ -17143,7 +17140,7 @@
       </c>
       <c r="E585"/>
       <c r="F585" t="s">
-        <v>2100</v>
+        <v>2099</v>
       </c>
       <c r="G585" t="s">
         <v>1326</v>
@@ -17155,10 +17152,10 @@
         <v>1327</v>
       </c>
       <c r="B586" t="s">
-        <v>1472</v>
+        <v>1468</v>
       </c>
       <c r="C586" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
       <c r="D586" t="s">
         <v>1328</v>
@@ -17174,7 +17171,7 @@
         <v>1330</v>
       </c>
       <c r="B587" t="s">
-        <v>1472</v>
+        <v>1468</v>
       </c>
       <c r="C587" t="s">
         <v>1331</v>
@@ -17208,14 +17205,14 @@
         <v>1468</v>
       </c>
       <c r="C589" t="s">
-        <v>1868</v>
+        <v>1867</v>
       </c>
       <c r="D589" t="s">
         <v>1335</v>
       </c>
       <c r="E589"/>
       <c r="F589" t="s">
-        <v>2101</v>
+        <v>2100</v>
       </c>
       <c r="G589" t="s">
         <v>1336</v>
@@ -17230,7 +17227,7 @@
         <v>1468</v>
       </c>
       <c r="C590" t="s">
-        <v>1869</v>
+        <v>1868</v>
       </c>
       <c r="D590" t="s">
         <v>1338</v>
@@ -17247,7 +17244,7 @@
         <v>1468</v>
       </c>
       <c r="C591" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
       <c r="D591" t="s">
         <v>1340</v>
@@ -17264,7 +17261,7 @@
         <v>1468</v>
       </c>
       <c r="C592" t="s">
-        <v>1871</v>
+        <v>1870</v>
       </c>
       <c r="D592" t="s">
         <v>1342</v>
@@ -17281,7 +17278,7 @@
         <v>1468</v>
       </c>
       <c r="C593" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="D593" t="s">
         <v>1344</v>
@@ -17298,14 +17295,14 @@
         <v>1468</v>
       </c>
       <c r="C594" t="s">
-        <v>1873</v>
+        <v>1872</v>
       </c>
       <c r="D594" t="s">
         <v>1346</v>
       </c>
       <c r="E594"/>
       <c r="F594" t="s">
-        <v>2102</v>
+        <v>2101</v>
       </c>
       <c r="G594" t="s">
         <v>1347</v>
@@ -17320,7 +17317,7 @@
         <v>1468</v>
       </c>
       <c r="C595" t="s">
-        <v>1874</v>
+        <v>1873</v>
       </c>
       <c r="D595" t="s">
         <v>1349</v>
@@ -17337,14 +17334,14 @@
         <v>1468</v>
       </c>
       <c r="C596" t="s">
-        <v>1875</v>
+        <v>1874</v>
       </c>
       <c r="D596" t="s">
         <v>1351</v>
       </c>
       <c r="E596"/>
       <c r="F596" t="s">
-        <v>2103</v>
+        <v>2102</v>
       </c>
       <c r="G596" t="s">
         <v>1352</v>
@@ -17371,7 +17368,7 @@
         <v>1468</v>
       </c>
       <c r="C598" t="s">
-        <v>1876</v>
+        <v>1875</v>
       </c>
       <c r="D598" t="s">
         <v>1355</v>
@@ -17388,14 +17385,14 @@
         <v>1468</v>
       </c>
       <c r="C599" t="s">
-        <v>1877</v>
+        <v>1876</v>
       </c>
       <c r="D599" t="s">
         <v>1357</v>
       </c>
       <c r="E599"/>
       <c r="F599" t="s">
-        <v>2104</v>
+        <v>2103</v>
       </c>
       <c r="G599" t="s">
         <v>1358</v>
@@ -17410,7 +17407,7 @@
         <v>1468</v>
       </c>
       <c r="C600" t="s">
-        <v>1878</v>
+        <v>1877</v>
       </c>
       <c r="D600" t="s">
         <v>1360</v>
@@ -17439,7 +17436,7 @@
         <v>1468</v>
       </c>
       <c r="C602" t="s">
-        <v>1879</v>
+        <v>1878</v>
       </c>
       <c r="D602" t="s">
         <v>1363</v>
@@ -17456,14 +17453,14 @@
         <v>1468</v>
       </c>
       <c r="C603" t="s">
-        <v>1880</v>
+        <v>1879</v>
       </c>
       <c r="D603" t="s">
         <v>1365</v>
       </c>
       <c r="E603"/>
       <c r="F603" t="s">
-        <v>2105</v>
+        <v>2104</v>
       </c>
       <c r="G603" t="s">
         <v>1366</v>
@@ -17478,14 +17475,14 @@
         <v>1468</v>
       </c>
       <c r="C604" t="s">
-        <v>1881</v>
+        <v>1880</v>
       </c>
       <c r="D604" t="s">
         <v>1368</v>
       </c>
       <c r="E604"/>
       <c r="F604" t="s">
-        <v>2106</v>
+        <v>2105</v>
       </c>
       <c r="G604" t="s">
         <v>1369</v>
@@ -17497,10 +17494,10 @@
         <v>1370</v>
       </c>
       <c r="B605" t="s">
-        <v>1472</v>
+        <v>1468</v>
       </c>
       <c r="C605" t="s">
-        <v>1882</v>
+        <v>1881</v>
       </c>
       <c r="D605" t="s">
         <v>1371</v>
@@ -17519,7 +17516,7 @@
         <v>1468</v>
       </c>
       <c r="C606" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
       <c r="D606" t="s">
         <v>1374</v>
@@ -17536,14 +17533,14 @@
         <v>1468</v>
       </c>
       <c r="C607" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
       <c r="D607" t="s">
         <v>1376</v>
       </c>
       <c r="E607"/>
       <c r="F607" t="s">
-        <v>2107</v>
+        <v>2106</v>
       </c>
       <c r="G607" t="s">
         <v>1377</v>
@@ -17558,7 +17555,7 @@
         <v>1468</v>
       </c>
       <c r="C608" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
       <c r="D608" t="s">
         <v>1379</v>
@@ -17575,7 +17572,7 @@
         <v>1468</v>
       </c>
       <c r="C609" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
       <c r="D609" t="s">
         <v>1381</v>
@@ -17592,7 +17589,7 @@
         <v>1468</v>
       </c>
       <c r="C610" t="s">
-        <v>1887</v>
+        <v>1886</v>
       </c>
       <c r="D610" t="s">
         <v>1383</v>
@@ -17609,14 +17606,14 @@
         <v>1468</v>
       </c>
       <c r="C611" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
       <c r="D611" t="s">
         <v>1385</v>
       </c>
       <c r="E611"/>
       <c r="F611" t="s">
-        <v>2108</v>
+        <v>2107</v>
       </c>
       <c r="G611" t="s">
         <v>1386</v>
@@ -17631,14 +17628,14 @@
         <v>1468</v>
       </c>
       <c r="C612" t="s">
-        <v>1889</v>
+        <v>1888</v>
       </c>
       <c r="D612" t="s">
         <v>1388</v>
       </c>
       <c r="E612"/>
       <c r="F612" t="s">
-        <v>2109</v>
+        <v>2108</v>
       </c>
       <c r="G612" t="s">
         <v>1389</v>
@@ -17665,7 +17662,7 @@
         <v>1468</v>
       </c>
       <c r="C614" t="s">
-        <v>1890</v>
+        <v>1889</v>
       </c>
       <c r="D614" t="s">
         <v>1392</v>
@@ -17694,7 +17691,7 @@
         <v>1468</v>
       </c>
       <c r="C616" t="s">
-        <v>1891</v>
+        <v>1890</v>
       </c>
       <c r="D616" t="s">
         <v>1395</v>
@@ -17711,7 +17708,7 @@
         <v>1468</v>
       </c>
       <c r="C617" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="D617" t="s">
         <v>1397</v>
@@ -17728,14 +17725,14 @@
         <v>1468</v>
       </c>
       <c r="C618" t="s">
-        <v>1893</v>
+        <v>1892</v>
       </c>
       <c r="D618" t="s">
         <v>1399</v>
       </c>
       <c r="E618"/>
       <c r="F618" t="s">
-        <v>2110</v>
+        <v>2109</v>
       </c>
       <c r="G618" t="s">
         <v>1400</v>
@@ -17774,7 +17771,7 @@
       </c>
       <c r="E620"/>
       <c r="F620" t="s">
-        <v>2111</v>
+        <v>2110</v>
       </c>
       <c r="G620" t="s">
         <v>1405</v>
@@ -17789,7 +17786,7 @@
         <v>1468</v>
       </c>
       <c r="C621" t="s">
-        <v>1894</v>
+        <v>1893</v>
       </c>
       <c r="D621" t="s">
         <v>1407</v>
@@ -17806,7 +17803,7 @@
         <v>1468</v>
       </c>
       <c r="C622" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
       <c r="D622" t="s">
         <v>1409</v>
@@ -17823,7 +17820,7 @@
         <v>1468</v>
       </c>
       <c r="C623" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
       <c r="D623" t="s">
         <v>1411</v>
@@ -17840,14 +17837,14 @@
         <v>1468</v>
       </c>
       <c r="C624" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="D624" t="s">
         <v>1413</v>
       </c>
       <c r="E624"/>
       <c r="F624" t="s">
-        <v>2112</v>
+        <v>2111</v>
       </c>
       <c r="G624" t="s">
         <v>1414</v>
@@ -17874,7 +17871,7 @@
         <v>1468</v>
       </c>
       <c r="C626" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
       <c r="D626" t="s">
         <v>1417</v>
@@ -17896,7 +17893,7 @@
         <v>1468</v>
       </c>
       <c r="C627" t="s">
-        <v>1899</v>
+        <v>1898</v>
       </c>
       <c r="D627" t="s">
         <v>1420</v>
@@ -17930,7 +17927,7 @@
         <v>1468</v>
       </c>
       <c r="C629" t="s">
-        <v>1900</v>
+        <v>1899</v>
       </c>
       <c r="D629" t="s">
         <v>1424</v>
@@ -17947,7 +17944,7 @@
         <v>1468</v>
       </c>
       <c r="C630" t="s">
-        <v>1901</v>
+        <v>1900</v>
       </c>
       <c r="D630" t="s">
         <v>1426</v>
@@ -17976,14 +17973,14 @@
         <v>1468</v>
       </c>
       <c r="C632" t="s">
-        <v>1902</v>
+        <v>1901</v>
       </c>
       <c r="D632" t="s">
         <v>1429</v>
       </c>
       <c r="E632"/>
       <c r="F632" t="s">
-        <v>2113</v>
+        <v>2112</v>
       </c>
       <c r="G632" t="s">
         <v>1430</v>
@@ -17998,7 +17995,7 @@
         <v>1468</v>
       </c>
       <c r="C633" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
       <c r="D633" t="s">
         <v>1432</v>
@@ -18015,14 +18012,14 @@
         <v>1468</v>
       </c>
       <c r="C634" t="s">
-        <v>1904</v>
+        <v>1903</v>
       </c>
       <c r="D634" t="s">
         <v>1434</v>
       </c>
       <c r="E634"/>
       <c r="F634" t="s">
-        <v>2114</v>
+        <v>2113</v>
       </c>
       <c r="G634" t="s">
         <v>1435</v>
@@ -18037,14 +18034,14 @@
         <v>1468</v>
       </c>
       <c r="C635" t="s">
-        <v>1905</v>
+        <v>1904</v>
       </c>
       <c r="D635" t="s">
         <v>1437</v>
       </c>
       <c r="E635"/>
       <c r="F635" t="s">
-        <v>2115</v>
+        <v>2114</v>
       </c>
       <c r="G635" t="s">
         <v>1438</v>
@@ -18059,7 +18056,7 @@
         <v>1468</v>
       </c>
       <c r="C636" t="s">
-        <v>1906</v>
+        <v>1905</v>
       </c>
       <c r="D636" t="s">
         <v>1440</v>
@@ -18127,7 +18124,7 @@
         <v>1468</v>
       </c>
       <c r="C640" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
       <c r="D640" t="s">
         <v>1448</v>
@@ -18173,7 +18170,7 @@
         <v>1468</v>
       </c>
       <c r="C643" t="s">
-        <v>1908</v>
+        <v>1907</v>
       </c>
       <c r="D643" t="s">
         <v>1453</v>
@@ -18190,7 +18187,7 @@
         <v>1468</v>
       </c>
       <c r="C644" t="s">
-        <v>1909</v>
+        <v>1908</v>
       </c>
       <c r="D644" t="s">
         <v>1455</v>
@@ -18207,7 +18204,7 @@
         <v>1468</v>
       </c>
       <c r="C645" t="s">
-        <v>1910</v>
+        <v>1909</v>
       </c>
       <c r="D645" t="s">
         <v>1457</v>
@@ -18224,7 +18221,7 @@
         <v>1468</v>
       </c>
       <c r="C646" t="s">
-        <v>1911</v>
+        <v>1910</v>
       </c>
       <c r="D646" t="s">
         <v>1459</v>
@@ -18241,7 +18238,7 @@
         <v>1468</v>
       </c>
       <c r="C647" t="s">
-        <v>1912</v>
+        <v>1911</v>
       </c>
       <c r="D647" t="s">
         <v>1461</v>
@@ -18258,14 +18255,14 @@
         <v>1468</v>
       </c>
       <c r="C648" t="s">
-        <v>1913</v>
+        <v>1912</v>
       </c>
       <c r="D648" t="s">
         <v>1463</v>
       </c>
       <c r="E648"/>
       <c r="F648" t="s">
-        <v>2116</v>
+        <v>2115</v>
       </c>
       <c r="G648" t="s">
         <v>1464</v>
@@ -18277,7 +18274,7 @@
         <v>1465</v>
       </c>
       <c r="B649" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="D649"/>
       <c r="E649"/>

--- a/Original/CN/Game/Backer.xlsx
+++ b/Original/CN/Game/Backer.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4376" uniqueCount="2116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3568" uniqueCount="2116">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -44,7 +44,7 @@
     <t xml:space="preserve">1962</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.200</t>
+    <t xml:space="preserve">EA 23.252</t>
   </si>
   <si>
     <t xml:space="preserve">4982</t>
@@ -4418,7 +4418,7 @@
     <t xml:space="preserve">Beta 22.79</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.183</t>
+    <t xml:space="preserve">EA 23.222</t>
   </si>
   <si>
     <t xml:space="preserve">Alpha 20.64</t>
@@ -4847,7 +4847,7 @@
     <t xml:space="preserve">爱撒娇的胆小鬼「Tekosuke」</t>
   </si>
   <si>
-    <t xml:space="preserve">青色茄子的妖精「青井NASUKO」</t>
+    <t xml:space="preserve">青色茄子的妖精「青井茄子」</t>
   </si>
   <si>
     <t xml:space="preserve">小兔子「RORO」</t>
@@ -5258,7 +5258,7 @@
     <t xml:space="preserve">收集橄榄石的吟游诗人「TUBEROSA」</t>
   </si>
   <si>
-    <t xml:space="preserve">吞噬绚烂之人「JYONN・REONPARUDO」</t>
+    <t xml:space="preserve">吞噬绚烂之人「JYONN·REONPARUDO」</t>
   </si>
   <si>
     <t xml:space="preserve">NATORISAN</t>
@@ -5279,7 +5279,7 @@
     <t xml:space="preserve">破破烂烂的「T2023」</t>
   </si>
   <si>
-    <t xml:space="preserve">没精神的守护者「KAZUKI」</t>
+    <t xml:space="preserve">怕生的爱猫「KAZUKI」</t>
   </si>
   <si>
     <t xml:space="preserve">双叶支配者「Toshinnka」</t>
@@ -5774,7 +5774,7 @@
     <t xml:space="preserve">「隐于浮世庇荫 影中窥见真理 乃恍惚梦景」</t>
   </si>
   <si>
-    <t xml:space="preserve">「下次会做得更好…」</t>
+    <t xml:space="preserve">「下次会做得更好・・・」</t>
   </si>
   <si>
     <t xml:space="preserve">「愿人们结束冒险旅程的最后一步充满幸福」</t>
@@ -5822,7 +5822,7 @@
     <t xml:space="preserve">「希望这盏灯照亮你的旅途」</t>
   </si>
   <si>
-    <t xml:space="preserve">「好想死。好想死。杀了我吧。死了就能异世界转生成美少女然后我TUEEE了…」</t>
+    <t xml:space="preserve">「好想死。好想死。杀了我吧。死了就能异世界转生成美少女然后我TUEEE了・・・」</t>
   </si>
   <si>
     <t xml:space="preserve">「这个世界的艾莱亚耳朵不尖，是靠眼睛和头发的颜色来辨别的…」</t>
@@ -5831,7 +5831,7 @@
     <t xml:space="preserve">「穿刺尸骸映照斜阳之下。再无不明之夜」</t>
   </si>
   <si>
-    <t xml:space="preserve">「看来到此为止了･･･」</t>
+    <t xml:space="preserve">「看来到此为止了・・・」</t>
   </si>
   <si>
     <t xml:space="preserve">「编织幻梦吟唱故事，终于抵达神之梦境」</t>
@@ -5876,7 +5876,7 @@
     <t xml:space="preserve">「生日快乐，许个愿吧！！！」</t>
   </si>
   <si>
-    <t xml:space="preserve">「…永恒是存在的」</t>
+    <t xml:space="preserve">「・・・永恒是存在的」</t>
   </si>
   <si>
     <t xml:space="preserve">「比光都要快！」</t>
@@ -6170,7 +6170,7 @@
     <t xml:space="preserve">「q!」</t>
   </si>
   <si>
-    <t xml:space="preserve">「啊呜呜・・・限定抽卡概率上升角色抽到天井都没到手・・・」</t>
+    <t xml:space="preserve">「啊呜呜・・・限定抽卡概率提升角色抽到天井都没到手・・・」</t>
   </si>
   <si>
     <t xml:space="preserve">「这里就是我旅途的终点，这个世界非常有趣，唯一的遗憾就是…」</t>
@@ -6498,7 +6498,7 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
@@ -6527,7 +6527,7 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C7" t="s">
         <v>1472</v>
@@ -6544,7 +6544,7 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C8" t="s">
         <v>17</v>
@@ -6585,7 +6585,7 @@
         <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C11" t="s">
         <v>1473</v>
@@ -6614,7 +6614,7 @@
         <v>23</v>
       </c>
       <c r="B13" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C13" t="s">
         <v>24</v>
@@ -6643,7 +6643,7 @@
         <v>26</v>
       </c>
       <c r="B15" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C15" t="s">
         <v>1474</v>
@@ -6684,7 +6684,7 @@
         <v>30</v>
       </c>
       <c r="B18" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C18" t="s">
         <v>1475</v>
@@ -6706,7 +6706,7 @@
         <v>33</v>
       </c>
       <c r="B19" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C19" t="s">
         <v>1476</v>
@@ -6723,7 +6723,7 @@
         <v>35</v>
       </c>
       <c r="B20" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C20" t="s">
         <v>1477</v>
@@ -6740,7 +6740,7 @@
         <v>37</v>
       </c>
       <c r="B21" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C21" t="s">
         <v>1478</v>
@@ -6757,7 +6757,7 @@
         <v>39</v>
       </c>
       <c r="B22" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C22" t="s">
         <v>40</v>
@@ -6779,7 +6779,7 @@
         <v>42</v>
       </c>
       <c r="B23" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C23" t="s">
         <v>1479</v>
@@ -6796,7 +6796,7 @@
         <v>44</v>
       </c>
       <c r="B24" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C24" t="s">
         <v>45</v>
@@ -6830,7 +6830,7 @@
         <v>48</v>
       </c>
       <c r="B26" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C26" t="s">
         <v>1480</v>
@@ -6847,7 +6847,7 @@
         <v>50</v>
       </c>
       <c r="B27" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C27" t="s">
         <v>1481</v>
@@ -6864,7 +6864,7 @@
         <v>52</v>
       </c>
       <c r="B28" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C28" t="s">
         <v>1482</v>
@@ -6886,7 +6886,7 @@
         <v>55</v>
       </c>
       <c r="B29" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C29" t="s">
         <v>1483</v>
@@ -6920,7 +6920,7 @@
         <v>59</v>
       </c>
       <c r="B31" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C31" t="s">
         <v>1484</v>
@@ -6937,7 +6937,7 @@
         <v>61</v>
       </c>
       <c r="B32" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C32" t="s">
         <v>1485</v>
@@ -6954,7 +6954,7 @@
         <v>63</v>
       </c>
       <c r="B33" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C33" t="s">
         <v>1486</v>
@@ -6976,7 +6976,7 @@
         <v>66</v>
       </c>
       <c r="B34" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C34" t="s">
         <v>1487</v>
@@ -6993,7 +6993,7 @@
         <v>68</v>
       </c>
       <c r="B35" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C35" t="s">
         <v>1488</v>
@@ -7010,7 +7010,7 @@
         <v>70</v>
       </c>
       <c r="B36" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C36" t="s">
         <v>1489</v>
@@ -7027,7 +7027,7 @@
         <v>72</v>
       </c>
       <c r="B37" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C37" t="s">
         <v>73</v>
@@ -7044,7 +7044,7 @@
         <v>74</v>
       </c>
       <c r="B38" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C38" t="s">
         <v>75</v>
@@ -7061,7 +7061,7 @@
         <v>76</v>
       </c>
       <c r="B39" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C39" t="s">
         <v>1490</v>
@@ -7078,7 +7078,7 @@
         <v>78</v>
       </c>
       <c r="B40" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C40" t="s">
         <v>1491</v>
@@ -7100,7 +7100,7 @@
         <v>81</v>
       </c>
       <c r="B41" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C41" t="s">
         <v>82</v>
@@ -7122,7 +7122,7 @@
         <v>84</v>
       </c>
       <c r="B42" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C42" t="s">
         <v>1492</v>
@@ -7139,7 +7139,7 @@
         <v>86</v>
       </c>
       <c r="B43" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C43" t="s">
         <v>1493</v>
@@ -7156,7 +7156,7 @@
         <v>88</v>
       </c>
       <c r="B44" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C44" t="s">
         <v>1494</v>
@@ -7190,7 +7190,7 @@
         <v>92</v>
       </c>
       <c r="B46" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C46" t="s">
         <v>1495</v>
@@ -7212,7 +7212,7 @@
         <v>95</v>
       </c>
       <c r="B47" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C47" t="s">
         <v>1496</v>
@@ -7229,7 +7229,7 @@
         <v>97</v>
       </c>
       <c r="B48" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C48" t="s">
         <v>1497</v>
@@ -7246,7 +7246,7 @@
         <v>99</v>
       </c>
       <c r="B49" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C49" t="s">
         <v>1498</v>
@@ -7263,7 +7263,7 @@
         <v>101</v>
       </c>
       <c r="B50" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C50" t="s">
         <v>102</v>
@@ -7285,7 +7285,7 @@
         <v>104</v>
       </c>
       <c r="B51" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C51" t="s">
         <v>1499</v>
@@ -7302,7 +7302,7 @@
         <v>106</v>
       </c>
       <c r="B52" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C52" t="s">
         <v>1500</v>
@@ -7319,7 +7319,7 @@
         <v>108</v>
       </c>
       <c r="B53" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C53" t="s">
         <v>1501</v>
@@ -7341,7 +7341,7 @@
         <v>111</v>
       </c>
       <c r="B54" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C54" t="s">
         <v>1502</v>
@@ -7363,7 +7363,7 @@
         <v>114</v>
       </c>
       <c r="B55" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C55" t="s">
         <v>115</v>
@@ -7380,7 +7380,7 @@
         <v>116</v>
       </c>
       <c r="B56" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C56" t="s">
         <v>1503</v>
@@ -7402,7 +7402,7 @@
         <v>119</v>
       </c>
       <c r="B57" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C57" t="s">
         <v>120</v>
@@ -7419,7 +7419,7 @@
         <v>121</v>
       </c>
       <c r="B58" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C58" t="s">
         <v>1504</v>
@@ -7436,7 +7436,7 @@
         <v>123</v>
       </c>
       <c r="B59" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C59" t="s">
         <v>1505</v>
@@ -7453,7 +7453,7 @@
         <v>125</v>
       </c>
       <c r="B60" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C60" t="s">
         <v>1506</v>
@@ -7475,7 +7475,7 @@
         <v>128</v>
       </c>
       <c r="B61" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C61" t="s">
         <v>1507</v>
@@ -7492,7 +7492,7 @@
         <v>130</v>
       </c>
       <c r="B62" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C62" t="s">
         <v>1508</v>
@@ -7514,7 +7514,7 @@
         <v>133</v>
       </c>
       <c r="B63" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C63" t="s">
         <v>1509</v>
@@ -7536,7 +7536,7 @@
         <v>136</v>
       </c>
       <c r="B64" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C64" t="s">
         <v>137</v>
@@ -7553,7 +7553,7 @@
         <v>138</v>
       </c>
       <c r="B65" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C65" t="s">
         <v>1510</v>
@@ -7575,7 +7575,7 @@
         <v>141</v>
       </c>
       <c r="B66" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C66" t="s">
         <v>1511</v>
@@ -7597,7 +7597,7 @@
         <v>144</v>
       </c>
       <c r="B67" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C67" t="s">
         <v>1512</v>
@@ -7619,7 +7619,7 @@
         <v>147</v>
       </c>
       <c r="B68" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C68" t="s">
         <v>1513</v>
@@ -7636,7 +7636,7 @@
         <v>149</v>
       </c>
       <c r="B69" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C69" t="s">
         <v>1514</v>
@@ -7658,7 +7658,7 @@
         <v>152</v>
       </c>
       <c r="B70" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C70" t="s">
         <v>1515</v>
@@ -7675,7 +7675,7 @@
         <v>154</v>
       </c>
       <c r="B71" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C71" t="s">
         <v>155</v>
@@ -7704,7 +7704,7 @@
         <v>157</v>
       </c>
       <c r="B73" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C73" t="s">
         <v>1516</v>
@@ -7726,7 +7726,7 @@
         <v>160</v>
       </c>
       <c r="B74" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C74" t="s">
         <v>1517</v>
@@ -7748,7 +7748,7 @@
         <v>163</v>
       </c>
       <c r="B75" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C75" t="s">
         <v>1518</v>
@@ -7765,7 +7765,7 @@
         <v>165</v>
       </c>
       <c r="B76" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C76" t="s">
         <v>1519</v>
@@ -7787,7 +7787,7 @@
         <v>168</v>
       </c>
       <c r="B77" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C77" t="s">
         <v>1520</v>
@@ -7804,7 +7804,7 @@
         <v>170</v>
       </c>
       <c r="B78" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C78" t="s">
         <v>171</v>
@@ -7826,7 +7826,7 @@
         <v>173</v>
       </c>
       <c r="B79" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C79" t="s">
         <v>174</v>
@@ -7843,7 +7843,7 @@
         <v>175</v>
       </c>
       <c r="B80" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C80" t="s">
         <v>1521</v>
@@ -7860,7 +7860,7 @@
         <v>177</v>
       </c>
       <c r="B81" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C81" t="s">
         <v>1522</v>
@@ -7882,7 +7882,7 @@
         <v>180</v>
       </c>
       <c r="B82" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C82" t="s">
         <v>1523</v>
@@ -7904,7 +7904,7 @@
         <v>183</v>
       </c>
       <c r="B83" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C83" t="s">
         <v>184</v>
@@ -7926,7 +7926,7 @@
         <v>186</v>
       </c>
       <c r="B84" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C84" t="s">
         <v>187</v>
@@ -7943,7 +7943,7 @@
         <v>188</v>
       </c>
       <c r="B85" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C85" t="s">
         <v>1524</v>
@@ -7965,7 +7965,7 @@
         <v>191</v>
       </c>
       <c r="B86" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C86" t="s">
         <v>1525</v>
@@ -7987,7 +7987,7 @@
         <v>194</v>
       </c>
       <c r="B87" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C87" t="s">
         <v>1526</v>
@@ -8004,7 +8004,7 @@
         <v>196</v>
       </c>
       <c r="B88" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C88" t="s">
         <v>1527</v>
@@ -8021,7 +8021,7 @@
         <v>198</v>
       </c>
       <c r="B89" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C89" t="s">
         <v>1528</v>
@@ -8043,7 +8043,7 @@
         <v>201</v>
       </c>
       <c r="B90" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C90" t="s">
         <v>1529</v>
@@ -8065,7 +8065,7 @@
         <v>204</v>
       </c>
       <c r="B91" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C91" t="s">
         <v>1530</v>
@@ -8099,7 +8099,7 @@
         <v>208</v>
       </c>
       <c r="B93" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C93" t="s">
         <v>1531</v>
@@ -8121,7 +8121,7 @@
         <v>211</v>
       </c>
       <c r="B94" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C94" t="s">
         <v>1532</v>
@@ -8138,7 +8138,7 @@
         <v>213</v>
       </c>
       <c r="B95" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C95" t="s">
         <v>214</v>
@@ -8160,7 +8160,7 @@
         <v>216</v>
       </c>
       <c r="B96" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C96" t="s">
         <v>1533</v>
@@ -8177,7 +8177,7 @@
         <v>218</v>
       </c>
       <c r="B97" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C97" t="s">
         <v>1534</v>
@@ -8194,7 +8194,7 @@
         <v>220</v>
       </c>
       <c r="B98" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C98" t="s">
         <v>1535</v>
@@ -8216,7 +8216,7 @@
         <v>223</v>
       </c>
       <c r="B99" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C99" t="s">
         <v>1536</v>
@@ -8238,7 +8238,7 @@
         <v>226</v>
       </c>
       <c r="B100" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C100" t="s">
         <v>227</v>
@@ -8255,7 +8255,7 @@
         <v>228</v>
       </c>
       <c r="B101" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C101" t="s">
         <v>1537</v>
@@ -8272,7 +8272,7 @@
         <v>230</v>
       </c>
       <c r="B102" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C102" t="s">
         <v>1538</v>
@@ -8289,7 +8289,7 @@
         <v>232</v>
       </c>
       <c r="B103" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C103" t="s">
         <v>1539</v>
@@ -8306,7 +8306,7 @@
         <v>234</v>
       </c>
       <c r="B104" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C104" t="s">
         <v>1540</v>
@@ -8328,7 +8328,7 @@
         <v>237</v>
       </c>
       <c r="B105" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C105" t="s">
         <v>238</v>
@@ -8345,7 +8345,7 @@
         <v>239</v>
       </c>
       <c r="B106" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C106" t="s">
         <v>1541</v>
@@ -8367,7 +8367,7 @@
         <v>242</v>
       </c>
       <c r="B107" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C107" t="s">
         <v>1542</v>
@@ -8384,7 +8384,7 @@
         <v>244</v>
       </c>
       <c r="B108" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C108" t="s">
         <v>1543</v>
@@ -8401,7 +8401,7 @@
         <v>246</v>
       </c>
       <c r="B109" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C109" t="s">
         <v>247</v>
@@ -8418,7 +8418,7 @@
         <v>248</v>
       </c>
       <c r="B110" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C110" t="s">
         <v>1544</v>
@@ -8435,7 +8435,7 @@
         <v>250</v>
       </c>
       <c r="B111" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C111" t="s">
         <v>1545</v>
@@ -8452,7 +8452,7 @@
         <v>252</v>
       </c>
       <c r="B112" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C112" t="s">
         <v>1546</v>
@@ -8469,7 +8469,7 @@
         <v>254</v>
       </c>
       <c r="B113" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C113" t="s">
         <v>1547</v>
@@ -8503,7 +8503,7 @@
         <v>258</v>
       </c>
       <c r="B115" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C115" t="s">
         <v>1548</v>
@@ -8525,7 +8525,7 @@
         <v>261</v>
       </c>
       <c r="B116" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C116" t="s">
         <v>1549</v>
@@ -8547,7 +8547,7 @@
         <v>264</v>
       </c>
       <c r="B117" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C117" t="s">
         <v>1550</v>
@@ -8564,7 +8564,7 @@
         <v>266</v>
       </c>
       <c r="B118" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C118" t="s">
         <v>1551</v>
@@ -8586,7 +8586,7 @@
         <v>269</v>
       </c>
       <c r="B119" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C119" t="s">
         <v>1552</v>
@@ -8603,7 +8603,7 @@
         <v>271</v>
       </c>
       <c r="B120" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C120" t="s">
         <v>272</v>
@@ -8620,7 +8620,7 @@
         <v>273</v>
       </c>
       <c r="B121" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C121" t="s">
         <v>274</v>
@@ -8642,7 +8642,7 @@
         <v>276</v>
       </c>
       <c r="B122" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C122" t="s">
         <v>1553</v>
@@ -8659,7 +8659,7 @@
         <v>278</v>
       </c>
       <c r="B123" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C123" t="s">
         <v>1554</v>
@@ -8676,7 +8676,7 @@
         <v>280</v>
       </c>
       <c r="B124" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C124" t="s">
         <v>1555</v>
@@ -8693,7 +8693,7 @@
         <v>282</v>
       </c>
       <c r="B125" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C125" t="s">
         <v>1556</v>
@@ -8715,7 +8715,7 @@
         <v>285</v>
       </c>
       <c r="B126" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C126" t="s">
         <v>1557</v>
@@ -8732,7 +8732,7 @@
         <v>287</v>
       </c>
       <c r="B127" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C127" t="s">
         <v>1558</v>
@@ -8754,7 +8754,7 @@
         <v>290</v>
       </c>
       <c r="B128" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C128" t="s">
         <v>1559</v>
@@ -8776,7 +8776,7 @@
         <v>293</v>
       </c>
       <c r="B129" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C129" t="s">
         <v>294</v>
@@ -8810,7 +8810,7 @@
         <v>297</v>
       </c>
       <c r="B131" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C131" t="s">
         <v>298</v>
@@ -8832,7 +8832,7 @@
         <v>300</v>
       </c>
       <c r="B132" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C132" t="s">
         <v>1560</v>
@@ -8854,7 +8854,7 @@
         <v>303</v>
       </c>
       <c r="B133" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C133" t="s">
         <v>1561</v>
@@ -8871,7 +8871,7 @@
         <v>305</v>
       </c>
       <c r="B134" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C134" t="s">
         <v>1562</v>
@@ -8893,7 +8893,7 @@
         <v>308</v>
       </c>
       <c r="B135" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C135" t="s">
         <v>309</v>
@@ -8910,7 +8910,7 @@
         <v>310</v>
       </c>
       <c r="B136" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C136" t="s">
         <v>1563</v>
@@ -8927,7 +8927,7 @@
         <v>312</v>
       </c>
       <c r="B137" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C137" t="s">
         <v>1564</v>
@@ -8944,7 +8944,7 @@
         <v>314</v>
       </c>
       <c r="B138" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C138" t="s">
         <v>1565</v>
@@ -8966,7 +8966,7 @@
         <v>317</v>
       </c>
       <c r="B139" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C139" t="s">
         <v>318</v>
@@ -8995,7 +8995,7 @@
         <v>320</v>
       </c>
       <c r="B141" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C141" t="s">
         <v>1566</v>
@@ -9012,7 +9012,7 @@
         <v>322</v>
       </c>
       <c r="B142" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C142" t="s">
         <v>323</v>
@@ -9034,7 +9034,7 @@
         <v>325</v>
       </c>
       <c r="B143" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C143" t="s">
         <v>1567</v>
@@ -9051,7 +9051,7 @@
         <v>327</v>
       </c>
       <c r="B144" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C144" t="s">
         <v>328</v>
@@ -9073,7 +9073,7 @@
         <v>330</v>
       </c>
       <c r="B145" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C145" t="s">
         <v>1568</v>
@@ -9107,7 +9107,7 @@
         <v>334</v>
       </c>
       <c r="B147" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C147" t="s">
         <v>1569</v>
@@ -9129,7 +9129,7 @@
         <v>337</v>
       </c>
       <c r="B148" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C148" t="s">
         <v>1570</v>
@@ -9146,7 +9146,7 @@
         <v>339</v>
       </c>
       <c r="B149" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C149" t="s">
         <v>1571</v>
@@ -9163,7 +9163,7 @@
         <v>341</v>
       </c>
       <c r="B150" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C150" t="s">
         <v>342</v>
@@ -9180,7 +9180,7 @@
         <v>343</v>
       </c>
       <c r="B151" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C151" t="s">
         <v>1572</v>
@@ -9202,7 +9202,7 @@
         <v>346</v>
       </c>
       <c r="B152" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C152" t="s">
         <v>1573</v>
@@ -9219,7 +9219,7 @@
         <v>348</v>
       </c>
       <c r="B153" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C153" t="s">
         <v>1574</v>
@@ -9236,7 +9236,7 @@
         <v>350</v>
       </c>
       <c r="B154" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C154" t="s">
         <v>1575</v>
@@ -9258,7 +9258,7 @@
         <v>353</v>
       </c>
       <c r="B155" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C155" t="s">
         <v>354</v>
@@ -9280,7 +9280,7 @@
         <v>356</v>
       </c>
       <c r="B156" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C156" t="s">
         <v>1576</v>
@@ -9302,7 +9302,7 @@
         <v>359</v>
       </c>
       <c r="B157" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C157" t="s">
         <v>1577</v>
@@ -9324,7 +9324,7 @@
         <v>362</v>
       </c>
       <c r="B158" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C158" t="s">
         <v>1578</v>
@@ -9341,7 +9341,7 @@
         <v>364</v>
       </c>
       <c r="B159" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C159" t="s">
         <v>1579</v>
@@ -9363,7 +9363,7 @@
         <v>367</v>
       </c>
       <c r="B160" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C160" t="s">
         <v>1580</v>
@@ -9385,7 +9385,7 @@
         <v>370</v>
       </c>
       <c r="B161" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C161" t="s">
         <v>1581</v>
@@ -9419,7 +9419,7 @@
         <v>374</v>
       </c>
       <c r="B163" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C163" t="s">
         <v>1582</v>
@@ -9436,7 +9436,7 @@
         <v>376</v>
       </c>
       <c r="B164" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C164" t="s">
         <v>377</v>
@@ -9453,7 +9453,7 @@
         <v>378</v>
       </c>
       <c r="B165" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C165" t="s">
         <v>1583</v>
@@ -9475,7 +9475,7 @@
         <v>381</v>
       </c>
       <c r="B166" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C166" t="s">
         <v>1584</v>
@@ -9497,7 +9497,7 @@
         <v>384</v>
       </c>
       <c r="B167" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C167" t="s">
         <v>1585</v>
@@ -9514,7 +9514,7 @@
         <v>386</v>
       </c>
       <c r="B168" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C168" t="s">
         <v>1586</v>
@@ -9536,7 +9536,7 @@
         <v>389</v>
       </c>
       <c r="B169" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C169" t="s">
         <v>1587</v>
@@ -9553,7 +9553,7 @@
         <v>391</v>
       </c>
       <c r="B170" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C170" t="s">
         <v>1588</v>
@@ -9575,7 +9575,7 @@
         <v>394</v>
       </c>
       <c r="B171" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C171" t="s">
         <v>1589</v>
@@ -9592,7 +9592,7 @@
         <v>396</v>
       </c>
       <c r="B172" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C172" t="s">
         <v>397</v>
@@ -9614,7 +9614,7 @@
         <v>399</v>
       </c>
       <c r="B173" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C173" t="s">
         <v>1590</v>
@@ -9631,7 +9631,7 @@
         <v>401</v>
       </c>
       <c r="B174" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C174" t="s">
         <v>1591</v>
@@ -9648,7 +9648,7 @@
         <v>403</v>
       </c>
       <c r="B175" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C175" t="s">
         <v>1592</v>
@@ -9665,7 +9665,7 @@
         <v>405</v>
       </c>
       <c r="B176" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C176" t="s">
         <v>1593</v>
@@ -9687,7 +9687,7 @@
         <v>408</v>
       </c>
       <c r="B177" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C177" t="s">
         <v>1594</v>
@@ -9709,7 +9709,7 @@
         <v>411</v>
       </c>
       <c r="B178" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C178" t="s">
         <v>1595</v>
@@ -9726,7 +9726,7 @@
         <v>413</v>
       </c>
       <c r="B179" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C179" t="s">
         <v>1596</v>
@@ -9748,7 +9748,7 @@
         <v>416</v>
       </c>
       <c r="B180" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C180" t="s">
         <v>1597</v>
@@ -9770,7 +9770,7 @@
         <v>419</v>
       </c>
       <c r="B181" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C181" t="s">
         <v>1598</v>
@@ -9787,7 +9787,7 @@
         <v>421</v>
       </c>
       <c r="B182" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C182" t="s">
         <v>1599</v>
@@ -9804,7 +9804,7 @@
         <v>423</v>
       </c>
       <c r="B183" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C183" t="s">
         <v>1600</v>
@@ -9826,7 +9826,7 @@
         <v>426</v>
       </c>
       <c r="B184" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C184" t="s">
         <v>1601</v>
@@ -9843,7 +9843,7 @@
         <v>428</v>
       </c>
       <c r="B185" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C185" t="s">
         <v>1602</v>
@@ -9860,7 +9860,7 @@
         <v>430</v>
       </c>
       <c r="B186" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C186" t="s">
         <v>1603</v>
@@ -9877,7 +9877,7 @@
         <v>432</v>
       </c>
       <c r="B187" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C187" t="s">
         <v>433</v>
@@ -9894,7 +9894,7 @@
         <v>434</v>
       </c>
       <c r="B188" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C188" t="s">
         <v>1604</v>
@@ -9916,7 +9916,7 @@
         <v>437</v>
       </c>
       <c r="B189" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C189" t="s">
         <v>1605</v>
@@ -9933,7 +9933,7 @@
         <v>439</v>
       </c>
       <c r="B190" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C190" t="s">
         <v>1606</v>
@@ -9950,7 +9950,7 @@
         <v>441</v>
       </c>
       <c r="B191" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C191" t="s">
         <v>1607</v>
@@ -9984,7 +9984,7 @@
         <v>445</v>
       </c>
       <c r="B193" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C193" t="s">
         <v>1608</v>
@@ -10001,7 +10001,7 @@
         <v>447</v>
       </c>
       <c r="B194" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C194" t="s">
         <v>1609</v>
@@ -10018,7 +10018,7 @@
         <v>449</v>
       </c>
       <c r="B195" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C195" t="s">
         <v>450</v>
@@ -10047,7 +10047,7 @@
         <v>452</v>
       </c>
       <c r="B197" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C197" t="s">
         <v>1610</v>
@@ -10069,7 +10069,7 @@
         <v>455</v>
       </c>
       <c r="B198" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C198" t="s">
         <v>456</v>
@@ -10086,7 +10086,7 @@
         <v>457</v>
       </c>
       <c r="B199" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C199" t="s">
         <v>1611</v>
@@ -10103,7 +10103,7 @@
         <v>459</v>
       </c>
       <c r="B200" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C200" t="s">
         <v>1612</v>
@@ -10120,7 +10120,7 @@
         <v>461</v>
       </c>
       <c r="B201" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C201" t="s">
         <v>1613</v>
@@ -10142,7 +10142,7 @@
         <v>464</v>
       </c>
       <c r="B202" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C202" t="s">
         <v>1614</v>
@@ -10164,7 +10164,7 @@
         <v>467</v>
       </c>
       <c r="B203" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C203" t="s">
         <v>468</v>
@@ -10181,7 +10181,7 @@
         <v>469</v>
       </c>
       <c r="B204" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C204" t="s">
         <v>1615</v>
@@ -10198,7 +10198,7 @@
         <v>471</v>
       </c>
       <c r="B205" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C205" t="s">
         <v>1616</v>
@@ -10227,7 +10227,7 @@
         <v>474</v>
       </c>
       <c r="B207" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C207" t="s">
         <v>1617</v>
@@ -10249,7 +10249,7 @@
         <v>477</v>
       </c>
       <c r="B208" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C208" t="s">
         <v>1618</v>
@@ -10271,7 +10271,7 @@
         <v>480</v>
       </c>
       <c r="B209" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C209" t="s">
         <v>1619</v>
@@ -10300,7 +10300,7 @@
         <v>483</v>
       </c>
       <c r="B211" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C211" t="s">
         <v>1620</v>
@@ -10322,7 +10322,7 @@
         <v>486</v>
       </c>
       <c r="B212" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C212" t="s">
         <v>1621</v>
@@ -10339,7 +10339,7 @@
         <v>488</v>
       </c>
       <c r="B213" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C213" t="s">
         <v>1622</v>
@@ -10361,7 +10361,7 @@
         <v>491</v>
       </c>
       <c r="B214" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C214" t="s">
         <v>1623</v>
@@ -10378,7 +10378,7 @@
         <v>493</v>
       </c>
       <c r="B215" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C215" t="s">
         <v>494</v>
@@ -10395,7 +10395,7 @@
         <v>495</v>
       </c>
       <c r="B216" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C216" t="s">
         <v>1624</v>
@@ -10412,7 +10412,7 @@
         <v>497</v>
       </c>
       <c r="B217" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C217" t="s">
         <v>1625</v>
@@ -10429,7 +10429,7 @@
         <v>499</v>
       </c>
       <c r="B218" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C218" t="s">
         <v>1626</v>
@@ -10446,7 +10446,7 @@
         <v>501</v>
       </c>
       <c r="B219" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C219" t="s">
         <v>1627</v>
@@ -10468,7 +10468,7 @@
         <v>504</v>
       </c>
       <c r="B220" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C220" t="s">
         <v>1628</v>
@@ -10502,7 +10502,7 @@
         <v>508</v>
       </c>
       <c r="B222" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C222" t="s">
         <v>1629</v>
@@ -10519,7 +10519,7 @@
         <v>510</v>
       </c>
       <c r="B223" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C223" t="s">
         <v>511</v>
@@ -10553,7 +10553,7 @@
         <v>514</v>
       </c>
       <c r="B225" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C225" t="s">
         <v>1630</v>
@@ -10575,7 +10575,7 @@
         <v>517</v>
       </c>
       <c r="B226" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C226" t="s">
         <v>1631</v>
@@ -10592,7 +10592,7 @@
         <v>519</v>
       </c>
       <c r="B227" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C227" t="s">
         <v>1632</v>
@@ -10614,7 +10614,7 @@
         <v>522</v>
       </c>
       <c r="B228" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C228" t="s">
         <v>1633</v>
@@ -10631,7 +10631,7 @@
         <v>524</v>
       </c>
       <c r="B229" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C229" t="s">
         <v>1634</v>
@@ -10653,7 +10653,7 @@
         <v>527</v>
       </c>
       <c r="B230" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C230" t="s">
         <v>1635</v>
@@ -10670,7 +10670,7 @@
         <v>529</v>
       </c>
       <c r="B231" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C231" t="s">
         <v>1636</v>
@@ -10687,7 +10687,7 @@
         <v>531</v>
       </c>
       <c r="B232" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C232" t="s">
         <v>1637</v>
@@ -10704,7 +10704,7 @@
         <v>533</v>
       </c>
       <c r="B233" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C233" t="s">
         <v>1638</v>
@@ -10738,7 +10738,7 @@
         <v>537</v>
       </c>
       <c r="B235" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C235" t="s">
         <v>1639</v>
@@ -10755,7 +10755,7 @@
         <v>539</v>
       </c>
       <c r="B236" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C236" t="s">
         <v>1640</v>
@@ -10772,7 +10772,7 @@
         <v>541</v>
       </c>
       <c r="B237" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C237" t="s">
         <v>1641</v>
@@ -10794,7 +10794,7 @@
         <v>544</v>
       </c>
       <c r="B238" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C238" t="s">
         <v>545</v>
@@ -10811,7 +10811,7 @@
         <v>546</v>
       </c>
       <c r="B239" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C239" t="s">
         <v>547</v>
@@ -10833,7 +10833,7 @@
         <v>549</v>
       </c>
       <c r="B240" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C240" t="s">
         <v>1642</v>
@@ -10850,7 +10850,7 @@
         <v>551</v>
       </c>
       <c r="B241" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C241" t="s">
         <v>1643</v>
@@ -10872,7 +10872,7 @@
         <v>554</v>
       </c>
       <c r="B242" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C242" t="s">
         <v>1644</v>
@@ -10889,7 +10889,7 @@
         <v>556</v>
       </c>
       <c r="B243" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C243" t="s">
         <v>1645</v>
@@ -10911,7 +10911,7 @@
         <v>559</v>
       </c>
       <c r="B244" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C244" t="s">
         <v>1646</v>
@@ -10933,7 +10933,7 @@
         <v>562</v>
       </c>
       <c r="B245" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C245" t="s">
         <v>1647</v>
@@ -10950,7 +10950,7 @@
         <v>564</v>
       </c>
       <c r="B246" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C246" t="s">
         <v>1648</v>
@@ -10967,7 +10967,7 @@
         <v>566</v>
       </c>
       <c r="B247" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C247" t="s">
         <v>1649</v>
@@ -10989,7 +10989,7 @@
         <v>569</v>
       </c>
       <c r="B248" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C248" t="s">
         <v>1650</v>
@@ -11011,7 +11011,7 @@
         <v>572</v>
       </c>
       <c r="B249" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C249" t="s">
         <v>1651</v>
@@ -11028,7 +11028,7 @@
         <v>574</v>
       </c>
       <c r="B250" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C250" t="s">
         <v>1652</v>
@@ -11045,7 +11045,7 @@
         <v>576</v>
       </c>
       <c r="B251" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C251" t="s">
         <v>1653</v>
@@ -11074,7 +11074,7 @@
         <v>579</v>
       </c>
       <c r="B253" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C253" t="s">
         <v>1654</v>
@@ -11096,7 +11096,7 @@
         <v>582</v>
       </c>
       <c r="B254" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C254" t="s">
         <v>583</v>
@@ -11118,7 +11118,7 @@
         <v>585</v>
       </c>
       <c r="B255" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C255" t="s">
         <v>1655</v>
@@ -11135,7 +11135,7 @@
         <v>587</v>
       </c>
       <c r="B256" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C256" t="s">
         <v>1656</v>
@@ -11157,7 +11157,7 @@
         <v>590</v>
       </c>
       <c r="B257" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C257" t="s">
         <v>1657</v>
@@ -11174,7 +11174,7 @@
         <v>592</v>
       </c>
       <c r="B258" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C258" t="s">
         <v>1658</v>
@@ -11196,7 +11196,7 @@
         <v>595</v>
       </c>
       <c r="B259" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C259" t="s">
         <v>1659</v>
@@ -11218,7 +11218,7 @@
         <v>598</v>
       </c>
       <c r="B260" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C260" t="s">
         <v>1660</v>
@@ -11240,7 +11240,7 @@
         <v>601</v>
       </c>
       <c r="B261" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C261" t="s">
         <v>1661</v>
@@ -11257,7 +11257,7 @@
         <v>603</v>
       </c>
       <c r="B262" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C262" t="s">
         <v>1662</v>
@@ -11279,7 +11279,7 @@
         <v>606</v>
       </c>
       <c r="B263" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C263" t="s">
         <v>1663</v>
@@ -11296,7 +11296,7 @@
         <v>608</v>
       </c>
       <c r="B264" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C264" t="s">
         <v>609</v>
@@ -11313,7 +11313,7 @@
         <v>610</v>
       </c>
       <c r="B265" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C265" t="s">
         <v>1664</v>
@@ -11330,7 +11330,7 @@
         <v>612</v>
       </c>
       <c r="B266" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C266" t="s">
         <v>1665</v>
@@ -11347,7 +11347,7 @@
         <v>614</v>
       </c>
       <c r="B267" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C267" t="s">
         <v>1666</v>
@@ -11369,7 +11369,7 @@
         <v>617</v>
       </c>
       <c r="B268" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C268" t="s">
         <v>1667</v>
@@ -11391,7 +11391,7 @@
         <v>620</v>
       </c>
       <c r="B269" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C269" t="s">
         <v>1668</v>
@@ -11408,7 +11408,7 @@
         <v>622</v>
       </c>
       <c r="B270" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C270" t="s">
         <v>623</v>
@@ -11425,7 +11425,7 @@
         <v>624</v>
       </c>
       <c r="B271" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C271" t="s">
         <v>1669</v>
@@ -11447,7 +11447,7 @@
         <v>627</v>
       </c>
       <c r="B272" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C272" t="s">
         <v>1670</v>
@@ -11464,7 +11464,7 @@
         <v>629</v>
       </c>
       <c r="B273" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C273" t="s">
         <v>1671</v>
@@ -11486,7 +11486,7 @@
         <v>632</v>
       </c>
       <c r="B274" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C274" t="s">
         <v>1672</v>
@@ -11508,7 +11508,7 @@
         <v>635</v>
       </c>
       <c r="B275" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C275" t="s">
         <v>1673</v>
@@ -11525,7 +11525,7 @@
         <v>637</v>
       </c>
       <c r="B276" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C276" t="s">
         <v>1674</v>
@@ -11542,7 +11542,7 @@
         <v>639</v>
       </c>
       <c r="B277" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C277" t="s">
         <v>640</v>
@@ -11559,7 +11559,7 @@
         <v>641</v>
       </c>
       <c r="B278" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C278" t="s">
         <v>1675</v>
@@ -11588,7 +11588,7 @@
         <v>644</v>
       </c>
       <c r="B280" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C280" t="s">
         <v>1676</v>
@@ -11610,7 +11610,7 @@
         <v>647</v>
       </c>
       <c r="B281" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C281" t="s">
         <v>1677</v>
@@ -11632,7 +11632,7 @@
         <v>650</v>
       </c>
       <c r="B282" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C282" t="s">
         <v>1678</v>
@@ -11654,7 +11654,7 @@
         <v>653</v>
       </c>
       <c r="B283" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C283" t="s">
         <v>654</v>
@@ -11671,7 +11671,7 @@
         <v>655</v>
       </c>
       <c r="B284" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C284" t="s">
         <v>1679</v>
@@ -11693,7 +11693,7 @@
         <v>658</v>
       </c>
       <c r="B285" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C285" t="s">
         <v>1680</v>
@@ -11715,7 +11715,7 @@
         <v>661</v>
       </c>
       <c r="B286" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C286" t="s">
         <v>1681</v>
@@ -11732,7 +11732,7 @@
         <v>663</v>
       </c>
       <c r="B287" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C287" t="s">
         <v>664</v>
@@ -11749,7 +11749,7 @@
         <v>665</v>
       </c>
       <c r="B288" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C288" t="s">
         <v>1682</v>
@@ -11766,7 +11766,7 @@
         <v>667</v>
       </c>
       <c r="B289" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C289" t="s">
         <v>668</v>
@@ -11788,7 +11788,7 @@
         <v>670</v>
       </c>
       <c r="B290" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C290" t="s">
         <v>1683</v>
@@ -11817,7 +11817,7 @@
         <v>673</v>
       </c>
       <c r="B292" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C292" t="s">
         <v>1684</v>
@@ -11834,7 +11834,7 @@
         <v>675</v>
       </c>
       <c r="B293" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C293" t="s">
         <v>676</v>
@@ -11856,7 +11856,7 @@
         <v>678</v>
       </c>
       <c r="B294" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C294" t="s">
         <v>679</v>
@@ -11885,7 +11885,7 @@
         <v>681</v>
       </c>
       <c r="B296" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C296" t="s">
         <v>1685</v>
@@ -11902,7 +11902,7 @@
         <v>683</v>
       </c>
       <c r="B297" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C297" t="s">
         <v>1686</v>
@@ -11919,7 +11919,7 @@
         <v>685</v>
       </c>
       <c r="B298" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C298" t="s">
         <v>686</v>
@@ -11936,7 +11936,7 @@
         <v>687</v>
       </c>
       <c r="B299" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C299" t="s">
         <v>1687</v>
@@ -11958,7 +11958,7 @@
         <v>690</v>
       </c>
       <c r="B300" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C300" t="s">
         <v>691</v>
@@ -11975,7 +11975,7 @@
         <v>692</v>
       </c>
       <c r="B301" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C301" t="s">
         <v>1688</v>
@@ -11997,7 +11997,7 @@
         <v>695</v>
       </c>
       <c r="B302" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C302" t="s">
         <v>1689</v>
@@ -12014,7 +12014,7 @@
         <v>697</v>
       </c>
       <c r="B303" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C303" t="s">
         <v>1690</v>
@@ -12031,7 +12031,7 @@
         <v>699</v>
       </c>
       <c r="B304" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C304" t="s">
         <v>1691</v>
@@ -12048,7 +12048,7 @@
         <v>701</v>
       </c>
       <c r="B305" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C305" t="s">
         <v>1692</v>
@@ -12070,7 +12070,7 @@
         <v>704</v>
       </c>
       <c r="B306" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C306" t="s">
         <v>705</v>
@@ -12087,7 +12087,7 @@
         <v>706</v>
       </c>
       <c r="B307" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C307" t="s">
         <v>1693</v>
@@ -12109,7 +12109,7 @@
         <v>709</v>
       </c>
       <c r="B308" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C308" t="s">
         <v>710</v>
@@ -12131,7 +12131,7 @@
         <v>712</v>
       </c>
       <c r="B309" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C309" t="s">
         <v>713</v>
@@ -12148,7 +12148,7 @@
         <v>714</v>
       </c>
       <c r="B310" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C310" t="s">
         <v>1694</v>
@@ -12177,7 +12177,7 @@
         <v>717</v>
       </c>
       <c r="B312" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C312" t="s">
         <v>1695</v>
@@ -12211,7 +12211,7 @@
         <v>721</v>
       </c>
       <c r="B314" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C314" t="s">
         <v>1696</v>
@@ -12228,7 +12228,7 @@
         <v>723</v>
       </c>
       <c r="B315" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C315" t="s">
         <v>1697</v>
@@ -12245,7 +12245,7 @@
         <v>725</v>
       </c>
       <c r="B316" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C316" t="s">
         <v>1698</v>
@@ -12262,7 +12262,7 @@
         <v>727</v>
       </c>
       <c r="B317" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C317" t="s">
         <v>1699</v>
@@ -12284,7 +12284,7 @@
         <v>730</v>
       </c>
       <c r="B318" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C318" t="s">
         <v>731</v>
@@ -12301,7 +12301,7 @@
         <v>732</v>
       </c>
       <c r="B319" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C319" t="s">
         <v>733</v>
@@ -12342,7 +12342,7 @@
         <v>736</v>
       </c>
       <c r="B322" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C322" t="s">
         <v>1700</v>
@@ -12364,7 +12364,7 @@
         <v>739</v>
       </c>
       <c r="B323" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C323" t="s">
         <v>740</v>
@@ -12381,7 +12381,7 @@
         <v>741</v>
       </c>
       <c r="B324" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C324" t="s">
         <v>1701</v>
@@ -12403,7 +12403,7 @@
         <v>744</v>
       </c>
       <c r="B325" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C325" t="s">
         <v>1702</v>
@@ -12425,7 +12425,7 @@
         <v>747</v>
       </c>
       <c r="B326" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C326" t="s">
         <v>1703</v>
@@ -12447,7 +12447,7 @@
         <v>750</v>
       </c>
       <c r="B327" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C327" t="s">
         <v>1704</v>
@@ -12464,7 +12464,7 @@
         <v>752</v>
       </c>
       <c r="B328" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C328" t="s">
         <v>1705</v>
@@ -12481,7 +12481,7 @@
         <v>754</v>
       </c>
       <c r="B329" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C329" t="s">
         <v>1706</v>
@@ -12503,7 +12503,7 @@
         <v>757</v>
       </c>
       <c r="B330" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C330" t="s">
         <v>1707</v>
@@ -12520,7 +12520,7 @@
         <v>759</v>
       </c>
       <c r="B331" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C331" t="s">
         <v>760</v>
@@ -12542,7 +12542,7 @@
         <v>762</v>
       </c>
       <c r="B332" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C332" t="s">
         <v>1708</v>
@@ -12559,7 +12559,7 @@
         <v>764</v>
       </c>
       <c r="B333" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C333" t="s">
         <v>765</v>
@@ -12581,7 +12581,7 @@
         <v>767</v>
       </c>
       <c r="B334" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C334" t="s">
         <v>1709</v>
@@ -12598,7 +12598,7 @@
         <v>769</v>
       </c>
       <c r="B335" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C335" t="s">
         <v>770</v>
@@ -12615,7 +12615,7 @@
         <v>771</v>
       </c>
       <c r="B336" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C336" t="s">
         <v>772</v>
@@ -12632,7 +12632,7 @@
         <v>773</v>
       </c>
       <c r="B337" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C337" t="s">
         <v>774</v>
@@ -12649,7 +12649,7 @@
         <v>775</v>
       </c>
       <c r="B338" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C338" t="s">
         <v>1710</v>
@@ -12666,7 +12666,7 @@
         <v>777</v>
       </c>
       <c r="B339" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C339" t="s">
         <v>778</v>
@@ -12683,7 +12683,7 @@
         <v>779</v>
       </c>
       <c r="B340" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C340" t="s">
         <v>1711</v>
@@ -12729,7 +12729,7 @@
         <v>784</v>
       </c>
       <c r="B343" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C343" t="s">
         <v>1712</v>
@@ -12763,7 +12763,7 @@
         <v>788</v>
       </c>
       <c r="B345" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C345" t="s">
         <v>1713</v>
@@ -12797,7 +12797,7 @@
         <v>792</v>
       </c>
       <c r="B347" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C347" t="s">
         <v>1714</v>
@@ -12819,7 +12819,7 @@
         <v>795</v>
       </c>
       <c r="B348" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C348" t="s">
         <v>796</v>
@@ -12841,7 +12841,7 @@
         <v>798</v>
       </c>
       <c r="B349" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C349" t="s">
         <v>1715</v>
@@ -12858,7 +12858,7 @@
         <v>800</v>
       </c>
       <c r="B350" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C350" t="s">
         <v>801</v>
@@ -12880,7 +12880,7 @@
         <v>803</v>
       </c>
       <c r="B351" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C351" t="s">
         <v>804</v>
@@ -12909,7 +12909,7 @@
         <v>806</v>
       </c>
       <c r="B353" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C353" t="s">
         <v>1716</v>
@@ -12931,7 +12931,7 @@
         <v>809</v>
       </c>
       <c r="B354" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C354" t="s">
         <v>1717</v>
@@ -12953,7 +12953,7 @@
         <v>812</v>
       </c>
       <c r="B355" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C355" t="s">
         <v>1718</v>
@@ -12970,7 +12970,7 @@
         <v>814</v>
       </c>
       <c r="B356" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C356" t="s">
         <v>1719</v>
@@ -12992,7 +12992,7 @@
         <v>817</v>
       </c>
       <c r="B357" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C357" t="s">
         <v>1720</v>
@@ -13009,7 +13009,7 @@
         <v>819</v>
       </c>
       <c r="B358" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C358" t="s">
         <v>820</v>
@@ -13038,7 +13038,7 @@
         <v>822</v>
       </c>
       <c r="B360" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C360" t="s">
         <v>823</v>
@@ -13067,7 +13067,7 @@
         <v>825</v>
       </c>
       <c r="B362" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C362" t="s">
         <v>826</v>
@@ -13084,7 +13084,7 @@
         <v>827</v>
       </c>
       <c r="B363" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C363" t="s">
         <v>1721</v>
@@ -13101,7 +13101,7 @@
         <v>829</v>
       </c>
       <c r="B364" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C364" t="s">
         <v>1722</v>
@@ -13135,7 +13135,7 @@
         <v>833</v>
       </c>
       <c r="B366" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C366" t="s">
         <v>1723</v>
@@ -13152,7 +13152,7 @@
         <v>835</v>
       </c>
       <c r="B367" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C367" t="s">
         <v>1724</v>
@@ -13174,7 +13174,7 @@
         <v>838</v>
       </c>
       <c r="B368" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C368" t="s">
         <v>1725</v>
@@ -13196,7 +13196,7 @@
         <v>841</v>
       </c>
       <c r="B369" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C369" t="s">
         <v>1726</v>
@@ -13213,7 +13213,7 @@
         <v>843</v>
       </c>
       <c r="B370" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C370" t="s">
         <v>1727</v>
@@ -13235,7 +13235,7 @@
         <v>846</v>
       </c>
       <c r="B371" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C371" t="s">
         <v>1728</v>
@@ -13252,7 +13252,7 @@
         <v>848</v>
       </c>
       <c r="B372" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C372" t="s">
         <v>849</v>
@@ -13286,7 +13286,7 @@
         <v>852</v>
       </c>
       <c r="B374" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C374" t="s">
         <v>1729</v>
@@ -13303,7 +13303,7 @@
         <v>854</v>
       </c>
       <c r="B375" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C375" t="s">
         <v>1730</v>
@@ -13325,7 +13325,7 @@
         <v>857</v>
       </c>
       <c r="B376" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C376" t="s">
         <v>858</v>
@@ -13354,7 +13354,7 @@
         <v>860</v>
       </c>
       <c r="B378" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C378" t="s">
         <v>1731</v>
@@ -13371,7 +13371,7 @@
         <v>862</v>
       </c>
       <c r="B379" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C379" t="s">
         <v>1732</v>
@@ -13393,7 +13393,7 @@
         <v>865</v>
       </c>
       <c r="B380" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C380" t="s">
         <v>1733</v>
@@ -13410,7 +13410,7 @@
         <v>867</v>
       </c>
       <c r="B381" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C381" t="s">
         <v>1734</v>
@@ -13432,7 +13432,7 @@
         <v>870</v>
       </c>
       <c r="B382" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C382" t="s">
         <v>1735</v>
@@ -13454,7 +13454,7 @@
         <v>873</v>
       </c>
       <c r="B383" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C383" t="s">
         <v>1736</v>
@@ -13488,7 +13488,7 @@
         <v>877</v>
       </c>
       <c r="B385" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C385" t="s">
         <v>1737</v>
@@ -13505,7 +13505,7 @@
         <v>879</v>
       </c>
       <c r="B386" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C386" t="s">
         <v>1738</v>
@@ -13522,7 +13522,7 @@
         <v>881</v>
       </c>
       <c r="B387" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C387" t="s">
         <v>1739</v>
@@ -13544,7 +13544,7 @@
         <v>884</v>
       </c>
       <c r="B388" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C388" t="s">
         <v>885</v>
@@ -13561,7 +13561,7 @@
         <v>886</v>
       </c>
       <c r="B389" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C389" t="s">
         <v>1740</v>
@@ -13578,7 +13578,7 @@
         <v>888</v>
       </c>
       <c r="B390" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C390" t="s">
         <v>1741</v>
@@ -13595,7 +13595,7 @@
         <v>890</v>
       </c>
       <c r="B391" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C391" t="s">
         <v>1742</v>
@@ -13617,7 +13617,7 @@
         <v>893</v>
       </c>
       <c r="B392" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C392" t="s">
         <v>1743</v>
@@ -13639,7 +13639,7 @@
         <v>896</v>
       </c>
       <c r="B393" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C393" t="s">
         <v>1744</v>
@@ -13656,7 +13656,7 @@
         <v>898</v>
       </c>
       <c r="B394" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C394" t="s">
         <v>1745</v>
@@ -13673,7 +13673,7 @@
         <v>900</v>
       </c>
       <c r="B395" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C395" t="s">
         <v>1746</v>
@@ -13695,7 +13695,7 @@
         <v>903</v>
       </c>
       <c r="B396" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C396" t="s">
         <v>1747</v>
@@ -13717,7 +13717,7 @@
         <v>906</v>
       </c>
       <c r="B397" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C397" t="s">
         <v>1748</v>
@@ -13734,7 +13734,7 @@
         <v>908</v>
       </c>
       <c r="B398" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C398" t="s">
         <v>1749</v>
@@ -13768,7 +13768,7 @@
         <v>912</v>
       </c>
       <c r="B400" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C400" t="s">
         <v>1750</v>
@@ -13790,7 +13790,7 @@
         <v>915</v>
       </c>
       <c r="B401" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C401" t="s">
         <v>1751</v>
@@ -13807,7 +13807,7 @@
         <v>917</v>
       </c>
       <c r="B402" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C402" t="s">
         <v>1752</v>
@@ -13841,7 +13841,7 @@
         <v>921</v>
       </c>
       <c r="B404" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C404" t="s">
         <v>1753</v>
@@ -13858,7 +13858,7 @@
         <v>923</v>
       </c>
       <c r="B405" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C405" t="s">
         <v>1754</v>
@@ -13878,7 +13878,7 @@
         <v>925</v>
       </c>
       <c r="B406" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C406" t="s">
         <v>1755</v>
@@ -13900,7 +13900,7 @@
         <v>928</v>
       </c>
       <c r="B407" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C407" t="s">
         <v>1756</v>
@@ -13917,7 +13917,7 @@
         <v>930</v>
       </c>
       <c r="B408" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C408" t="s">
         <v>1757</v>
@@ -13939,7 +13939,7 @@
         <v>933</v>
       </c>
       <c r="B409" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C409" t="s">
         <v>934</v>
@@ -13968,7 +13968,7 @@
         <v>936</v>
       </c>
       <c r="B411" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C411" t="s">
         <v>1758</v>
@@ -14014,7 +14014,7 @@
         <v>941</v>
       </c>
       <c r="B414" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C414" t="s">
         <v>1759</v>
@@ -14036,7 +14036,7 @@
         <v>944</v>
       </c>
       <c r="B415" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C415" t="s">
         <v>1760</v>
@@ -14053,7 +14053,7 @@
         <v>946</v>
       </c>
       <c r="B416" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C416" t="s">
         <v>947</v>
@@ -14070,7 +14070,7 @@
         <v>948</v>
       </c>
       <c r="B417" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C417" t="s">
         <v>1761</v>
@@ -14087,7 +14087,7 @@
         <v>950</v>
       </c>
       <c r="B418" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C418" t="s">
         <v>1762</v>
@@ -14121,7 +14121,7 @@
         <v>954</v>
       </c>
       <c r="B420" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C420" t="s">
         <v>1763</v>
@@ -14138,7 +14138,7 @@
         <v>956</v>
       </c>
       <c r="B421" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C421" t="s">
         <v>1764</v>
@@ -14160,7 +14160,7 @@
         <v>959</v>
       </c>
       <c r="B422" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C422" t="s">
         <v>1765</v>
@@ -14182,7 +14182,7 @@
         <v>962</v>
       </c>
       <c r="B423" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C423" t="s">
         <v>963</v>
@@ -14211,7 +14211,7 @@
         <v>965</v>
       </c>
       <c r="B425" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C425" t="s">
         <v>1766</v>
@@ -14228,7 +14228,7 @@
         <v>967</v>
       </c>
       <c r="B426" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C426" t="s">
         <v>1767</v>
@@ -14245,7 +14245,7 @@
         <v>969</v>
       </c>
       <c r="B427" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C427" t="s">
         <v>1768</v>
@@ -14262,7 +14262,7 @@
         <v>971</v>
       </c>
       <c r="B428" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C428" t="s">
         <v>1769</v>
@@ -14279,7 +14279,7 @@
         <v>973</v>
       </c>
       <c r="B429" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C429" t="s">
         <v>1770</v>
@@ -14301,7 +14301,7 @@
         <v>976</v>
       </c>
       <c r="B430" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C430" t="s">
         <v>977</v>
@@ -14318,7 +14318,7 @@
         <v>978</v>
       </c>
       <c r="B431" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C431" t="s">
         <v>1771</v>
@@ -14340,7 +14340,7 @@
         <v>981</v>
       </c>
       <c r="B432" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C432" t="s">
         <v>1772</v>
@@ -14357,7 +14357,7 @@
         <v>983</v>
       </c>
       <c r="B433" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C433" t="s">
         <v>1773</v>
@@ -14379,7 +14379,7 @@
         <v>986</v>
       </c>
       <c r="B434" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C434" t="s">
         <v>1774</v>
@@ -14401,7 +14401,7 @@
         <v>989</v>
       </c>
       <c r="B435" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C435" t="s">
         <v>990</v>
@@ -14418,7 +14418,7 @@
         <v>991</v>
       </c>
       <c r="B436" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C436" t="s">
         <v>1775</v>
@@ -14440,7 +14440,7 @@
         <v>994</v>
       </c>
       <c r="B437" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C437" t="s">
         <v>1776</v>
@@ -14457,7 +14457,7 @@
         <v>996</v>
       </c>
       <c r="B438" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C438" t="s">
         <v>1777</v>
@@ -14479,7 +14479,7 @@
         <v>999</v>
       </c>
       <c r="B439" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C439" t="s">
         <v>1778</v>
@@ -14496,7 +14496,7 @@
         <v>1001</v>
       </c>
       <c r="B440" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C440" t="s">
         <v>1779</v>
@@ -14518,7 +14518,7 @@
         <v>1004</v>
       </c>
       <c r="B441" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C441" t="s">
         <v>1780</v>
@@ -14535,7 +14535,7 @@
         <v>1006</v>
       </c>
       <c r="B442" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C442" t="s">
         <v>1781</v>
@@ -14557,7 +14557,7 @@
         <v>1009</v>
       </c>
       <c r="B443" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C443" t="s">
         <v>1782</v>
@@ -14591,7 +14591,7 @@
         <v>1013</v>
       </c>
       <c r="B445" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C445" t="s">
         <v>1014</v>
@@ -14608,7 +14608,7 @@
         <v>1015</v>
       </c>
       <c r="B446" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C446" t="s">
         <v>1016</v>
@@ -14625,7 +14625,7 @@
         <v>1017</v>
       </c>
       <c r="B447" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C447" t="s">
         <v>1783</v>
@@ -14642,7 +14642,7 @@
         <v>1019</v>
       </c>
       <c r="B448" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C448" t="s">
         <v>1020</v>
@@ -14659,7 +14659,7 @@
         <v>1021</v>
       </c>
       <c r="B449" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C449" t="s">
         <v>1784</v>
@@ -14681,7 +14681,7 @@
         <v>1024</v>
       </c>
       <c r="B450" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C450" t="s">
         <v>1025</v>
@@ -14698,7 +14698,7 @@
         <v>1026</v>
       </c>
       <c r="B451" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C451" t="s">
         <v>1027</v>
@@ -14715,7 +14715,7 @@
         <v>1028</v>
       </c>
       <c r="B452" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C452" t="s">
         <v>1029</v>
@@ -14732,7 +14732,7 @@
         <v>1030</v>
       </c>
       <c r="B453" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C453" t="s">
         <v>1785</v>
@@ -14754,7 +14754,7 @@
         <v>1033</v>
       </c>
       <c r="B454" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C454" t="s">
         <v>1786</v>
@@ -14776,7 +14776,7 @@
         <v>1036</v>
       </c>
       <c r="B455" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C455" t="s">
         <v>1037</v>
@@ -14798,7 +14798,7 @@
         <v>1039</v>
       </c>
       <c r="B456" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C456" t="s">
         <v>1040</v>
@@ -14820,7 +14820,7 @@
         <v>1042</v>
       </c>
       <c r="B457" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C457" t="s">
         <v>1787</v>
@@ -14849,7 +14849,7 @@
         <v>1045</v>
       </c>
       <c r="B459" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C459" t="s">
         <v>1046</v>
@@ -14878,7 +14878,7 @@
         <v>1048</v>
       </c>
       <c r="B461" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C461" t="s">
         <v>1788</v>
@@ -14900,7 +14900,7 @@
         <v>1051</v>
       </c>
       <c r="B462" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C462" t="s">
         <v>1789</v>
@@ -14917,7 +14917,7 @@
         <v>1053</v>
       </c>
       <c r="B463" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C463" t="s">
         <v>1790</v>
@@ -14951,7 +14951,7 @@
         <v>1057</v>
       </c>
       <c r="B465" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C465" t="s">
         <v>1791</v>
@@ -14973,7 +14973,7 @@
         <v>1060</v>
       </c>
       <c r="B466" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C466" t="s">
         <v>1061</v>
@@ -14990,7 +14990,7 @@
         <v>1062</v>
       </c>
       <c r="B467" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C467" t="s">
         <v>1792</v>
@@ -15007,7 +15007,7 @@
         <v>1064</v>
       </c>
       <c r="B468" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C468" t="s">
         <v>1065</v>
@@ -15024,7 +15024,7 @@
         <v>1066</v>
       </c>
       <c r="B469" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C469" t="s">
         <v>1793</v>
@@ -15041,7 +15041,7 @@
         <v>1068</v>
       </c>
       <c r="B470" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C470" t="s">
         <v>1794</v>
@@ -15058,7 +15058,7 @@
         <v>1070</v>
       </c>
       <c r="B471" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C471" t="s">
         <v>1795</v>
@@ -15075,7 +15075,7 @@
         <v>1072</v>
       </c>
       <c r="B472" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C472" t="s">
         <v>1073</v>
@@ -15109,7 +15109,7 @@
         <v>1076</v>
       </c>
       <c r="B474" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C474" t="s">
         <v>1077</v>
@@ -15126,7 +15126,7 @@
         <v>1078</v>
       </c>
       <c r="B475" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C475" t="s">
         <v>1796</v>
@@ -15148,7 +15148,7 @@
         <v>1081</v>
       </c>
       <c r="B476" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C476" t="s">
         <v>1082</v>
@@ -15165,7 +15165,7 @@
         <v>1083</v>
       </c>
       <c r="B477" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C477" t="s">
         <v>1797</v>
@@ -15187,7 +15187,7 @@
         <v>1086</v>
       </c>
       <c r="B478" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C478" t="s">
         <v>1798</v>
@@ -15216,7 +15216,7 @@
         <v>1089</v>
       </c>
       <c r="B480" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C480" t="s">
         <v>1799</v>
@@ -15233,7 +15233,7 @@
         <v>1091</v>
       </c>
       <c r="B481" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C481" t="s">
         <v>1092</v>
@@ -15250,7 +15250,7 @@
         <v>1093</v>
       </c>
       <c r="B482" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C482" t="s">
         <v>1094</v>
@@ -15284,7 +15284,7 @@
         <v>1097</v>
       </c>
       <c r="B484" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C484" t="s">
         <v>1800</v>
@@ -15306,7 +15306,7 @@
         <v>1100</v>
       </c>
       <c r="B485" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C485" t="s">
         <v>1801</v>
@@ -15323,7 +15323,7 @@
         <v>1102</v>
       </c>
       <c r="B486" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C486" t="s">
         <v>1802</v>
@@ -15340,7 +15340,7 @@
         <v>1104</v>
       </c>
       <c r="B487" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C487" t="s">
         <v>1803</v>
@@ -15357,7 +15357,7 @@
         <v>1106</v>
       </c>
       <c r="B488" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C488" t="s">
         <v>1804</v>
@@ -15374,7 +15374,7 @@
         <v>1108</v>
       </c>
       <c r="B489" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C489" t="s">
         <v>1805</v>
@@ -15396,7 +15396,7 @@
         <v>1111</v>
       </c>
       <c r="B490" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C490" t="s">
         <v>1806</v>
@@ -15413,7 +15413,7 @@
         <v>1113</v>
       </c>
       <c r="B491" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C491" t="s">
         <v>1807</v>
@@ -15430,7 +15430,7 @@
         <v>1115</v>
       </c>
       <c r="B492" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C492" t="s">
         <v>1808</v>
@@ -15447,7 +15447,7 @@
         <v>1117</v>
       </c>
       <c r="B493" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C493" t="s">
         <v>1809</v>
@@ -15464,7 +15464,7 @@
         <v>1119</v>
       </c>
       <c r="B494" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C494" t="s">
         <v>1810</v>
@@ -15486,7 +15486,7 @@
         <v>1122</v>
       </c>
       <c r="B495" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C495" t="s">
         <v>1811</v>
@@ -15508,7 +15508,7 @@
         <v>1125</v>
       </c>
       <c r="B496" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C496" t="s">
         <v>1812</v>
@@ -15525,7 +15525,7 @@
         <v>1127</v>
       </c>
       <c r="B497" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C497" t="s">
         <v>1813</v>
@@ -15542,7 +15542,7 @@
         <v>1129</v>
       </c>
       <c r="B498" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C498" t="s">
         <v>1130</v>
@@ -15564,7 +15564,7 @@
         <v>1132</v>
       </c>
       <c r="B499" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C499" t="s">
         <v>1814</v>
@@ -15581,7 +15581,7 @@
         <v>1134</v>
       </c>
       <c r="B500" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C500" t="s">
         <v>1815</v>
@@ -15598,7 +15598,7 @@
         <v>1136</v>
       </c>
       <c r="B501" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C501" t="s">
         <v>1137</v>
@@ -15620,7 +15620,7 @@
         <v>1139</v>
       </c>
       <c r="B502" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C502" t="s">
         <v>1816</v>
@@ -15642,7 +15642,7 @@
         <v>1142</v>
       </c>
       <c r="B503" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C503" t="s">
         <v>947</v>
@@ -15659,7 +15659,7 @@
         <v>1143</v>
       </c>
       <c r="B504" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C504" t="s">
         <v>1817</v>
@@ -15676,7 +15676,7 @@
         <v>1145</v>
       </c>
       <c r="B505" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C505" t="s">
         <v>1146</v>
@@ -15693,7 +15693,7 @@
         <v>1147</v>
       </c>
       <c r="B506" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C506" t="s">
         <v>1148</v>
@@ -15739,7 +15739,7 @@
         <v>1152</v>
       </c>
       <c r="B509" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C509" t="s">
         <v>1153</v>
@@ -15756,7 +15756,7 @@
         <v>1154</v>
       </c>
       <c r="B510" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C510" t="s">
         <v>1818</v>
@@ -15778,7 +15778,7 @@
         <v>1157</v>
       </c>
       <c r="B511" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C511" t="s">
         <v>1819</v>
@@ -15795,7 +15795,7 @@
         <v>1159</v>
       </c>
       <c r="B512" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C512" t="s">
         <v>1820</v>
@@ -15817,7 +15817,7 @@
         <v>1162</v>
       </c>
       <c r="B513" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C513" t="s">
         <v>1163</v>
@@ -15834,7 +15834,7 @@
         <v>1164</v>
       </c>
       <c r="B514" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C514" t="s">
         <v>1821</v>
@@ -15856,7 +15856,7 @@
         <v>1167</v>
       </c>
       <c r="B515" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C515" t="s">
         <v>1822</v>
@@ -15873,7 +15873,7 @@
         <v>1169</v>
       </c>
       <c r="B516" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C516" t="s">
         <v>1823</v>
@@ -15890,7 +15890,7 @@
         <v>1171</v>
       </c>
       <c r="B517" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C517" t="s">
         <v>1172</v>
@@ -15912,7 +15912,7 @@
         <v>1174</v>
       </c>
       <c r="B518" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C518" t="s">
         <v>1824</v>
@@ -15934,7 +15934,7 @@
         <v>1177</v>
       </c>
       <c r="B519" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C519" t="s">
         <v>1825</v>
@@ -15951,7 +15951,7 @@
         <v>1179</v>
       </c>
       <c r="B520" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C520" t="s">
         <v>1826</v>
@@ -15973,7 +15973,7 @@
         <v>1182</v>
       </c>
       <c r="B521" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C521" t="s">
         <v>1183</v>
@@ -15990,7 +15990,7 @@
         <v>1184</v>
       </c>
       <c r="B522" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C522" t="s">
         <v>1827</v>
@@ -16012,7 +16012,7 @@
         <v>1187</v>
       </c>
       <c r="B523" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C523" t="s">
         <v>1188</v>
@@ -16034,7 +16034,7 @@
         <v>1190</v>
       </c>
       <c r="B524" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C524" t="s">
         <v>1191</v>
@@ -16051,7 +16051,7 @@
         <v>1192</v>
       </c>
       <c r="B525" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C525" t="s">
         <v>1193</v>
@@ -16068,7 +16068,7 @@
         <v>1194</v>
       </c>
       <c r="B526" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C526" t="s">
         <v>1195</v>
@@ -16085,7 +16085,7 @@
         <v>1196</v>
       </c>
       <c r="B527" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C527" t="s">
         <v>1828</v>
@@ -16102,7 +16102,7 @@
         <v>1198</v>
       </c>
       <c r="B528" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C528" t="s">
         <v>1829</v>
@@ -16124,7 +16124,7 @@
         <v>1201</v>
       </c>
       <c r="B529" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C529" t="s">
         <v>1830</v>
@@ -16141,7 +16141,7 @@
         <v>1203</v>
       </c>
       <c r="B530" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C530" t="s">
         <v>1204</v>
@@ -16163,7 +16163,7 @@
         <v>1206</v>
       </c>
       <c r="B531" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C531" t="s">
         <v>1207</v>
@@ -16180,7 +16180,7 @@
         <v>1208</v>
       </c>
       <c r="B532" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C532" t="s">
         <v>1209</v>
@@ -16197,7 +16197,7 @@
         <v>1210</v>
       </c>
       <c r="B533" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C533" t="s">
         <v>1211</v>
@@ -16219,7 +16219,7 @@
         <v>1213</v>
       </c>
       <c r="B534" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C534" t="s">
         <v>1214</v>
@@ -16236,7 +16236,7 @@
         <v>1215</v>
       </c>
       <c r="B535" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C535" t="s">
         <v>1831</v>
@@ -16253,7 +16253,7 @@
         <v>1217</v>
       </c>
       <c r="B536" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C536" t="s">
         <v>1832</v>
@@ -16275,7 +16275,7 @@
         <v>1220</v>
       </c>
       <c r="B537" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C537" t="s">
         <v>1833</v>
@@ -16292,7 +16292,7 @@
         <v>1222</v>
       </c>
       <c r="B538" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C538" t="s">
         <v>1834</v>
@@ -16328,7 +16328,7 @@
         <v>1226</v>
       </c>
       <c r="B540" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C540" t="s">
         <v>1835</v>
@@ -16350,7 +16350,7 @@
         <v>1229</v>
       </c>
       <c r="B541" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C541" t="s">
         <v>1836</v>
@@ -16372,7 +16372,7 @@
         <v>1232</v>
       </c>
       <c r="B542" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C542" t="s">
         <v>1837</v>
@@ -16389,7 +16389,7 @@
         <v>1234</v>
       </c>
       <c r="B543" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C543" t="s">
         <v>1235</v>
@@ -16406,7 +16406,7 @@
         <v>1236</v>
       </c>
       <c r="B544" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C544" t="s">
         <v>1838</v>
@@ -16428,7 +16428,7 @@
         <v>1239</v>
       </c>
       <c r="B545" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C545" t="s">
         <v>1839</v>
@@ -16445,7 +16445,7 @@
         <v>1241</v>
       </c>
       <c r="B546" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C546" t="s">
         <v>1840</v>
@@ -16462,7 +16462,7 @@
         <v>1243</v>
       </c>
       <c r="B547" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C547" t="s">
         <v>1841</v>
@@ -16491,7 +16491,7 @@
         <v>1246</v>
       </c>
       <c r="B549" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C549" t="s">
         <v>1842</v>
@@ -16525,7 +16525,7 @@
         <v>1250</v>
       </c>
       <c r="B551" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C551" t="s">
         <v>1251</v>
@@ -16542,7 +16542,7 @@
         <v>1252</v>
       </c>
       <c r="B552" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C552" t="s">
         <v>1843</v>
@@ -16564,7 +16564,7 @@
         <v>1255</v>
       </c>
       <c r="B553" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C553" t="s">
         <v>1256</v>
@@ -16581,7 +16581,7 @@
         <v>1257</v>
       </c>
       <c r="B554" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C554" t="s">
         <v>1844</v>
@@ -16598,7 +16598,7 @@
         <v>1259</v>
       </c>
       <c r="B555" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C555" t="s">
         <v>1260</v>
@@ -16620,7 +16620,7 @@
         <v>1262</v>
       </c>
       <c r="B556" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C556" t="s">
         <v>1845</v>
@@ -16649,7 +16649,7 @@
         <v>1265</v>
       </c>
       <c r="B558" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C558" t="s">
         <v>1846</v>
@@ -16666,7 +16666,7 @@
         <v>1267</v>
       </c>
       <c r="B559" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C559" t="s">
         <v>1847</v>
@@ -16683,7 +16683,7 @@
         <v>1269</v>
       </c>
       <c r="B560" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C560" t="s">
         <v>1848</v>
@@ -16700,7 +16700,7 @@
         <v>1271</v>
       </c>
       <c r="B561" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C561" t="s">
         <v>1849</v>
@@ -16717,7 +16717,7 @@
         <v>1273</v>
       </c>
       <c r="B562" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C562" t="s">
         <v>1850</v>
@@ -16739,7 +16739,7 @@
         <v>1276</v>
       </c>
       <c r="B563" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C563" t="s">
         <v>1851</v>
@@ -16761,7 +16761,7 @@
         <v>1279</v>
       </c>
       <c r="B564" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C564" t="s">
         <v>1852</v>
@@ -16778,7 +16778,7 @@
         <v>1281</v>
       </c>
       <c r="B565" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C565" t="s">
         <v>1853</v>
@@ -16795,7 +16795,7 @@
         <v>1283</v>
       </c>
       <c r="B566" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C566" t="s">
         <v>1854</v>
@@ -16812,7 +16812,7 @@
         <v>1285</v>
       </c>
       <c r="B567" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C567" t="s">
         <v>1855</v>
@@ -16834,7 +16834,7 @@
         <v>1288</v>
       </c>
       <c r="B568" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C568" t="s">
         <v>1856</v>
@@ -16851,7 +16851,7 @@
         <v>1290</v>
       </c>
       <c r="B569" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C569" t="s">
         <v>1857</v>
@@ -16873,7 +16873,7 @@
         <v>1293</v>
       </c>
       <c r="B570" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C570" t="s">
         <v>1858</v>
@@ -16907,7 +16907,7 @@
         <v>1297</v>
       </c>
       <c r="B572" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C572" t="s">
         <v>1859</v>
@@ -16929,7 +16929,7 @@
         <v>1300</v>
       </c>
       <c r="B573" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C573" t="s">
         <v>1301</v>
@@ -16946,7 +16946,7 @@
         <v>1302</v>
       </c>
       <c r="B574" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C574" t="s">
         <v>1303</v>
@@ -16963,7 +16963,7 @@
         <v>1304</v>
       </c>
       <c r="B575" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C575" t="s">
         <v>1860</v>
@@ -16997,7 +16997,7 @@
         <v>1308</v>
       </c>
       <c r="B577" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C577" t="s">
         <v>1861</v>
@@ -17038,7 +17038,7 @@
         <v>1312</v>
       </c>
       <c r="B580" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C580" t="s">
         <v>1862</v>
@@ -17060,7 +17060,7 @@
         <v>1315</v>
       </c>
       <c r="B581" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C581" t="s">
         <v>1863</v>
@@ -17089,7 +17089,7 @@
         <v>1318</v>
       </c>
       <c r="B583" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C583" t="s">
         <v>1319</v>
@@ -17106,7 +17106,7 @@
         <v>1320</v>
       </c>
       <c r="B584" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C584" t="s">
         <v>1864</v>
@@ -17128,7 +17128,7 @@
         <v>1323</v>
       </c>
       <c r="B585" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C585" t="s">
         <v>1324</v>
@@ -17150,7 +17150,7 @@
         <v>1326</v>
       </c>
       <c r="B586" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C586" t="s">
         <v>1865</v>
@@ -17169,7 +17169,7 @@
         <v>1329</v>
       </c>
       <c r="B587" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C587" t="s">
         <v>1330</v>
@@ -17200,7 +17200,7 @@
         <v>1333</v>
       </c>
       <c r="B589" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C589" t="s">
         <v>1866</v>
@@ -17222,7 +17222,7 @@
         <v>1336</v>
       </c>
       <c r="B590" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C590" t="s">
         <v>1867</v>
@@ -17239,7 +17239,7 @@
         <v>1338</v>
       </c>
       <c r="B591" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C591" t="s">
         <v>1868</v>
@@ -17256,7 +17256,7 @@
         <v>1340</v>
       </c>
       <c r="B592" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C592" t="s">
         <v>1869</v>
@@ -17273,7 +17273,7 @@
         <v>1342</v>
       </c>
       <c r="B593" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C593" t="s">
         <v>1870</v>
@@ -17290,7 +17290,7 @@
         <v>1344</v>
       </c>
       <c r="B594" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C594" t="s">
         <v>1871</v>
@@ -17312,7 +17312,7 @@
         <v>1347</v>
       </c>
       <c r="B595" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C595" t="s">
         <v>1872</v>
@@ -17329,7 +17329,7 @@
         <v>1349</v>
       </c>
       <c r="B596" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C596" t="s">
         <v>1873</v>
@@ -17363,7 +17363,7 @@
         <v>1353</v>
       </c>
       <c r="B598" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C598" t="s">
         <v>1874</v>
@@ -17380,7 +17380,7 @@
         <v>1355</v>
       </c>
       <c r="B599" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C599" t="s">
         <v>1875</v>
@@ -17402,7 +17402,7 @@
         <v>1358</v>
       </c>
       <c r="B600" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C600" t="s">
         <v>1876</v>
@@ -17431,7 +17431,7 @@
         <v>1361</v>
       </c>
       <c r="B602" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C602" t="s">
         <v>1877</v>
@@ -17448,7 +17448,7 @@
         <v>1363</v>
       </c>
       <c r="B603" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C603" t="s">
         <v>1878</v>
@@ -17470,7 +17470,7 @@
         <v>1366</v>
       </c>
       <c r="B604" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C604" t="s">
         <v>1879</v>
@@ -17492,7 +17492,7 @@
         <v>1369</v>
       </c>
       <c r="B605" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C605" t="s">
         <v>1880</v>
@@ -17511,7 +17511,7 @@
         <v>1372</v>
       </c>
       <c r="B606" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C606" t="s">
         <v>1881</v>
@@ -17528,7 +17528,7 @@
         <v>1374</v>
       </c>
       <c r="B607" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C607" t="s">
         <v>1882</v>
@@ -17550,7 +17550,7 @@
         <v>1377</v>
       </c>
       <c r="B608" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C608" t="s">
         <v>1883</v>
@@ -17567,7 +17567,7 @@
         <v>1379</v>
       </c>
       <c r="B609" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C609" t="s">
         <v>1884</v>
@@ -17584,7 +17584,7 @@
         <v>1381</v>
       </c>
       <c r="B610" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C610" t="s">
         <v>1885</v>
@@ -17601,7 +17601,7 @@
         <v>1383</v>
       </c>
       <c r="B611" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C611" t="s">
         <v>1886</v>
@@ -17623,7 +17623,7 @@
         <v>1386</v>
       </c>
       <c r="B612" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C612" t="s">
         <v>1887</v>
@@ -17657,7 +17657,7 @@
         <v>1390</v>
       </c>
       <c r="B614" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C614" t="s">
         <v>1888</v>
@@ -17686,7 +17686,7 @@
         <v>1393</v>
       </c>
       <c r="B616" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C616" t="s">
         <v>1889</v>
@@ -17703,7 +17703,7 @@
         <v>1395</v>
       </c>
       <c r="B617" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C617" t="s">
         <v>1890</v>
@@ -17720,7 +17720,7 @@
         <v>1397</v>
       </c>
       <c r="B618" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C618" t="s">
         <v>1891</v>
@@ -17742,7 +17742,7 @@
         <v>1400</v>
       </c>
       <c r="B619" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C619" t="s">
         <v>1401</v>
@@ -17759,7 +17759,7 @@
         <v>1402</v>
       </c>
       <c r="B620" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C620" t="s">
         <v>1403</v>
@@ -17781,7 +17781,7 @@
         <v>1405</v>
       </c>
       <c r="B621" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C621" t="s">
         <v>1892</v>
@@ -17798,7 +17798,7 @@
         <v>1407</v>
       </c>
       <c r="B622" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C622" t="s">
         <v>1893</v>
@@ -17815,7 +17815,7 @@
         <v>1409</v>
       </c>
       <c r="B623" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C623" t="s">
         <v>1894</v>
@@ -17832,7 +17832,7 @@
         <v>1411</v>
       </c>
       <c r="B624" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C624" t="s">
         <v>1895</v>
@@ -17866,7 +17866,7 @@
         <v>1415</v>
       </c>
       <c r="B626" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C626" t="s">
         <v>1896</v>
@@ -17888,7 +17888,7 @@
         <v>1418</v>
       </c>
       <c r="B627" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C627" t="s">
         <v>1897</v>
@@ -17922,7 +17922,7 @@
         <v>1422</v>
       </c>
       <c r="B629" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C629" t="s">
         <v>1898</v>
@@ -17939,7 +17939,7 @@
         <v>1424</v>
       </c>
       <c r="B630" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C630" t="s">
         <v>1899</v>
@@ -17968,7 +17968,7 @@
         <v>1427</v>
       </c>
       <c r="B632" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C632" t="s">
         <v>1900</v>
@@ -17990,7 +17990,7 @@
         <v>1430</v>
       </c>
       <c r="B633" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C633" t="s">
         <v>1901</v>
@@ -18007,7 +18007,7 @@
         <v>1432</v>
       </c>
       <c r="B634" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C634" t="s">
         <v>1902</v>
@@ -18029,7 +18029,7 @@
         <v>1435</v>
       </c>
       <c r="B635" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C635" t="s">
         <v>1903</v>
@@ -18051,7 +18051,7 @@
         <v>1438</v>
       </c>
       <c r="B636" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C636" t="s">
         <v>1904</v>
@@ -18068,7 +18068,7 @@
         <v>1440</v>
       </c>
       <c r="B637" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C637" t="s">
         <v>1441</v>
@@ -18085,7 +18085,7 @@
         <v>1442</v>
       </c>
       <c r="B638" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C638" t="s">
         <v>1443</v>
@@ -18102,7 +18102,7 @@
         <v>1444</v>
       </c>
       <c r="B639" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C639" t="s">
         <v>1445</v>
@@ -18119,7 +18119,7 @@
         <v>1446</v>
       </c>
       <c r="B640" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C640" t="s">
         <v>1905</v>
@@ -18148,7 +18148,7 @@
         <v>1449</v>
       </c>
       <c r="B642" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C642" t="s">
         <v>1450</v>
@@ -18165,7 +18165,7 @@
         <v>1451</v>
       </c>
       <c r="B643" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C643" t="s">
         <v>1906</v>
@@ -18182,7 +18182,7 @@
         <v>1453</v>
       </c>
       <c r="B644" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C644" t="s">
         <v>1907</v>
@@ -18199,7 +18199,7 @@
         <v>1455</v>
       </c>
       <c r="B645" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C645" t="s">
         <v>1908</v>
@@ -18216,7 +18216,7 @@
         <v>1457</v>
       </c>
       <c r="B646" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C646" t="s">
         <v>1909</v>
@@ -18233,7 +18233,7 @@
         <v>1459</v>
       </c>
       <c r="B647" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C647" t="s">
         <v>1910</v>
@@ -18250,7 +18250,7 @@
         <v>1461</v>
       </c>
       <c r="B648" t="s">
-        <v>9</v>
+        <v>1467</v>
       </c>
       <c r="C648" t="s">
         <v>1911</v>

--- a/Original/CN/Game/Backer.xlsx
+++ b/Original/CN/Game/Backer.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3568" uniqueCount="2116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4376" uniqueCount="2116">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -44,7 +44,7 @@
     <t xml:space="preserve">1962</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.252</t>
+    <t xml:space="preserve">EA 23.200</t>
   </si>
   <si>
     <t xml:space="preserve">4982</t>
@@ -4418,7 +4418,7 @@
     <t xml:space="preserve">Beta 22.79</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.222</t>
+    <t xml:space="preserve">EA 23.183</t>
   </si>
   <si>
     <t xml:space="preserve">Alpha 20.64</t>
@@ -4847,7 +4847,7 @@
     <t xml:space="preserve">爱撒娇的胆小鬼「Tekosuke」</t>
   </si>
   <si>
-    <t xml:space="preserve">青色茄子的妖精「青井茄子」</t>
+    <t xml:space="preserve">青色茄子的妖精「青井NASUKO」</t>
   </si>
   <si>
     <t xml:space="preserve">小兔子「RORO」</t>
@@ -5258,7 +5258,7 @@
     <t xml:space="preserve">收集橄榄石的吟游诗人「TUBEROSA」</t>
   </si>
   <si>
-    <t xml:space="preserve">吞噬绚烂之人「JYONN·REONPARUDO」</t>
+    <t xml:space="preserve">吞噬绚烂之人「JYONN・REONPARUDO」</t>
   </si>
   <si>
     <t xml:space="preserve">NATORISAN</t>
@@ -5279,7 +5279,7 @@
     <t xml:space="preserve">破破烂烂的「T2023」</t>
   </si>
   <si>
-    <t xml:space="preserve">怕生的爱猫「KAZUKI」</t>
+    <t xml:space="preserve">没精神的守护者「KAZUKI」</t>
   </si>
   <si>
     <t xml:space="preserve">双叶支配者「Toshinnka」</t>
@@ -5774,7 +5774,7 @@
     <t xml:space="preserve">「隐于浮世庇荫 影中窥见真理 乃恍惚梦景」</t>
   </si>
   <si>
-    <t xml:space="preserve">「下次会做得更好・・・」</t>
+    <t xml:space="preserve">「下次会做得更好…」</t>
   </si>
   <si>
     <t xml:space="preserve">「愿人们结束冒险旅程的最后一步充满幸福」</t>
@@ -5822,7 +5822,7 @@
     <t xml:space="preserve">「希望这盏灯照亮你的旅途」</t>
   </si>
   <si>
-    <t xml:space="preserve">「好想死。好想死。杀了我吧。死了就能异世界转生成美少女然后我TUEEE了・・・」</t>
+    <t xml:space="preserve">「好想死。好想死。杀了我吧。死了就能异世界转生成美少女然后我TUEEE了…」</t>
   </si>
   <si>
     <t xml:space="preserve">「这个世界的艾莱亚耳朵不尖，是靠眼睛和头发的颜色来辨别的…」</t>
@@ -5831,7 +5831,7 @@
     <t xml:space="preserve">「穿刺尸骸映照斜阳之下。再无不明之夜」</t>
   </si>
   <si>
-    <t xml:space="preserve">「看来到此为止了・・・」</t>
+    <t xml:space="preserve">「看来到此为止了･･･」</t>
   </si>
   <si>
     <t xml:space="preserve">「编织幻梦吟唱故事，终于抵达神之梦境」</t>
@@ -5876,7 +5876,7 @@
     <t xml:space="preserve">「生日快乐，许个愿吧！！！」</t>
   </si>
   <si>
-    <t xml:space="preserve">「・・・永恒是存在的」</t>
+    <t xml:space="preserve">「…永恒是存在的」</t>
   </si>
   <si>
     <t xml:space="preserve">「比光都要快！」</t>
@@ -6170,7 +6170,7 @@
     <t xml:space="preserve">「q!」</t>
   </si>
   <si>
-    <t xml:space="preserve">「啊呜呜・・・限定抽卡概率提升角色抽到天井都没到手・・・」</t>
+    <t xml:space="preserve">「啊呜呜・・・限定抽卡概率上升角色抽到天井都没到手・・・」</t>
   </si>
   <si>
     <t xml:space="preserve">「这里就是我旅途的终点，这个世界非常有趣，唯一的遗憾就是…」</t>
@@ -6498,7 +6498,7 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
@@ -6527,7 +6527,7 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
         <v>1472</v>
@@ -6544,7 +6544,7 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
         <v>17</v>
@@ -6585,7 +6585,7 @@
         <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
         <v>1473</v>
@@ -6614,7 +6614,7 @@
         <v>23</v>
       </c>
       <c r="B13" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C13" t="s">
         <v>24</v>
@@ -6643,7 +6643,7 @@
         <v>26</v>
       </c>
       <c r="B15" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
         <v>1474</v>
@@ -6684,7 +6684,7 @@
         <v>30</v>
       </c>
       <c r="B18" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
         <v>1475</v>
@@ -6706,7 +6706,7 @@
         <v>33</v>
       </c>
       <c r="B19" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
         <v>1476</v>
@@ -6723,7 +6723,7 @@
         <v>35</v>
       </c>
       <c r="B20" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
         <v>1477</v>
@@ -6740,7 +6740,7 @@
         <v>37</v>
       </c>
       <c r="B21" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
         <v>1478</v>
@@ -6757,7 +6757,7 @@
         <v>39</v>
       </c>
       <c r="B22" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
         <v>40</v>
@@ -6779,7 +6779,7 @@
         <v>42</v>
       </c>
       <c r="B23" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
         <v>1479</v>
@@ -6796,7 +6796,7 @@
         <v>44</v>
       </c>
       <c r="B24" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
         <v>45</v>
@@ -6830,7 +6830,7 @@
         <v>48</v>
       </c>
       <c r="B26" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
         <v>1480</v>
@@ -6847,7 +6847,7 @@
         <v>50</v>
       </c>
       <c r="B27" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
         <v>1481</v>
@@ -6864,7 +6864,7 @@
         <v>52</v>
       </c>
       <c r="B28" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
         <v>1482</v>
@@ -6886,7 +6886,7 @@
         <v>55</v>
       </c>
       <c r="B29" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
         <v>1483</v>
@@ -6920,7 +6920,7 @@
         <v>59</v>
       </c>
       <c r="B31" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
         <v>1484</v>
@@ -6937,7 +6937,7 @@
         <v>61</v>
       </c>
       <c r="B32" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
         <v>1485</v>
@@ -6954,7 +6954,7 @@
         <v>63</v>
       </c>
       <c r="B33" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
         <v>1486</v>
@@ -6976,7 +6976,7 @@
         <v>66</v>
       </c>
       <c r="B34" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
         <v>1487</v>
@@ -6993,7 +6993,7 @@
         <v>68</v>
       </c>
       <c r="B35" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
         <v>1488</v>
@@ -7010,7 +7010,7 @@
         <v>70</v>
       </c>
       <c r="B36" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
         <v>1489</v>
@@ -7027,7 +7027,7 @@
         <v>72</v>
       </c>
       <c r="B37" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
         <v>73</v>
@@ -7044,7 +7044,7 @@
         <v>74</v>
       </c>
       <c r="B38" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
         <v>75</v>
@@ -7061,7 +7061,7 @@
         <v>76</v>
       </c>
       <c r="B39" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
         <v>1490</v>
@@ -7078,7 +7078,7 @@
         <v>78</v>
       </c>
       <c r="B40" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
         <v>1491</v>
@@ -7100,7 +7100,7 @@
         <v>81</v>
       </c>
       <c r="B41" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
         <v>82</v>
@@ -7122,7 +7122,7 @@
         <v>84</v>
       </c>
       <c r="B42" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
         <v>1492</v>
@@ -7139,7 +7139,7 @@
         <v>86</v>
       </c>
       <c r="B43" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
         <v>1493</v>
@@ -7156,7 +7156,7 @@
         <v>88</v>
       </c>
       <c r="B44" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
         <v>1494</v>
@@ -7190,7 +7190,7 @@
         <v>92</v>
       </c>
       <c r="B46" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
         <v>1495</v>
@@ -7212,7 +7212,7 @@
         <v>95</v>
       </c>
       <c r="B47" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
         <v>1496</v>
@@ -7229,7 +7229,7 @@
         <v>97</v>
       </c>
       <c r="B48" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
         <v>1497</v>
@@ -7246,7 +7246,7 @@
         <v>99</v>
       </c>
       <c r="B49" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
         <v>1498</v>
@@ -7263,7 +7263,7 @@
         <v>101</v>
       </c>
       <c r="B50" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
         <v>102</v>
@@ -7285,7 +7285,7 @@
         <v>104</v>
       </c>
       <c r="B51" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
         <v>1499</v>
@@ -7302,7 +7302,7 @@
         <v>106</v>
       </c>
       <c r="B52" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
         <v>1500</v>
@@ -7319,7 +7319,7 @@
         <v>108</v>
       </c>
       <c r="B53" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
         <v>1501</v>
@@ -7341,7 +7341,7 @@
         <v>111</v>
       </c>
       <c r="B54" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
         <v>1502</v>
@@ -7363,7 +7363,7 @@
         <v>114</v>
       </c>
       <c r="B55" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
         <v>115</v>
@@ -7380,7 +7380,7 @@
         <v>116</v>
       </c>
       <c r="B56" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
         <v>1503</v>
@@ -7402,7 +7402,7 @@
         <v>119</v>
       </c>
       <c r="B57" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
         <v>120</v>
@@ -7419,7 +7419,7 @@
         <v>121</v>
       </c>
       <c r="B58" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
         <v>1504</v>
@@ -7436,7 +7436,7 @@
         <v>123</v>
       </c>
       <c r="B59" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
         <v>1505</v>
@@ -7453,7 +7453,7 @@
         <v>125</v>
       </c>
       <c r="B60" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
         <v>1506</v>
@@ -7475,7 +7475,7 @@
         <v>128</v>
       </c>
       <c r="B61" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
         <v>1507</v>
@@ -7492,7 +7492,7 @@
         <v>130</v>
       </c>
       <c r="B62" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
         <v>1508</v>
@@ -7514,7 +7514,7 @@
         <v>133</v>
       </c>
       <c r="B63" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
         <v>1509</v>
@@ -7536,7 +7536,7 @@
         <v>136</v>
       </c>
       <c r="B64" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
         <v>137</v>
@@ -7553,7 +7553,7 @@
         <v>138</v>
       </c>
       <c r="B65" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
         <v>1510</v>
@@ -7575,7 +7575,7 @@
         <v>141</v>
       </c>
       <c r="B66" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s">
         <v>1511</v>
@@ -7597,7 +7597,7 @@
         <v>144</v>
       </c>
       <c r="B67" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C67" t="s">
         <v>1512</v>
@@ -7619,7 +7619,7 @@
         <v>147</v>
       </c>
       <c r="B68" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C68" t="s">
         <v>1513</v>
@@ -7636,7 +7636,7 @@
         <v>149</v>
       </c>
       <c r="B69" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C69" t="s">
         <v>1514</v>
@@ -7658,7 +7658,7 @@
         <v>152</v>
       </c>
       <c r="B70" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C70" t="s">
         <v>1515</v>
@@ -7675,7 +7675,7 @@
         <v>154</v>
       </c>
       <c r="B71" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C71" t="s">
         <v>155</v>
@@ -7704,7 +7704,7 @@
         <v>157</v>
       </c>
       <c r="B73" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C73" t="s">
         <v>1516</v>
@@ -7726,7 +7726,7 @@
         <v>160</v>
       </c>
       <c r="B74" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C74" t="s">
         <v>1517</v>
@@ -7748,7 +7748,7 @@
         <v>163</v>
       </c>
       <c r="B75" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C75" t="s">
         <v>1518</v>
@@ -7765,7 +7765,7 @@
         <v>165</v>
       </c>
       <c r="B76" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C76" t="s">
         <v>1519</v>
@@ -7787,7 +7787,7 @@
         <v>168</v>
       </c>
       <c r="B77" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C77" t="s">
         <v>1520</v>
@@ -7804,7 +7804,7 @@
         <v>170</v>
       </c>
       <c r="B78" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C78" t="s">
         <v>171</v>
@@ -7826,7 +7826,7 @@
         <v>173</v>
       </c>
       <c r="B79" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C79" t="s">
         <v>174</v>
@@ -7843,7 +7843,7 @@
         <v>175</v>
       </c>
       <c r="B80" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C80" t="s">
         <v>1521</v>
@@ -7860,7 +7860,7 @@
         <v>177</v>
       </c>
       <c r="B81" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C81" t="s">
         <v>1522</v>
@@ -7882,7 +7882,7 @@
         <v>180</v>
       </c>
       <c r="B82" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C82" t="s">
         <v>1523</v>
@@ -7904,7 +7904,7 @@
         <v>183</v>
       </c>
       <c r="B83" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C83" t="s">
         <v>184</v>
@@ -7926,7 +7926,7 @@
         <v>186</v>
       </c>
       <c r="B84" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C84" t="s">
         <v>187</v>
@@ -7943,7 +7943,7 @@
         <v>188</v>
       </c>
       <c r="B85" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C85" t="s">
         <v>1524</v>
@@ -7965,7 +7965,7 @@
         <v>191</v>
       </c>
       <c r="B86" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C86" t="s">
         <v>1525</v>
@@ -7987,7 +7987,7 @@
         <v>194</v>
       </c>
       <c r="B87" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C87" t="s">
         <v>1526</v>
@@ -8004,7 +8004,7 @@
         <v>196</v>
       </c>
       <c r="B88" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C88" t="s">
         <v>1527</v>
@@ -8021,7 +8021,7 @@
         <v>198</v>
       </c>
       <c r="B89" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C89" t="s">
         <v>1528</v>
@@ -8043,7 +8043,7 @@
         <v>201</v>
       </c>
       <c r="B90" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C90" t="s">
         <v>1529</v>
@@ -8065,7 +8065,7 @@
         <v>204</v>
       </c>
       <c r="B91" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C91" t="s">
         <v>1530</v>
@@ -8099,7 +8099,7 @@
         <v>208</v>
       </c>
       <c r="B93" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C93" t="s">
         <v>1531</v>
@@ -8121,7 +8121,7 @@
         <v>211</v>
       </c>
       <c r="B94" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C94" t="s">
         <v>1532</v>
@@ -8138,7 +8138,7 @@
         <v>213</v>
       </c>
       <c r="B95" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C95" t="s">
         <v>214</v>
@@ -8160,7 +8160,7 @@
         <v>216</v>
       </c>
       <c r="B96" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C96" t="s">
         <v>1533</v>
@@ -8177,7 +8177,7 @@
         <v>218</v>
       </c>
       <c r="B97" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C97" t="s">
         <v>1534</v>
@@ -8194,7 +8194,7 @@
         <v>220</v>
       </c>
       <c r="B98" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C98" t="s">
         <v>1535</v>
@@ -8216,7 +8216,7 @@
         <v>223</v>
       </c>
       <c r="B99" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C99" t="s">
         <v>1536</v>
@@ -8238,7 +8238,7 @@
         <v>226</v>
       </c>
       <c r="B100" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C100" t="s">
         <v>227</v>
@@ -8255,7 +8255,7 @@
         <v>228</v>
       </c>
       <c r="B101" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C101" t="s">
         <v>1537</v>
@@ -8272,7 +8272,7 @@
         <v>230</v>
       </c>
       <c r="B102" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C102" t="s">
         <v>1538</v>
@@ -8289,7 +8289,7 @@
         <v>232</v>
       </c>
       <c r="B103" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C103" t="s">
         <v>1539</v>
@@ -8306,7 +8306,7 @@
         <v>234</v>
       </c>
       <c r="B104" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C104" t="s">
         <v>1540</v>
@@ -8328,7 +8328,7 @@
         <v>237</v>
       </c>
       <c r="B105" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C105" t="s">
         <v>238</v>
@@ -8345,7 +8345,7 @@
         <v>239</v>
       </c>
       <c r="B106" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C106" t="s">
         <v>1541</v>
@@ -8367,7 +8367,7 @@
         <v>242</v>
       </c>
       <c r="B107" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C107" t="s">
         <v>1542</v>
@@ -8384,7 +8384,7 @@
         <v>244</v>
       </c>
       <c r="B108" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C108" t="s">
         <v>1543</v>
@@ -8401,7 +8401,7 @@
         <v>246</v>
       </c>
       <c r="B109" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C109" t="s">
         <v>247</v>
@@ -8418,7 +8418,7 @@
         <v>248</v>
       </c>
       <c r="B110" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C110" t="s">
         <v>1544</v>
@@ -8435,7 +8435,7 @@
         <v>250</v>
       </c>
       <c r="B111" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C111" t="s">
         <v>1545</v>
@@ -8452,7 +8452,7 @@
         <v>252</v>
       </c>
       <c r="B112" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C112" t="s">
         <v>1546</v>
@@ -8469,7 +8469,7 @@
         <v>254</v>
       </c>
       <c r="B113" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C113" t="s">
         <v>1547</v>
@@ -8503,7 +8503,7 @@
         <v>258</v>
       </c>
       <c r="B115" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C115" t="s">
         <v>1548</v>
@@ -8525,7 +8525,7 @@
         <v>261</v>
       </c>
       <c r="B116" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C116" t="s">
         <v>1549</v>
@@ -8547,7 +8547,7 @@
         <v>264</v>
       </c>
       <c r="B117" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C117" t="s">
         <v>1550</v>
@@ -8564,7 +8564,7 @@
         <v>266</v>
       </c>
       <c r="B118" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C118" t="s">
         <v>1551</v>
@@ -8586,7 +8586,7 @@
         <v>269</v>
       </c>
       <c r="B119" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C119" t="s">
         <v>1552</v>
@@ -8603,7 +8603,7 @@
         <v>271</v>
       </c>
       <c r="B120" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C120" t="s">
         <v>272</v>
@@ -8620,7 +8620,7 @@
         <v>273</v>
       </c>
       <c r="B121" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C121" t="s">
         <v>274</v>
@@ -8642,7 +8642,7 @@
         <v>276</v>
       </c>
       <c r="B122" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C122" t="s">
         <v>1553</v>
@@ -8659,7 +8659,7 @@
         <v>278</v>
       </c>
       <c r="B123" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C123" t="s">
         <v>1554</v>
@@ -8676,7 +8676,7 @@
         <v>280</v>
       </c>
       <c r="B124" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C124" t="s">
         <v>1555</v>
@@ -8693,7 +8693,7 @@
         <v>282</v>
       </c>
       <c r="B125" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C125" t="s">
         <v>1556</v>
@@ -8715,7 +8715,7 @@
         <v>285</v>
       </c>
       <c r="B126" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C126" t="s">
         <v>1557</v>
@@ -8732,7 +8732,7 @@
         <v>287</v>
       </c>
       <c r="B127" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C127" t="s">
         <v>1558</v>
@@ -8754,7 +8754,7 @@
         <v>290</v>
       </c>
       <c r="B128" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C128" t="s">
         <v>1559</v>
@@ -8776,7 +8776,7 @@
         <v>293</v>
       </c>
       <c r="B129" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C129" t="s">
         <v>294</v>
@@ -8810,7 +8810,7 @@
         <v>297</v>
       </c>
       <c r="B131" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C131" t="s">
         <v>298</v>
@@ -8832,7 +8832,7 @@
         <v>300</v>
       </c>
       <c r="B132" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C132" t="s">
         <v>1560</v>
@@ -8854,7 +8854,7 @@
         <v>303</v>
       </c>
       <c r="B133" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C133" t="s">
         <v>1561</v>
@@ -8871,7 +8871,7 @@
         <v>305</v>
       </c>
       <c r="B134" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C134" t="s">
         <v>1562</v>
@@ -8893,7 +8893,7 @@
         <v>308</v>
       </c>
       <c r="B135" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C135" t="s">
         <v>309</v>
@@ -8910,7 +8910,7 @@
         <v>310</v>
       </c>
       <c r="B136" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C136" t="s">
         <v>1563</v>
@@ -8927,7 +8927,7 @@
         <v>312</v>
       </c>
       <c r="B137" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C137" t="s">
         <v>1564</v>
@@ -8944,7 +8944,7 @@
         <v>314</v>
       </c>
       <c r="B138" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C138" t="s">
         <v>1565</v>
@@ -8966,7 +8966,7 @@
         <v>317</v>
       </c>
       <c r="B139" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C139" t="s">
         <v>318</v>
@@ -8995,7 +8995,7 @@
         <v>320</v>
       </c>
       <c r="B141" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C141" t="s">
         <v>1566</v>
@@ -9012,7 +9012,7 @@
         <v>322</v>
       </c>
       <c r="B142" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C142" t="s">
         <v>323</v>
@@ -9034,7 +9034,7 @@
         <v>325</v>
       </c>
       <c r="B143" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C143" t="s">
         <v>1567</v>
@@ -9051,7 +9051,7 @@
         <v>327</v>
       </c>
       <c r="B144" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C144" t="s">
         <v>328</v>
@@ -9073,7 +9073,7 @@
         <v>330</v>
       </c>
       <c r="B145" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C145" t="s">
         <v>1568</v>
@@ -9107,7 +9107,7 @@
         <v>334</v>
       </c>
       <c r="B147" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C147" t="s">
         <v>1569</v>
@@ -9129,7 +9129,7 @@
         <v>337</v>
       </c>
       <c r="B148" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C148" t="s">
         <v>1570</v>
@@ -9146,7 +9146,7 @@
         <v>339</v>
       </c>
       <c r="B149" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C149" t="s">
         <v>1571</v>
@@ -9163,7 +9163,7 @@
         <v>341</v>
       </c>
       <c r="B150" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C150" t="s">
         <v>342</v>
@@ -9180,7 +9180,7 @@
         <v>343</v>
       </c>
       <c r="B151" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C151" t="s">
         <v>1572</v>
@@ -9202,7 +9202,7 @@
         <v>346</v>
       </c>
       <c r="B152" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C152" t="s">
         <v>1573</v>
@@ -9219,7 +9219,7 @@
         <v>348</v>
       </c>
       <c r="B153" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C153" t="s">
         <v>1574</v>
@@ -9236,7 +9236,7 @@
         <v>350</v>
       </c>
       <c r="B154" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C154" t="s">
         <v>1575</v>
@@ -9258,7 +9258,7 @@
         <v>353</v>
       </c>
       <c r="B155" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C155" t="s">
         <v>354</v>
@@ -9280,7 +9280,7 @@
         <v>356</v>
       </c>
       <c r="B156" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C156" t="s">
         <v>1576</v>
@@ -9302,7 +9302,7 @@
         <v>359</v>
       </c>
       <c r="B157" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C157" t="s">
         <v>1577</v>
@@ -9324,7 +9324,7 @@
         <v>362</v>
       </c>
       <c r="B158" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C158" t="s">
         <v>1578</v>
@@ -9341,7 +9341,7 @@
         <v>364</v>
       </c>
       <c r="B159" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C159" t="s">
         <v>1579</v>
@@ -9363,7 +9363,7 @@
         <v>367</v>
       </c>
       <c r="B160" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C160" t="s">
         <v>1580</v>
@@ -9385,7 +9385,7 @@
         <v>370</v>
       </c>
       <c r="B161" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C161" t="s">
         <v>1581</v>
@@ -9419,7 +9419,7 @@
         <v>374</v>
       </c>
       <c r="B163" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C163" t="s">
         <v>1582</v>
@@ -9436,7 +9436,7 @@
         <v>376</v>
       </c>
       <c r="B164" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C164" t="s">
         <v>377</v>
@@ -9453,7 +9453,7 @@
         <v>378</v>
       </c>
       <c r="B165" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C165" t="s">
         <v>1583</v>
@@ -9475,7 +9475,7 @@
         <v>381</v>
       </c>
       <c r="B166" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C166" t="s">
         <v>1584</v>
@@ -9497,7 +9497,7 @@
         <v>384</v>
       </c>
       <c r="B167" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C167" t="s">
         <v>1585</v>
@@ -9514,7 +9514,7 @@
         <v>386</v>
       </c>
       <c r="B168" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C168" t="s">
         <v>1586</v>
@@ -9536,7 +9536,7 @@
         <v>389</v>
       </c>
       <c r="B169" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C169" t="s">
         <v>1587</v>
@@ -9553,7 +9553,7 @@
         <v>391</v>
       </c>
       <c r="B170" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C170" t="s">
         <v>1588</v>
@@ -9575,7 +9575,7 @@
         <v>394</v>
       </c>
       <c r="B171" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C171" t="s">
         <v>1589</v>
@@ -9592,7 +9592,7 @@
         <v>396</v>
       </c>
       <c r="B172" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C172" t="s">
         <v>397</v>
@@ -9614,7 +9614,7 @@
         <v>399</v>
       </c>
       <c r="B173" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C173" t="s">
         <v>1590</v>
@@ -9631,7 +9631,7 @@
         <v>401</v>
       </c>
       <c r="B174" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C174" t="s">
         <v>1591</v>
@@ -9648,7 +9648,7 @@
         <v>403</v>
       </c>
       <c r="B175" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C175" t="s">
         <v>1592</v>
@@ -9665,7 +9665,7 @@
         <v>405</v>
       </c>
       <c r="B176" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C176" t="s">
         <v>1593</v>
@@ -9687,7 +9687,7 @@
         <v>408</v>
       </c>
       <c r="B177" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C177" t="s">
         <v>1594</v>
@@ -9709,7 +9709,7 @@
         <v>411</v>
       </c>
       <c r="B178" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C178" t="s">
         <v>1595</v>
@@ -9726,7 +9726,7 @@
         <v>413</v>
       </c>
       <c r="B179" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C179" t="s">
         <v>1596</v>
@@ -9748,7 +9748,7 @@
         <v>416</v>
       </c>
       <c r="B180" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C180" t="s">
         <v>1597</v>
@@ -9770,7 +9770,7 @@
         <v>419</v>
       </c>
       <c r="B181" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C181" t="s">
         <v>1598</v>
@@ -9787,7 +9787,7 @@
         <v>421</v>
       </c>
       <c r="B182" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C182" t="s">
         <v>1599</v>
@@ -9804,7 +9804,7 @@
         <v>423</v>
       </c>
       <c r="B183" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C183" t="s">
         <v>1600</v>
@@ -9826,7 +9826,7 @@
         <v>426</v>
       </c>
       <c r="B184" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C184" t="s">
         <v>1601</v>
@@ -9843,7 +9843,7 @@
         <v>428</v>
       </c>
       <c r="B185" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C185" t="s">
         <v>1602</v>
@@ -9860,7 +9860,7 @@
         <v>430</v>
       </c>
       <c r="B186" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C186" t="s">
         <v>1603</v>
@@ -9877,7 +9877,7 @@
         <v>432</v>
       </c>
       <c r="B187" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C187" t="s">
         <v>433</v>
@@ -9894,7 +9894,7 @@
         <v>434</v>
       </c>
       <c r="B188" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C188" t="s">
         <v>1604</v>
@@ -9916,7 +9916,7 @@
         <v>437</v>
       </c>
       <c r="B189" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C189" t="s">
         <v>1605</v>
@@ -9933,7 +9933,7 @@
         <v>439</v>
       </c>
       <c r="B190" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C190" t="s">
         <v>1606</v>
@@ -9950,7 +9950,7 @@
         <v>441</v>
       </c>
       <c r="B191" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C191" t="s">
         <v>1607</v>
@@ -9984,7 +9984,7 @@
         <v>445</v>
       </c>
       <c r="B193" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C193" t="s">
         <v>1608</v>
@@ -10001,7 +10001,7 @@
         <v>447</v>
       </c>
       <c r="B194" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C194" t="s">
         <v>1609</v>
@@ -10018,7 +10018,7 @@
         <v>449</v>
       </c>
       <c r="B195" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C195" t="s">
         <v>450</v>
@@ -10047,7 +10047,7 @@
         <v>452</v>
       </c>
       <c r="B197" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C197" t="s">
         <v>1610</v>
@@ -10069,7 +10069,7 @@
         <v>455</v>
       </c>
       <c r="B198" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C198" t="s">
         <v>456</v>
@@ -10086,7 +10086,7 @@
         <v>457</v>
       </c>
       <c r="B199" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C199" t="s">
         <v>1611</v>
@@ -10103,7 +10103,7 @@
         <v>459</v>
       </c>
       <c r="B200" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C200" t="s">
         <v>1612</v>
@@ -10120,7 +10120,7 @@
         <v>461</v>
       </c>
       <c r="B201" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C201" t="s">
         <v>1613</v>
@@ -10142,7 +10142,7 @@
         <v>464</v>
       </c>
       <c r="B202" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C202" t="s">
         <v>1614</v>
@@ -10164,7 +10164,7 @@
         <v>467</v>
       </c>
       <c r="B203" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C203" t="s">
         <v>468</v>
@@ -10181,7 +10181,7 @@
         <v>469</v>
       </c>
       <c r="B204" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C204" t="s">
         <v>1615</v>
@@ -10198,7 +10198,7 @@
         <v>471</v>
       </c>
       <c r="B205" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C205" t="s">
         <v>1616</v>
@@ -10227,7 +10227,7 @@
         <v>474</v>
       </c>
       <c r="B207" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C207" t="s">
         <v>1617</v>
@@ -10249,7 +10249,7 @@
         <v>477</v>
       </c>
       <c r="B208" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C208" t="s">
         <v>1618</v>
@@ -10271,7 +10271,7 @@
         <v>480</v>
       </c>
       <c r="B209" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C209" t="s">
         <v>1619</v>
@@ -10300,7 +10300,7 @@
         <v>483</v>
       </c>
       <c r="B211" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C211" t="s">
         <v>1620</v>
@@ -10322,7 +10322,7 @@
         <v>486</v>
       </c>
       <c r="B212" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C212" t="s">
         <v>1621</v>
@@ -10339,7 +10339,7 @@
         <v>488</v>
       </c>
       <c r="B213" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C213" t="s">
         <v>1622</v>
@@ -10361,7 +10361,7 @@
         <v>491</v>
       </c>
       <c r="B214" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C214" t="s">
         <v>1623</v>
@@ -10378,7 +10378,7 @@
         <v>493</v>
       </c>
       <c r="B215" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C215" t="s">
         <v>494</v>
@@ -10395,7 +10395,7 @@
         <v>495</v>
       </c>
       <c r="B216" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C216" t="s">
         <v>1624</v>
@@ -10412,7 +10412,7 @@
         <v>497</v>
       </c>
       <c r="B217" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C217" t="s">
         <v>1625</v>
@@ -10429,7 +10429,7 @@
         <v>499</v>
       </c>
       <c r="B218" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C218" t="s">
         <v>1626</v>
@@ -10446,7 +10446,7 @@
         <v>501</v>
       </c>
       <c r="B219" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C219" t="s">
         <v>1627</v>
@@ -10468,7 +10468,7 @@
         <v>504</v>
       </c>
       <c r="B220" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C220" t="s">
         <v>1628</v>
@@ -10502,7 +10502,7 @@
         <v>508</v>
       </c>
       <c r="B222" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C222" t="s">
         <v>1629</v>
@@ -10519,7 +10519,7 @@
         <v>510</v>
       </c>
       <c r="B223" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C223" t="s">
         <v>511</v>
@@ -10553,7 +10553,7 @@
         <v>514</v>
       </c>
       <c r="B225" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C225" t="s">
         <v>1630</v>
@@ -10575,7 +10575,7 @@
         <v>517</v>
       </c>
       <c r="B226" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C226" t="s">
         <v>1631</v>
@@ -10592,7 +10592,7 @@
         <v>519</v>
       </c>
       <c r="B227" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C227" t="s">
         <v>1632</v>
@@ -10614,7 +10614,7 @@
         <v>522</v>
       </c>
       <c r="B228" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C228" t="s">
         <v>1633</v>
@@ -10631,7 +10631,7 @@
         <v>524</v>
       </c>
       <c r="B229" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C229" t="s">
         <v>1634</v>
@@ -10653,7 +10653,7 @@
         <v>527</v>
       </c>
       <c r="B230" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C230" t="s">
         <v>1635</v>
@@ -10670,7 +10670,7 @@
         <v>529</v>
       </c>
       <c r="B231" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C231" t="s">
         <v>1636</v>
@@ -10687,7 +10687,7 @@
         <v>531</v>
       </c>
       <c r="B232" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C232" t="s">
         <v>1637</v>
@@ -10704,7 +10704,7 @@
         <v>533</v>
       </c>
       <c r="B233" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C233" t="s">
         <v>1638</v>
@@ -10738,7 +10738,7 @@
         <v>537</v>
       </c>
       <c r="B235" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C235" t="s">
         <v>1639</v>
@@ -10755,7 +10755,7 @@
         <v>539</v>
       </c>
       <c r="B236" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C236" t="s">
         <v>1640</v>
@@ -10772,7 +10772,7 @@
         <v>541</v>
       </c>
       <c r="B237" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C237" t="s">
         <v>1641</v>
@@ -10794,7 +10794,7 @@
         <v>544</v>
       </c>
       <c r="B238" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C238" t="s">
         <v>545</v>
@@ -10811,7 +10811,7 @@
         <v>546</v>
       </c>
       <c r="B239" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C239" t="s">
         <v>547</v>
@@ -10833,7 +10833,7 @@
         <v>549</v>
       </c>
       <c r="B240" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C240" t="s">
         <v>1642</v>
@@ -10850,7 +10850,7 @@
         <v>551</v>
       </c>
       <c r="B241" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C241" t="s">
         <v>1643</v>
@@ -10872,7 +10872,7 @@
         <v>554</v>
       </c>
       <c r="B242" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C242" t="s">
         <v>1644</v>
@@ -10889,7 +10889,7 @@
         <v>556</v>
       </c>
       <c r="B243" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C243" t="s">
         <v>1645</v>
@@ -10911,7 +10911,7 @@
         <v>559</v>
       </c>
       <c r="B244" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C244" t="s">
         <v>1646</v>
@@ -10933,7 +10933,7 @@
         <v>562</v>
       </c>
       <c r="B245" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C245" t="s">
         <v>1647</v>
@@ -10950,7 +10950,7 @@
         <v>564</v>
       </c>
       <c r="B246" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C246" t="s">
         <v>1648</v>
@@ -10967,7 +10967,7 @@
         <v>566</v>
       </c>
       <c r="B247" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C247" t="s">
         <v>1649</v>
@@ -10989,7 +10989,7 @@
         <v>569</v>
       </c>
       <c r="B248" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C248" t="s">
         <v>1650</v>
@@ -11011,7 +11011,7 @@
         <v>572</v>
       </c>
       <c r="B249" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C249" t="s">
         <v>1651</v>
@@ -11028,7 +11028,7 @@
         <v>574</v>
       </c>
       <c r="B250" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C250" t="s">
         <v>1652</v>
@@ -11045,7 +11045,7 @@
         <v>576</v>
       </c>
       <c r="B251" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C251" t="s">
         <v>1653</v>
@@ -11074,7 +11074,7 @@
         <v>579</v>
       </c>
       <c r="B253" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C253" t="s">
         <v>1654</v>
@@ -11096,7 +11096,7 @@
         <v>582</v>
       </c>
       <c r="B254" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C254" t="s">
         <v>583</v>
@@ -11118,7 +11118,7 @@
         <v>585</v>
       </c>
       <c r="B255" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C255" t="s">
         <v>1655</v>
@@ -11135,7 +11135,7 @@
         <v>587</v>
       </c>
       <c r="B256" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C256" t="s">
         <v>1656</v>
@@ -11157,7 +11157,7 @@
         <v>590</v>
       </c>
       <c r="B257" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C257" t="s">
         <v>1657</v>
@@ -11174,7 +11174,7 @@
         <v>592</v>
       </c>
       <c r="B258" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C258" t="s">
         <v>1658</v>
@@ -11196,7 +11196,7 @@
         <v>595</v>
       </c>
       <c r="B259" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C259" t="s">
         <v>1659</v>
@@ -11218,7 +11218,7 @@
         <v>598</v>
       </c>
       <c r="B260" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C260" t="s">
         <v>1660</v>
@@ -11240,7 +11240,7 @@
         <v>601</v>
       </c>
       <c r="B261" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C261" t="s">
         <v>1661</v>
@@ -11257,7 +11257,7 @@
         <v>603</v>
       </c>
       <c r="B262" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C262" t="s">
         <v>1662</v>
@@ -11279,7 +11279,7 @@
         <v>606</v>
       </c>
       <c r="B263" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C263" t="s">
         <v>1663</v>
@@ -11296,7 +11296,7 @@
         <v>608</v>
       </c>
       <c r="B264" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C264" t="s">
         <v>609</v>
@@ -11313,7 +11313,7 @@
         <v>610</v>
       </c>
       <c r="B265" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C265" t="s">
         <v>1664</v>
@@ -11330,7 +11330,7 @@
         <v>612</v>
       </c>
       <c r="B266" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C266" t="s">
         <v>1665</v>
@@ -11347,7 +11347,7 @@
         <v>614</v>
       </c>
       <c r="B267" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C267" t="s">
         <v>1666</v>
@@ -11369,7 +11369,7 @@
         <v>617</v>
       </c>
       <c r="B268" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C268" t="s">
         <v>1667</v>
@@ -11391,7 +11391,7 @@
         <v>620</v>
       </c>
       <c r="B269" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C269" t="s">
         <v>1668</v>
@@ -11408,7 +11408,7 @@
         <v>622</v>
       </c>
       <c r="B270" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C270" t="s">
         <v>623</v>
@@ -11425,7 +11425,7 @@
         <v>624</v>
       </c>
       <c r="B271" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C271" t="s">
         <v>1669</v>
@@ -11447,7 +11447,7 @@
         <v>627</v>
       </c>
       <c r="B272" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C272" t="s">
         <v>1670</v>
@@ -11464,7 +11464,7 @@
         <v>629</v>
       </c>
       <c r="B273" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C273" t="s">
         <v>1671</v>
@@ -11486,7 +11486,7 @@
         <v>632</v>
       </c>
       <c r="B274" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C274" t="s">
         <v>1672</v>
@@ -11508,7 +11508,7 @@
         <v>635</v>
       </c>
       <c r="B275" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C275" t="s">
         <v>1673</v>
@@ -11525,7 +11525,7 @@
         <v>637</v>
       </c>
       <c r="B276" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C276" t="s">
         <v>1674</v>
@@ -11542,7 +11542,7 @@
         <v>639</v>
       </c>
       <c r="B277" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C277" t="s">
         <v>640</v>
@@ -11559,7 +11559,7 @@
         <v>641</v>
       </c>
       <c r="B278" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C278" t="s">
         <v>1675</v>
@@ -11588,7 +11588,7 @@
         <v>644</v>
       </c>
       <c r="B280" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C280" t="s">
         <v>1676</v>
@@ -11610,7 +11610,7 @@
         <v>647</v>
       </c>
       <c r="B281" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C281" t="s">
         <v>1677</v>
@@ -11632,7 +11632,7 @@
         <v>650</v>
       </c>
       <c r="B282" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C282" t="s">
         <v>1678</v>
@@ -11654,7 +11654,7 @@
         <v>653</v>
       </c>
       <c r="B283" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C283" t="s">
         <v>654</v>
@@ -11671,7 +11671,7 @@
         <v>655</v>
       </c>
       <c r="B284" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C284" t="s">
         <v>1679</v>
@@ -11693,7 +11693,7 @@
         <v>658</v>
       </c>
       <c r="B285" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C285" t="s">
         <v>1680</v>
@@ -11715,7 +11715,7 @@
         <v>661</v>
       </c>
       <c r="B286" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C286" t="s">
         <v>1681</v>
@@ -11732,7 +11732,7 @@
         <v>663</v>
       </c>
       <c r="B287" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C287" t="s">
         <v>664</v>
@@ -11749,7 +11749,7 @@
         <v>665</v>
       </c>
       <c r="B288" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C288" t="s">
         <v>1682</v>
@@ -11766,7 +11766,7 @@
         <v>667</v>
       </c>
       <c r="B289" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C289" t="s">
         <v>668</v>
@@ -11788,7 +11788,7 @@
         <v>670</v>
       </c>
       <c r="B290" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C290" t="s">
         <v>1683</v>
@@ -11817,7 +11817,7 @@
         <v>673</v>
       </c>
       <c r="B292" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C292" t="s">
         <v>1684</v>
@@ -11834,7 +11834,7 @@
         <v>675</v>
       </c>
       <c r="B293" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C293" t="s">
         <v>676</v>
@@ -11856,7 +11856,7 @@
         <v>678</v>
       </c>
       <c r="B294" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C294" t="s">
         <v>679</v>
@@ -11885,7 +11885,7 @@
         <v>681</v>
       </c>
       <c r="B296" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C296" t="s">
         <v>1685</v>
@@ -11902,7 +11902,7 @@
         <v>683</v>
       </c>
       <c r="B297" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C297" t="s">
         <v>1686</v>
@@ -11919,7 +11919,7 @@
         <v>685</v>
       </c>
       <c r="B298" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C298" t="s">
         <v>686</v>
@@ -11936,7 +11936,7 @@
         <v>687</v>
       </c>
       <c r="B299" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C299" t="s">
         <v>1687</v>
@@ -11958,7 +11958,7 @@
         <v>690</v>
       </c>
       <c r="B300" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C300" t="s">
         <v>691</v>
@@ -11975,7 +11975,7 @@
         <v>692</v>
       </c>
       <c r="B301" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C301" t="s">
         <v>1688</v>
@@ -11997,7 +11997,7 @@
         <v>695</v>
       </c>
       <c r="B302" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C302" t="s">
         <v>1689</v>
@@ -12014,7 +12014,7 @@
         <v>697</v>
       </c>
       <c r="B303" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C303" t="s">
         <v>1690</v>
@@ -12031,7 +12031,7 @@
         <v>699</v>
       </c>
       <c r="B304" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C304" t="s">
         <v>1691</v>
@@ -12048,7 +12048,7 @@
         <v>701</v>
       </c>
       <c r="B305" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C305" t="s">
         <v>1692</v>
@@ -12070,7 +12070,7 @@
         <v>704</v>
       </c>
       <c r="B306" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C306" t="s">
         <v>705</v>
@@ -12087,7 +12087,7 @@
         <v>706</v>
       </c>
       <c r="B307" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C307" t="s">
         <v>1693</v>
@@ -12109,7 +12109,7 @@
         <v>709</v>
       </c>
       <c r="B308" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C308" t="s">
         <v>710</v>
@@ -12131,7 +12131,7 @@
         <v>712</v>
       </c>
       <c r="B309" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C309" t="s">
         <v>713</v>
@@ -12148,7 +12148,7 @@
         <v>714</v>
       </c>
       <c r="B310" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C310" t="s">
         <v>1694</v>
@@ -12177,7 +12177,7 @@
         <v>717</v>
       </c>
       <c r="B312" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C312" t="s">
         <v>1695</v>
@@ -12211,7 +12211,7 @@
         <v>721</v>
       </c>
       <c r="B314" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C314" t="s">
         <v>1696</v>
@@ -12228,7 +12228,7 @@
         <v>723</v>
       </c>
       <c r="B315" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C315" t="s">
         <v>1697</v>
@@ -12245,7 +12245,7 @@
         <v>725</v>
       </c>
       <c r="B316" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C316" t="s">
         <v>1698</v>
@@ -12262,7 +12262,7 @@
         <v>727</v>
       </c>
       <c r="B317" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C317" t="s">
         <v>1699</v>
@@ -12284,7 +12284,7 @@
         <v>730</v>
       </c>
       <c r="B318" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C318" t="s">
         <v>731</v>
@@ -12301,7 +12301,7 @@
         <v>732</v>
       </c>
       <c r="B319" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C319" t="s">
         <v>733</v>
@@ -12342,7 +12342,7 @@
         <v>736</v>
       </c>
       <c r="B322" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C322" t="s">
         <v>1700</v>
@@ -12364,7 +12364,7 @@
         <v>739</v>
       </c>
       <c r="B323" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C323" t="s">
         <v>740</v>
@@ -12381,7 +12381,7 @@
         <v>741</v>
       </c>
       <c r="B324" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C324" t="s">
         <v>1701</v>
@@ -12403,7 +12403,7 @@
         <v>744</v>
       </c>
       <c r="B325" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C325" t="s">
         <v>1702</v>
@@ -12425,7 +12425,7 @@
         <v>747</v>
       </c>
       <c r="B326" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C326" t="s">
         <v>1703</v>
@@ -12447,7 +12447,7 @@
         <v>750</v>
       </c>
       <c r="B327" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C327" t="s">
         <v>1704</v>
@@ -12464,7 +12464,7 @@
         <v>752</v>
       </c>
       <c r="B328" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C328" t="s">
         <v>1705</v>
@@ -12481,7 +12481,7 @@
         <v>754</v>
       </c>
       <c r="B329" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C329" t="s">
         <v>1706</v>
@@ -12503,7 +12503,7 @@
         <v>757</v>
       </c>
       <c r="B330" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C330" t="s">
         <v>1707</v>
@@ -12520,7 +12520,7 @@
         <v>759</v>
       </c>
       <c r="B331" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C331" t="s">
         <v>760</v>
@@ -12542,7 +12542,7 @@
         <v>762</v>
       </c>
       <c r="B332" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C332" t="s">
         <v>1708</v>
@@ -12559,7 +12559,7 @@
         <v>764</v>
       </c>
       <c r="B333" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C333" t="s">
         <v>765</v>
@@ -12581,7 +12581,7 @@
         <v>767</v>
       </c>
       <c r="B334" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C334" t="s">
         <v>1709</v>
@@ -12598,7 +12598,7 @@
         <v>769</v>
       </c>
       <c r="B335" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C335" t="s">
         <v>770</v>
@@ -12615,7 +12615,7 @@
         <v>771</v>
       </c>
       <c r="B336" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C336" t="s">
         <v>772</v>
@@ -12632,7 +12632,7 @@
         <v>773</v>
       </c>
       <c r="B337" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C337" t="s">
         <v>774</v>
@@ -12649,7 +12649,7 @@
         <v>775</v>
       </c>
       <c r="B338" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C338" t="s">
         <v>1710</v>
@@ -12666,7 +12666,7 @@
         <v>777</v>
       </c>
       <c r="B339" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C339" t="s">
         <v>778</v>
@@ -12683,7 +12683,7 @@
         <v>779</v>
       </c>
       <c r="B340" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C340" t="s">
         <v>1711</v>
@@ -12729,7 +12729,7 @@
         <v>784</v>
       </c>
       <c r="B343" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C343" t="s">
         <v>1712</v>
@@ -12763,7 +12763,7 @@
         <v>788</v>
       </c>
       <c r="B345" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C345" t="s">
         <v>1713</v>
@@ -12797,7 +12797,7 @@
         <v>792</v>
       </c>
       <c r="B347" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C347" t="s">
         <v>1714</v>
@@ -12819,7 +12819,7 @@
         <v>795</v>
       </c>
       <c r="B348" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C348" t="s">
         <v>796</v>
@@ -12841,7 +12841,7 @@
         <v>798</v>
       </c>
       <c r="B349" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C349" t="s">
         <v>1715</v>
@@ -12858,7 +12858,7 @@
         <v>800</v>
       </c>
       <c r="B350" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C350" t="s">
         <v>801</v>
@@ -12880,7 +12880,7 @@
         <v>803</v>
       </c>
       <c r="B351" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C351" t="s">
         <v>804</v>
@@ -12909,7 +12909,7 @@
         <v>806</v>
       </c>
       <c r="B353" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C353" t="s">
         <v>1716</v>
@@ -12931,7 +12931,7 @@
         <v>809</v>
       </c>
       <c r="B354" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C354" t="s">
         <v>1717</v>
@@ -12953,7 +12953,7 @@
         <v>812</v>
       </c>
       <c r="B355" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C355" t="s">
         <v>1718</v>
@@ -12970,7 +12970,7 @@
         <v>814</v>
       </c>
       <c r="B356" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C356" t="s">
         <v>1719</v>
@@ -12992,7 +12992,7 @@
         <v>817</v>
       </c>
       <c r="B357" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C357" t="s">
         <v>1720</v>
@@ -13009,7 +13009,7 @@
         <v>819</v>
       </c>
       <c r="B358" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C358" t="s">
         <v>820</v>
@@ -13038,7 +13038,7 @@
         <v>822</v>
       </c>
       <c r="B360" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C360" t="s">
         <v>823</v>
@@ -13067,7 +13067,7 @@
         <v>825</v>
       </c>
       <c r="B362" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C362" t="s">
         <v>826</v>
@@ -13084,7 +13084,7 @@
         <v>827</v>
       </c>
       <c r="B363" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C363" t="s">
         <v>1721</v>
@@ -13101,7 +13101,7 @@
         <v>829</v>
       </c>
       <c r="B364" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C364" t="s">
         <v>1722</v>
@@ -13135,7 +13135,7 @@
         <v>833</v>
       </c>
       <c r="B366" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C366" t="s">
         <v>1723</v>
@@ -13152,7 +13152,7 @@
         <v>835</v>
       </c>
       <c r="B367" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C367" t="s">
         <v>1724</v>
@@ -13174,7 +13174,7 @@
         <v>838</v>
       </c>
       <c r="B368" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C368" t="s">
         <v>1725</v>
@@ -13196,7 +13196,7 @@
         <v>841</v>
       </c>
       <c r="B369" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C369" t="s">
         <v>1726</v>
@@ -13213,7 +13213,7 @@
         <v>843</v>
       </c>
       <c r="B370" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C370" t="s">
         <v>1727</v>
@@ -13235,7 +13235,7 @@
         <v>846</v>
       </c>
       <c r="B371" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C371" t="s">
         <v>1728</v>
@@ -13252,7 +13252,7 @@
         <v>848</v>
       </c>
       <c r="B372" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C372" t="s">
         <v>849</v>
@@ -13286,7 +13286,7 @@
         <v>852</v>
       </c>
       <c r="B374" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C374" t="s">
         <v>1729</v>
@@ -13303,7 +13303,7 @@
         <v>854</v>
       </c>
       <c r="B375" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C375" t="s">
         <v>1730</v>
@@ -13325,7 +13325,7 @@
         <v>857</v>
       </c>
       <c r="B376" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C376" t="s">
         <v>858</v>
@@ -13354,7 +13354,7 @@
         <v>860</v>
       </c>
       <c r="B378" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C378" t="s">
         <v>1731</v>
@@ -13371,7 +13371,7 @@
         <v>862</v>
       </c>
       <c r="B379" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C379" t="s">
         <v>1732</v>
@@ -13393,7 +13393,7 @@
         <v>865</v>
       </c>
       <c r="B380" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C380" t="s">
         <v>1733</v>
@@ -13410,7 +13410,7 @@
         <v>867</v>
       </c>
       <c r="B381" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C381" t="s">
         <v>1734</v>
@@ -13432,7 +13432,7 @@
         <v>870</v>
       </c>
       <c r="B382" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C382" t="s">
         <v>1735</v>
@@ -13454,7 +13454,7 @@
         <v>873</v>
       </c>
       <c r="B383" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C383" t="s">
         <v>1736</v>
@@ -13488,7 +13488,7 @@
         <v>877</v>
       </c>
       <c r="B385" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C385" t="s">
         <v>1737</v>
@@ -13505,7 +13505,7 @@
         <v>879</v>
       </c>
       <c r="B386" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C386" t="s">
         <v>1738</v>
@@ -13522,7 +13522,7 @@
         <v>881</v>
       </c>
       <c r="B387" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C387" t="s">
         <v>1739</v>
@@ -13544,7 +13544,7 @@
         <v>884</v>
       </c>
       <c r="B388" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C388" t="s">
         <v>885</v>
@@ -13561,7 +13561,7 @@
         <v>886</v>
       </c>
       <c r="B389" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C389" t="s">
         <v>1740</v>
@@ -13578,7 +13578,7 @@
         <v>888</v>
       </c>
       <c r="B390" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C390" t="s">
         <v>1741</v>
@@ -13595,7 +13595,7 @@
         <v>890</v>
       </c>
       <c r="B391" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C391" t="s">
         <v>1742</v>
@@ -13617,7 +13617,7 @@
         <v>893</v>
       </c>
       <c r="B392" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C392" t="s">
         <v>1743</v>
@@ -13639,7 +13639,7 @@
         <v>896</v>
       </c>
       <c r="B393" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C393" t="s">
         <v>1744</v>
@@ -13656,7 +13656,7 @@
         <v>898</v>
       </c>
       <c r="B394" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C394" t="s">
         <v>1745</v>
@@ -13673,7 +13673,7 @@
         <v>900</v>
       </c>
       <c r="B395" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C395" t="s">
         <v>1746</v>
@@ -13695,7 +13695,7 @@
         <v>903</v>
       </c>
       <c r="B396" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C396" t="s">
         <v>1747</v>
@@ -13717,7 +13717,7 @@
         <v>906</v>
       </c>
       <c r="B397" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C397" t="s">
         <v>1748</v>
@@ -13734,7 +13734,7 @@
         <v>908</v>
       </c>
       <c r="B398" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C398" t="s">
         <v>1749</v>
@@ -13768,7 +13768,7 @@
         <v>912</v>
       </c>
       <c r="B400" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C400" t="s">
         <v>1750</v>
@@ -13790,7 +13790,7 @@
         <v>915</v>
       </c>
       <c r="B401" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C401" t="s">
         <v>1751</v>
@@ -13807,7 +13807,7 @@
         <v>917</v>
       </c>
       <c r="B402" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C402" t="s">
         <v>1752</v>
@@ -13841,7 +13841,7 @@
         <v>921</v>
       </c>
       <c r="B404" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C404" t="s">
         <v>1753</v>
@@ -13858,7 +13858,7 @@
         <v>923</v>
       </c>
       <c r="B405" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C405" t="s">
         <v>1754</v>
@@ -13878,7 +13878,7 @@
         <v>925</v>
       </c>
       <c r="B406" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C406" t="s">
         <v>1755</v>
@@ -13900,7 +13900,7 @@
         <v>928</v>
       </c>
       <c r="B407" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C407" t="s">
         <v>1756</v>
@@ -13917,7 +13917,7 @@
         <v>930</v>
       </c>
       <c r="B408" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C408" t="s">
         <v>1757</v>
@@ -13939,7 +13939,7 @@
         <v>933</v>
       </c>
       <c r="B409" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C409" t="s">
         <v>934</v>
@@ -13968,7 +13968,7 @@
         <v>936</v>
       </c>
       <c r="B411" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C411" t="s">
         <v>1758</v>
@@ -14014,7 +14014,7 @@
         <v>941</v>
       </c>
       <c r="B414" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C414" t="s">
         <v>1759</v>
@@ -14036,7 +14036,7 @@
         <v>944</v>
       </c>
       <c r="B415" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C415" t="s">
         <v>1760</v>
@@ -14053,7 +14053,7 @@
         <v>946</v>
       </c>
       <c r="B416" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C416" t="s">
         <v>947</v>
@@ -14070,7 +14070,7 @@
         <v>948</v>
       </c>
       <c r="B417" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C417" t="s">
         <v>1761</v>
@@ -14087,7 +14087,7 @@
         <v>950</v>
       </c>
       <c r="B418" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C418" t="s">
         <v>1762</v>
@@ -14121,7 +14121,7 @@
         <v>954</v>
       </c>
       <c r="B420" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C420" t="s">
         <v>1763</v>
@@ -14138,7 +14138,7 @@
         <v>956</v>
       </c>
       <c r="B421" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C421" t="s">
         <v>1764</v>
@@ -14160,7 +14160,7 @@
         <v>959</v>
       </c>
       <c r="B422" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C422" t="s">
         <v>1765</v>
@@ -14182,7 +14182,7 @@
         <v>962</v>
       </c>
       <c r="B423" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C423" t="s">
         <v>963</v>
@@ -14211,7 +14211,7 @@
         <v>965</v>
       </c>
       <c r="B425" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C425" t="s">
         <v>1766</v>
@@ -14228,7 +14228,7 @@
         <v>967</v>
       </c>
       <c r="B426" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C426" t="s">
         <v>1767</v>
@@ -14245,7 +14245,7 @@
         <v>969</v>
       </c>
       <c r="B427" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C427" t="s">
         <v>1768</v>
@@ -14262,7 +14262,7 @@
         <v>971</v>
       </c>
       <c r="B428" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C428" t="s">
         <v>1769</v>
@@ -14279,7 +14279,7 @@
         <v>973</v>
       </c>
       <c r="B429" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C429" t="s">
         <v>1770</v>
@@ -14301,7 +14301,7 @@
         <v>976</v>
       </c>
       <c r="B430" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C430" t="s">
         <v>977</v>
@@ -14318,7 +14318,7 @@
         <v>978</v>
       </c>
       <c r="B431" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C431" t="s">
         <v>1771</v>
@@ -14340,7 +14340,7 @@
         <v>981</v>
       </c>
       <c r="B432" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C432" t="s">
         <v>1772</v>
@@ -14357,7 +14357,7 @@
         <v>983</v>
       </c>
       <c r="B433" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C433" t="s">
         <v>1773</v>
@@ -14379,7 +14379,7 @@
         <v>986</v>
       </c>
       <c r="B434" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C434" t="s">
         <v>1774</v>
@@ -14401,7 +14401,7 @@
         <v>989</v>
       </c>
       <c r="B435" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C435" t="s">
         <v>990</v>
@@ -14418,7 +14418,7 @@
         <v>991</v>
       </c>
       <c r="B436" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C436" t="s">
         <v>1775</v>
@@ -14440,7 +14440,7 @@
         <v>994</v>
       </c>
       <c r="B437" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C437" t="s">
         <v>1776</v>
@@ -14457,7 +14457,7 @@
         <v>996</v>
       </c>
       <c r="B438" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C438" t="s">
         <v>1777</v>
@@ -14479,7 +14479,7 @@
         <v>999</v>
       </c>
       <c r="B439" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C439" t="s">
         <v>1778</v>
@@ -14496,7 +14496,7 @@
         <v>1001</v>
       </c>
       <c r="B440" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C440" t="s">
         <v>1779</v>
@@ -14518,7 +14518,7 @@
         <v>1004</v>
       </c>
       <c r="B441" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C441" t="s">
         <v>1780</v>
@@ -14535,7 +14535,7 @@
         <v>1006</v>
       </c>
       <c r="B442" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C442" t="s">
         <v>1781</v>
@@ -14557,7 +14557,7 @@
         <v>1009</v>
       </c>
       <c r="B443" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C443" t="s">
         <v>1782</v>
@@ -14591,7 +14591,7 @@
         <v>1013</v>
       </c>
       <c r="B445" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C445" t="s">
         <v>1014</v>
@@ -14608,7 +14608,7 @@
         <v>1015</v>
       </c>
       <c r="B446" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C446" t="s">
         <v>1016</v>
@@ -14625,7 +14625,7 @@
         <v>1017</v>
       </c>
       <c r="B447" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C447" t="s">
         <v>1783</v>
@@ -14642,7 +14642,7 @@
         <v>1019</v>
       </c>
       <c r="B448" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C448" t="s">
         <v>1020</v>
@@ -14659,7 +14659,7 @@
         <v>1021</v>
       </c>
       <c r="B449" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C449" t="s">
         <v>1784</v>
@@ -14681,7 +14681,7 @@
         <v>1024</v>
       </c>
       <c r="B450" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C450" t="s">
         <v>1025</v>
@@ -14698,7 +14698,7 @@
         <v>1026</v>
       </c>
       <c r="B451" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C451" t="s">
         <v>1027</v>
@@ -14715,7 +14715,7 @@
         <v>1028</v>
       </c>
       <c r="B452" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C452" t="s">
         <v>1029</v>
@@ -14732,7 +14732,7 @@
         <v>1030</v>
       </c>
       <c r="B453" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C453" t="s">
         <v>1785</v>
@@ -14754,7 +14754,7 @@
         <v>1033</v>
       </c>
       <c r="B454" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C454" t="s">
         <v>1786</v>
@@ -14776,7 +14776,7 @@
         <v>1036</v>
       </c>
       <c r="B455" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C455" t="s">
         <v>1037</v>
@@ -14798,7 +14798,7 @@
         <v>1039</v>
       </c>
       <c r="B456" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C456" t="s">
         <v>1040</v>
@@ -14820,7 +14820,7 @@
         <v>1042</v>
       </c>
       <c r="B457" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C457" t="s">
         <v>1787</v>
@@ -14849,7 +14849,7 @@
         <v>1045</v>
       </c>
       <c r="B459" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C459" t="s">
         <v>1046</v>
@@ -14878,7 +14878,7 @@
         <v>1048</v>
       </c>
       <c r="B461" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C461" t="s">
         <v>1788</v>
@@ -14900,7 +14900,7 @@
         <v>1051</v>
       </c>
       <c r="B462" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C462" t="s">
         <v>1789</v>
@@ -14917,7 +14917,7 @@
         <v>1053</v>
       </c>
       <c r="B463" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C463" t="s">
         <v>1790</v>
@@ -14951,7 +14951,7 @@
         <v>1057</v>
       </c>
       <c r="B465" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C465" t="s">
         <v>1791</v>
@@ -14973,7 +14973,7 @@
         <v>1060</v>
       </c>
       <c r="B466" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C466" t="s">
         <v>1061</v>
@@ -14990,7 +14990,7 @@
         <v>1062</v>
       </c>
       <c r="B467" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C467" t="s">
         <v>1792</v>
@@ -15007,7 +15007,7 @@
         <v>1064</v>
       </c>
       <c r="B468" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C468" t="s">
         <v>1065</v>
@@ -15024,7 +15024,7 @@
         <v>1066</v>
       </c>
       <c r="B469" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C469" t="s">
         <v>1793</v>
@@ -15041,7 +15041,7 @@
         <v>1068</v>
       </c>
       <c r="B470" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C470" t="s">
         <v>1794</v>
@@ -15058,7 +15058,7 @@
         <v>1070</v>
       </c>
       <c r="B471" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C471" t="s">
         <v>1795</v>
@@ -15075,7 +15075,7 @@
         <v>1072</v>
       </c>
       <c r="B472" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C472" t="s">
         <v>1073</v>
@@ -15109,7 +15109,7 @@
         <v>1076</v>
       </c>
       <c r="B474" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C474" t="s">
         <v>1077</v>
@@ -15126,7 +15126,7 @@
         <v>1078</v>
       </c>
       <c r="B475" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C475" t="s">
         <v>1796</v>
@@ -15148,7 +15148,7 @@
         <v>1081</v>
       </c>
       <c r="B476" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C476" t="s">
         <v>1082</v>
@@ -15165,7 +15165,7 @@
         <v>1083</v>
       </c>
       <c r="B477" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C477" t="s">
         <v>1797</v>
@@ -15187,7 +15187,7 @@
         <v>1086</v>
       </c>
       <c r="B478" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C478" t="s">
         <v>1798</v>
@@ -15216,7 +15216,7 @@
         <v>1089</v>
       </c>
       <c r="B480" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C480" t="s">
         <v>1799</v>
@@ -15233,7 +15233,7 @@
         <v>1091</v>
       </c>
       <c r="B481" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C481" t="s">
         <v>1092</v>
@@ -15250,7 +15250,7 @@
         <v>1093</v>
       </c>
       <c r="B482" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C482" t="s">
         <v>1094</v>
@@ -15284,7 +15284,7 @@
         <v>1097</v>
       </c>
       <c r="B484" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C484" t="s">
         <v>1800</v>
@@ -15306,7 +15306,7 @@
         <v>1100</v>
       </c>
       <c r="B485" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C485" t="s">
         <v>1801</v>
@@ -15323,7 +15323,7 @@
         <v>1102</v>
       </c>
       <c r="B486" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C486" t="s">
         <v>1802</v>
@@ -15340,7 +15340,7 @@
         <v>1104</v>
       </c>
       <c r="B487" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C487" t="s">
         <v>1803</v>
@@ -15357,7 +15357,7 @@
         <v>1106</v>
       </c>
       <c r="B488" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C488" t="s">
         <v>1804</v>
@@ -15374,7 +15374,7 @@
         <v>1108</v>
       </c>
       <c r="B489" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C489" t="s">
         <v>1805</v>
@@ -15396,7 +15396,7 @@
         <v>1111</v>
       </c>
       <c r="B490" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C490" t="s">
         <v>1806</v>
@@ -15413,7 +15413,7 @@
         <v>1113</v>
       </c>
       <c r="B491" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C491" t="s">
         <v>1807</v>
@@ -15430,7 +15430,7 @@
         <v>1115</v>
       </c>
       <c r="B492" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C492" t="s">
         <v>1808</v>
@@ -15447,7 +15447,7 @@
         <v>1117</v>
       </c>
       <c r="B493" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C493" t="s">
         <v>1809</v>
@@ -15464,7 +15464,7 @@
         <v>1119</v>
       </c>
       <c r="B494" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C494" t="s">
         <v>1810</v>
@@ -15486,7 +15486,7 @@
         <v>1122</v>
       </c>
       <c r="B495" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C495" t="s">
         <v>1811</v>
@@ -15508,7 +15508,7 @@
         <v>1125</v>
       </c>
       <c r="B496" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C496" t="s">
         <v>1812</v>
@@ -15525,7 +15525,7 @@
         <v>1127</v>
       </c>
       <c r="B497" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C497" t="s">
         <v>1813</v>
@@ -15542,7 +15542,7 @@
         <v>1129</v>
       </c>
       <c r="B498" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C498" t="s">
         <v>1130</v>
@@ -15564,7 +15564,7 @@
         <v>1132</v>
       </c>
       <c r="B499" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C499" t="s">
         <v>1814</v>
@@ -15581,7 +15581,7 @@
         <v>1134</v>
       </c>
       <c r="B500" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C500" t="s">
         <v>1815</v>
@@ -15598,7 +15598,7 @@
         <v>1136</v>
       </c>
       <c r="B501" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C501" t="s">
         <v>1137</v>
@@ -15620,7 +15620,7 @@
         <v>1139</v>
       </c>
       <c r="B502" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C502" t="s">
         <v>1816</v>
@@ -15642,7 +15642,7 @@
         <v>1142</v>
       </c>
       <c r="B503" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C503" t="s">
         <v>947</v>
@@ -15659,7 +15659,7 @@
         <v>1143</v>
       </c>
       <c r="B504" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C504" t="s">
         <v>1817</v>
@@ -15676,7 +15676,7 @@
         <v>1145</v>
       </c>
       <c r="B505" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C505" t="s">
         <v>1146</v>
@@ -15693,7 +15693,7 @@
         <v>1147</v>
       </c>
       <c r="B506" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C506" t="s">
         <v>1148</v>
@@ -15739,7 +15739,7 @@
         <v>1152</v>
       </c>
       <c r="B509" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C509" t="s">
         <v>1153</v>
@@ -15756,7 +15756,7 @@
         <v>1154</v>
       </c>
       <c r="B510" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C510" t="s">
         <v>1818</v>
@@ -15778,7 +15778,7 @@
         <v>1157</v>
       </c>
       <c r="B511" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C511" t="s">
         <v>1819</v>
@@ -15795,7 +15795,7 @@
         <v>1159</v>
       </c>
       <c r="B512" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C512" t="s">
         <v>1820</v>
@@ -15817,7 +15817,7 @@
         <v>1162</v>
       </c>
       <c r="B513" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C513" t="s">
         <v>1163</v>
@@ -15834,7 +15834,7 @@
         <v>1164</v>
       </c>
       <c r="B514" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C514" t="s">
         <v>1821</v>
@@ -15856,7 +15856,7 @@
         <v>1167</v>
       </c>
       <c r="B515" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C515" t="s">
         <v>1822</v>
@@ -15873,7 +15873,7 @@
         <v>1169</v>
       </c>
       <c r="B516" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C516" t="s">
         <v>1823</v>
@@ -15890,7 +15890,7 @@
         <v>1171</v>
       </c>
       <c r="B517" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C517" t="s">
         <v>1172</v>
@@ -15912,7 +15912,7 @@
         <v>1174</v>
       </c>
       <c r="B518" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C518" t="s">
         <v>1824</v>
@@ -15934,7 +15934,7 @@
         <v>1177</v>
       </c>
       <c r="B519" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C519" t="s">
         <v>1825</v>
@@ -15951,7 +15951,7 @@
         <v>1179</v>
       </c>
       <c r="B520" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C520" t="s">
         <v>1826</v>
@@ -15973,7 +15973,7 @@
         <v>1182</v>
       </c>
       <c r="B521" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C521" t="s">
         <v>1183</v>
@@ -15990,7 +15990,7 @@
         <v>1184</v>
       </c>
       <c r="B522" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C522" t="s">
         <v>1827</v>
@@ -16012,7 +16012,7 @@
         <v>1187</v>
       </c>
       <c r="B523" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C523" t="s">
         <v>1188</v>
@@ -16034,7 +16034,7 @@
         <v>1190</v>
       </c>
       <c r="B524" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C524" t="s">
         <v>1191</v>
@@ -16051,7 +16051,7 @@
         <v>1192</v>
       </c>
       <c r="B525" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C525" t="s">
         <v>1193</v>
@@ -16068,7 +16068,7 @@
         <v>1194</v>
       </c>
       <c r="B526" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C526" t="s">
         <v>1195</v>
@@ -16085,7 +16085,7 @@
         <v>1196</v>
       </c>
       <c r="B527" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C527" t="s">
         <v>1828</v>
@@ -16102,7 +16102,7 @@
         <v>1198</v>
       </c>
       <c r="B528" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C528" t="s">
         <v>1829</v>
@@ -16124,7 +16124,7 @@
         <v>1201</v>
       </c>
       <c r="B529" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C529" t="s">
         <v>1830</v>
@@ -16141,7 +16141,7 @@
         <v>1203</v>
       </c>
       <c r="B530" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C530" t="s">
         <v>1204</v>
@@ -16163,7 +16163,7 @@
         <v>1206</v>
       </c>
       <c r="B531" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C531" t="s">
         <v>1207</v>
@@ -16180,7 +16180,7 @@
         <v>1208</v>
       </c>
       <c r="B532" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C532" t="s">
         <v>1209</v>
@@ -16197,7 +16197,7 @@
         <v>1210</v>
       </c>
       <c r="B533" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C533" t="s">
         <v>1211</v>
@@ -16219,7 +16219,7 @@
         <v>1213</v>
       </c>
       <c r="B534" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C534" t="s">
         <v>1214</v>
@@ -16236,7 +16236,7 @@
         <v>1215</v>
       </c>
       <c r="B535" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C535" t="s">
         <v>1831</v>
@@ -16253,7 +16253,7 @@
         <v>1217</v>
       </c>
       <c r="B536" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C536" t="s">
         <v>1832</v>
@@ -16275,7 +16275,7 @@
         <v>1220</v>
       </c>
       <c r="B537" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C537" t="s">
         <v>1833</v>
@@ -16292,7 +16292,7 @@
         <v>1222</v>
       </c>
       <c r="B538" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C538" t="s">
         <v>1834</v>
@@ -16328,7 +16328,7 @@
         <v>1226</v>
       </c>
       <c r="B540" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C540" t="s">
         <v>1835</v>
@@ -16350,7 +16350,7 @@
         <v>1229</v>
       </c>
       <c r="B541" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C541" t="s">
         <v>1836</v>
@@ -16372,7 +16372,7 @@
         <v>1232</v>
       </c>
       <c r="B542" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C542" t="s">
         <v>1837</v>
@@ -16389,7 +16389,7 @@
         <v>1234</v>
       </c>
       <c r="B543" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C543" t="s">
         <v>1235</v>
@@ -16406,7 +16406,7 @@
         <v>1236</v>
       </c>
       <c r="B544" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C544" t="s">
         <v>1838</v>
@@ -16428,7 +16428,7 @@
         <v>1239</v>
       </c>
       <c r="B545" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C545" t="s">
         <v>1839</v>
@@ -16445,7 +16445,7 @@
         <v>1241</v>
       </c>
       <c r="B546" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C546" t="s">
         <v>1840</v>
@@ -16462,7 +16462,7 @@
         <v>1243</v>
       </c>
       <c r="B547" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C547" t="s">
         <v>1841</v>
@@ -16491,7 +16491,7 @@
         <v>1246</v>
       </c>
       <c r="B549" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C549" t="s">
         <v>1842</v>
@@ -16525,7 +16525,7 @@
         <v>1250</v>
       </c>
       <c r="B551" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C551" t="s">
         <v>1251</v>
@@ -16542,7 +16542,7 @@
         <v>1252</v>
       </c>
       <c r="B552" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C552" t="s">
         <v>1843</v>
@@ -16564,7 +16564,7 @@
         <v>1255</v>
       </c>
       <c r="B553" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C553" t="s">
         <v>1256</v>
@@ -16581,7 +16581,7 @@
         <v>1257</v>
       </c>
       <c r="B554" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C554" t="s">
         <v>1844</v>
@@ -16598,7 +16598,7 @@
         <v>1259</v>
       </c>
       <c r="B555" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C555" t="s">
         <v>1260</v>
@@ -16620,7 +16620,7 @@
         <v>1262</v>
       </c>
       <c r="B556" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C556" t="s">
         <v>1845</v>
@@ -16649,7 +16649,7 @@
         <v>1265</v>
       </c>
       <c r="B558" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C558" t="s">
         <v>1846</v>
@@ -16666,7 +16666,7 @@
         <v>1267</v>
       </c>
       <c r="B559" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C559" t="s">
         <v>1847</v>
@@ -16683,7 +16683,7 @@
         <v>1269</v>
       </c>
       <c r="B560" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C560" t="s">
         <v>1848</v>
@@ -16700,7 +16700,7 @@
         <v>1271</v>
       </c>
       <c r="B561" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C561" t="s">
         <v>1849</v>
@@ -16717,7 +16717,7 @@
         <v>1273</v>
       </c>
       <c r="B562" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C562" t="s">
         <v>1850</v>
@@ -16739,7 +16739,7 @@
         <v>1276</v>
       </c>
       <c r="B563" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C563" t="s">
         <v>1851</v>
@@ -16761,7 +16761,7 @@
         <v>1279</v>
       </c>
       <c r="B564" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C564" t="s">
         <v>1852</v>
@@ -16778,7 +16778,7 @@
         <v>1281</v>
       </c>
       <c r="B565" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C565" t="s">
         <v>1853</v>
@@ -16795,7 +16795,7 @@
         <v>1283</v>
       </c>
       <c r="B566" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C566" t="s">
         <v>1854</v>
@@ -16812,7 +16812,7 @@
         <v>1285</v>
       </c>
       <c r="B567" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C567" t="s">
         <v>1855</v>
@@ -16834,7 +16834,7 @@
         <v>1288</v>
       </c>
       <c r="B568" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C568" t="s">
         <v>1856</v>
@@ -16851,7 +16851,7 @@
         <v>1290</v>
       </c>
       <c r="B569" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C569" t="s">
         <v>1857</v>
@@ -16873,7 +16873,7 @@
         <v>1293</v>
       </c>
       <c r="B570" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C570" t="s">
         <v>1858</v>
@@ -16907,7 +16907,7 @@
         <v>1297</v>
       </c>
       <c r="B572" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C572" t="s">
         <v>1859</v>
@@ -16929,7 +16929,7 @@
         <v>1300</v>
       </c>
       <c r="B573" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C573" t="s">
         <v>1301</v>
@@ -16946,7 +16946,7 @@
         <v>1302</v>
       </c>
       <c r="B574" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C574" t="s">
         <v>1303</v>
@@ -16963,7 +16963,7 @@
         <v>1304</v>
       </c>
       <c r="B575" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C575" t="s">
         <v>1860</v>
@@ -16997,7 +16997,7 @@
         <v>1308</v>
       </c>
       <c r="B577" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C577" t="s">
         <v>1861</v>
@@ -17038,7 +17038,7 @@
         <v>1312</v>
       </c>
       <c r="B580" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C580" t="s">
         <v>1862</v>
@@ -17060,7 +17060,7 @@
         <v>1315</v>
       </c>
       <c r="B581" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C581" t="s">
         <v>1863</v>
@@ -17089,7 +17089,7 @@
         <v>1318</v>
       </c>
       <c r="B583" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C583" t="s">
         <v>1319</v>
@@ -17106,7 +17106,7 @@
         <v>1320</v>
       </c>
       <c r="B584" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C584" t="s">
         <v>1864</v>
@@ -17128,7 +17128,7 @@
         <v>1323</v>
       </c>
       <c r="B585" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C585" t="s">
         <v>1324</v>
@@ -17150,7 +17150,7 @@
         <v>1326</v>
       </c>
       <c r="B586" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C586" t="s">
         <v>1865</v>
@@ -17169,7 +17169,7 @@
         <v>1329</v>
       </c>
       <c r="B587" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C587" t="s">
         <v>1330</v>
@@ -17200,7 +17200,7 @@
         <v>1333</v>
       </c>
       <c r="B589" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C589" t="s">
         <v>1866</v>
@@ -17222,7 +17222,7 @@
         <v>1336</v>
       </c>
       <c r="B590" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C590" t="s">
         <v>1867</v>
@@ -17239,7 +17239,7 @@
         <v>1338</v>
       </c>
       <c r="B591" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C591" t="s">
         <v>1868</v>
@@ -17256,7 +17256,7 @@
         <v>1340</v>
       </c>
       <c r="B592" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C592" t="s">
         <v>1869</v>
@@ -17273,7 +17273,7 @@
         <v>1342</v>
       </c>
       <c r="B593" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C593" t="s">
         <v>1870</v>
@@ -17290,7 +17290,7 @@
         <v>1344</v>
       </c>
       <c r="B594" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C594" t="s">
         <v>1871</v>
@@ -17312,7 +17312,7 @@
         <v>1347</v>
       </c>
       <c r="B595" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C595" t="s">
         <v>1872</v>
@@ -17329,7 +17329,7 @@
         <v>1349</v>
       </c>
       <c r="B596" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C596" t="s">
         <v>1873</v>
@@ -17363,7 +17363,7 @@
         <v>1353</v>
       </c>
       <c r="B598" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C598" t="s">
         <v>1874</v>
@@ -17380,7 +17380,7 @@
         <v>1355</v>
       </c>
       <c r="B599" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C599" t="s">
         <v>1875</v>
@@ -17402,7 +17402,7 @@
         <v>1358</v>
       </c>
       <c r="B600" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C600" t="s">
         <v>1876</v>
@@ -17431,7 +17431,7 @@
         <v>1361</v>
       </c>
       <c r="B602" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C602" t="s">
         <v>1877</v>
@@ -17448,7 +17448,7 @@
         <v>1363</v>
       </c>
       <c r="B603" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C603" t="s">
         <v>1878</v>
@@ -17470,7 +17470,7 @@
         <v>1366</v>
       </c>
       <c r="B604" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C604" t="s">
         <v>1879</v>
@@ -17492,7 +17492,7 @@
         <v>1369</v>
       </c>
       <c r="B605" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C605" t="s">
         <v>1880</v>
@@ -17511,7 +17511,7 @@
         <v>1372</v>
       </c>
       <c r="B606" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C606" t="s">
         <v>1881</v>
@@ -17528,7 +17528,7 @@
         <v>1374</v>
       </c>
       <c r="B607" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C607" t="s">
         <v>1882</v>
@@ -17550,7 +17550,7 @@
         <v>1377</v>
       </c>
       <c r="B608" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C608" t="s">
         <v>1883</v>
@@ -17567,7 +17567,7 @@
         <v>1379</v>
       </c>
       <c r="B609" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C609" t="s">
         <v>1884</v>
@@ -17584,7 +17584,7 @@
         <v>1381</v>
       </c>
       <c r="B610" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C610" t="s">
         <v>1885</v>
@@ -17601,7 +17601,7 @@
         <v>1383</v>
       </c>
       <c r="B611" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C611" t="s">
         <v>1886</v>
@@ -17623,7 +17623,7 @@
         <v>1386</v>
       </c>
       <c r="B612" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C612" t="s">
         <v>1887</v>
@@ -17657,7 +17657,7 @@
         <v>1390</v>
       </c>
       <c r="B614" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C614" t="s">
         <v>1888</v>
@@ -17686,7 +17686,7 @@
         <v>1393</v>
       </c>
       <c r="B616" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C616" t="s">
         <v>1889</v>
@@ -17703,7 +17703,7 @@
         <v>1395</v>
       </c>
       <c r="B617" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C617" t="s">
         <v>1890</v>
@@ -17720,7 +17720,7 @@
         <v>1397</v>
       </c>
       <c r="B618" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C618" t="s">
         <v>1891</v>
@@ -17742,7 +17742,7 @@
         <v>1400</v>
       </c>
       <c r="B619" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C619" t="s">
         <v>1401</v>
@@ -17759,7 +17759,7 @@
         <v>1402</v>
       </c>
       <c r="B620" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C620" t="s">
         <v>1403</v>
@@ -17781,7 +17781,7 @@
         <v>1405</v>
       </c>
       <c r="B621" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C621" t="s">
         <v>1892</v>
@@ -17798,7 +17798,7 @@
         <v>1407</v>
       </c>
       <c r="B622" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C622" t="s">
         <v>1893</v>
@@ -17815,7 +17815,7 @@
         <v>1409</v>
       </c>
       <c r="B623" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C623" t="s">
         <v>1894</v>
@@ -17832,7 +17832,7 @@
         <v>1411</v>
       </c>
       <c r="B624" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C624" t="s">
         <v>1895</v>
@@ -17866,7 +17866,7 @@
         <v>1415</v>
       </c>
       <c r="B626" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C626" t="s">
         <v>1896</v>
@@ -17888,7 +17888,7 @@
         <v>1418</v>
       </c>
       <c r="B627" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C627" t="s">
         <v>1897</v>
@@ -17922,7 +17922,7 @@
         <v>1422</v>
       </c>
       <c r="B629" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C629" t="s">
         <v>1898</v>
@@ -17939,7 +17939,7 @@
         <v>1424</v>
       </c>
       <c r="B630" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C630" t="s">
         <v>1899</v>
@@ -17968,7 +17968,7 @@
         <v>1427</v>
       </c>
       <c r="B632" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C632" t="s">
         <v>1900</v>
@@ -17990,7 +17990,7 @@
         <v>1430</v>
       </c>
       <c r="B633" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C633" t="s">
         <v>1901</v>
@@ -18007,7 +18007,7 @@
         <v>1432</v>
       </c>
       <c r="B634" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C634" t="s">
         <v>1902</v>
@@ -18029,7 +18029,7 @@
         <v>1435</v>
       </c>
       <c r="B635" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C635" t="s">
         <v>1903</v>
@@ -18051,7 +18051,7 @@
         <v>1438</v>
       </c>
       <c r="B636" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C636" t="s">
         <v>1904</v>
@@ -18068,7 +18068,7 @@
         <v>1440</v>
       </c>
       <c r="B637" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C637" t="s">
         <v>1441</v>
@@ -18085,7 +18085,7 @@
         <v>1442</v>
       </c>
       <c r="B638" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C638" t="s">
         <v>1443</v>
@@ -18102,7 +18102,7 @@
         <v>1444</v>
       </c>
       <c r="B639" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C639" t="s">
         <v>1445</v>
@@ -18119,7 +18119,7 @@
         <v>1446</v>
       </c>
       <c r="B640" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C640" t="s">
         <v>1905</v>
@@ -18148,7 +18148,7 @@
         <v>1449</v>
       </c>
       <c r="B642" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C642" t="s">
         <v>1450</v>
@@ -18165,7 +18165,7 @@
         <v>1451</v>
       </c>
       <c r="B643" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C643" t="s">
         <v>1906</v>
@@ -18182,7 +18182,7 @@
         <v>1453</v>
       </c>
       <c r="B644" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C644" t="s">
         <v>1907</v>
@@ -18199,7 +18199,7 @@
         <v>1455</v>
       </c>
       <c r="B645" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C645" t="s">
         <v>1908</v>
@@ -18216,7 +18216,7 @@
         <v>1457</v>
       </c>
       <c r="B646" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C646" t="s">
         <v>1909</v>
@@ -18233,7 +18233,7 @@
         <v>1459</v>
       </c>
       <c r="B647" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C647" t="s">
         <v>1910</v>
@@ -18250,7 +18250,7 @@
         <v>1461</v>
       </c>
       <c r="B648" t="s">
-        <v>1467</v>
+        <v>9</v>
       </c>
       <c r="C648" t="s">
         <v>1911</v>
